--- a/Greyform/Python_Application/exporteddatassss(with TMP)(draft)(tetra).xlsx
+++ b/Greyform/Python_Application/exporteddatassss(with TMP)(draft)(tetra).xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MokZhiZhuan\OneDrive - WINSYS TECHNOLOGY PTE LTD\Documents\GitHub\GreyForm_UI\Greyform\Python_Application\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAB7722-CB95-4CEC-AE9D-6D1C828C33DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="15" windowWidth="23235" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Stage 2" sheetId="1" r:id="rId1"/>
     <sheet name="Stage 3" sheetId="2" r:id="rId2"/>
     <sheet name="Obstacles" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="113">
   <si>
     <t>Marking type</t>
   </si>
@@ -69,232 +63,277 @@
     <t>Tile</t>
   </si>
   <si>
-    <t>TMP1S2b1:TMP1S2b1:1129976</t>
-  </si>
-  <si>
-    <t>TMP1S2b4:TMP1S2b4:1129973</t>
-  </si>
-  <si>
-    <t>TMP1S2b3:TMP1S2b3:1129974</t>
-  </si>
-  <si>
-    <t>TMP1S2b2:TMP1S2b2:1129975</t>
-  </si>
-  <si>
-    <t>TMP1S2a2:TMP1S2a2:1129970</t>
-  </si>
-  <si>
-    <t>Basic Wall:BSS.20mm Wall Finishes (600x600mm):1090844</t>
-  </si>
-  <si>
-    <t>Basic Wall:BSS.50:1090839</t>
-  </si>
-  <si>
-    <t>Basic Wall:BSS.20mm Wall Finishes (600x600mm):1090869</t>
-  </si>
-  <si>
-    <t>TMP1S2a1:TMP1S2a1:1129971</t>
-  </si>
-  <si>
-    <t>Basic Wall:BSS.10 Glass:1090994</t>
-  </si>
-  <si>
-    <t>TMP1S2a3:TMP1S2a3:1129969</t>
-  </si>
-  <si>
-    <t>TMP1S2a4:TMP1S2a4:1129968</t>
-  </si>
-  <si>
-    <t>Basic Wall:BSS.20mm Wall Finishes (600x600mm):1090840</t>
-  </si>
-  <si>
-    <t>TMP2S2a4:TMP2S2a4:1129978</t>
-  </si>
-  <si>
-    <t>TMP2S2a3:TMP2S2a3:1129979</t>
-  </si>
-  <si>
-    <t>TMP2S2a2:TMP2S2a2:1129980</t>
-  </si>
-  <si>
-    <t>TMP2S2b3:TMP2S2b3:1129984</t>
-  </si>
-  <si>
-    <t>TMP2S2b4:TMP2S2b4:1129983</t>
-  </si>
-  <si>
-    <t>Basic Wall:BSS.50:1090834</t>
-  </si>
-  <si>
-    <t>TMP2S2b2:TMP2S2b2:1129985</t>
-  </si>
-  <si>
-    <t>TMP2S2b1:TMP2S2b1:1129986</t>
-  </si>
-  <si>
-    <t>TMP2S2a1:TMP2S2a1:1129981</t>
-  </si>
-  <si>
-    <t>TMP3S2a1:TMP3S2a1:1129993</t>
-  </si>
-  <si>
-    <t>Basic Wall:BSS.12mm Wall Finishes:1090909</t>
-  </si>
-  <si>
-    <t>TMP3S2a2:TMP3S2a2:1129992</t>
-  </si>
-  <si>
-    <t>TMP3S2b2:TMP3S2b2:1129991</t>
-  </si>
-  <si>
-    <t>TMP3S2b1:TMP3S2b1:1129990</t>
+    <t>TMP1S2d4:TMP1S2d4:1151823</t>
+  </si>
+  <si>
+    <t>TMP1S2a2:TMP1S2a2:1141730</t>
+  </si>
+  <si>
+    <t>TMP1S2a1:TMP1S2a1:1141731</t>
+  </si>
+  <si>
+    <t>TMP1S2b4:TMP1S2b4:1141733</t>
+  </si>
+  <si>
+    <t>TMP1S2b3:TMP1S2b3:1141734</t>
+  </si>
+  <si>
+    <t>TMP1S2b2:TMP1S2b2:1141735</t>
+  </si>
+  <si>
+    <t>TMP1S2b1:TMP1S2b1:1141736</t>
+  </si>
+  <si>
+    <t>TMP1S2c4:TMP1S2c4:1151818</t>
+  </si>
+  <si>
+    <t>TMP1S2c3:TMP1S2c3:1151819</t>
+  </si>
+  <si>
+    <t>TMP1S2c2:TMP1S2c2:1151820</t>
+  </si>
+  <si>
+    <t>TMP1S2a3:TMP1S2a3:1141729</t>
+  </si>
+  <si>
+    <t>TMP1S2c1:TMP1S2c1:1151821</t>
+  </si>
+  <si>
+    <t>TMP1S2d2:TMP1S2d2:1151825</t>
+  </si>
+  <si>
+    <t>TMP1S2d1:TMP1S2d1:1151826</t>
+  </si>
+  <si>
+    <t>TMP1S2e4:TMP1S2e4:1151828</t>
+  </si>
+  <si>
+    <t>TMP1S2e3:TMP1S2e3:1151829</t>
+  </si>
+  <si>
+    <t>TMP1S2e2:TMP1S2e2:1151830</t>
+  </si>
+  <si>
+    <t>TMP1S2e1:TMP1S2e1:1151831</t>
+  </si>
+  <si>
+    <t>TMP1S2d3:TMP1S2d3:1151824</t>
+  </si>
+  <si>
+    <t>TMP1S2a4:TMP1S2a4:1141728</t>
+  </si>
+  <si>
+    <t>TMP2S2b2:TMP2S2b2:1151833</t>
+  </si>
+  <si>
+    <t>TMP2S2a2:TMP2S2a2:1151835</t>
+  </si>
+  <si>
+    <t>TMP2S2a1:TMP2S2a1:1151836</t>
+  </si>
+  <si>
+    <t>TMP2S2b1:TMP2S2b1:1151834</t>
+  </si>
+  <si>
+    <t>TMP3S2b4:TMP3S2b4:1151838</t>
+  </si>
+  <si>
+    <t>TMP3S2a4:TMP3S2a4:1151842</t>
+  </si>
+  <si>
+    <t>TMP3S2b2:TMP3S2b2:1151841</t>
+  </si>
+  <si>
+    <t>TMP3S2b1:TMP3S2b1:1151840</t>
+  </si>
+  <si>
+    <t>TMP3S2b3:TMP3S2b3:1151839</t>
+  </si>
+  <si>
+    <t>TMP3S2a1:TMP3S2a1:1151845</t>
+  </si>
+  <si>
+    <t>TMP3S2a3:TMP3S2a3:1151843</t>
+  </si>
+  <si>
+    <t>TMP3S2a2:TMP3S2a2:1151844</t>
+  </si>
+  <si>
+    <t>TMP4S2a4:TMP4S2a4:1151848</t>
+  </si>
+  <si>
+    <t>TMP4S2b4:TMP4S2b4:1151847</t>
+  </si>
+  <si>
+    <t>TMP4S2b3:TMP4S2b3:1151849</t>
+  </si>
+  <si>
+    <t>TMP4S2b2:TMP4S2b2:1151850</t>
+  </si>
+  <si>
+    <t>TMP4S2a3:TMP4S2a3:1151852</t>
+  </si>
+  <si>
+    <t>TMP4S2b1:TMP4S2b1:1151851</t>
+  </si>
+  <si>
+    <t>TMP4S2a2:TMP4S2a2:1151853</t>
+  </si>
+  <si>
+    <t>TMP4S2a1:TMP4S2a1:1151854</t>
+  </si>
+  <si>
+    <t>TMP5S2a3:TMP5S2a3:1151858</t>
+  </si>
+  <si>
+    <t>TMP5S2a1:TMP5S2a1:1151863</t>
+  </si>
+  <si>
+    <t>TMP5S2b3:TMP5S2b3:1151859</t>
+  </si>
+  <si>
+    <t>TMP5S2a4:TMP5S2a4:1151856</t>
+  </si>
+  <si>
+    <t>TMP5S2a2:TMP5S2a2:1151860</t>
+  </si>
+  <si>
+    <t>TMP5S2b2:TMP5S2b2:1151861</t>
+  </si>
+  <si>
+    <t>TMP5S2b1:TMP5S2b1:1151862</t>
+  </si>
+  <si>
+    <t>TMP5S2b4:TMP5S2b4:1151857</t>
+  </si>
+  <si>
+    <t>TMP6S2a2:TMP6S2a2:1151867</t>
+  </si>
+  <si>
+    <t>TMP6S2a4:TMP6S2a4:1151866</t>
+  </si>
+  <si>
+    <t>TMP6S2a1:TMP6S2a1:1151868</t>
+  </si>
+  <si>
+    <t>TMP6S2b4:TMP6S2b4:1151870</t>
+  </si>
+  <si>
+    <t>TMP6S2b3:TMP6S2b3:1151871</t>
+  </si>
+  <si>
+    <t>TMP6S2b2:TMP6S2b2:1151872</t>
+  </si>
+  <si>
+    <t>TMP6S2b1:TMP6S2b1:1151873</t>
+  </si>
+  <si>
+    <t>TMP6S2a3:TMP6S2a3:1151865</t>
+  </si>
+  <si>
+    <t>TMP7S2b1:TMP7S2b1:1151877</t>
+  </si>
+  <si>
+    <t>TMP7S2c3:TMP7S2c3:1151885</t>
+  </si>
+  <si>
+    <t>TMP7S2b3:TMP7S2b3:1151875</t>
+  </si>
+  <si>
+    <t>TMP7S2a2:TMP7S2a2:1151879</t>
+  </si>
+  <si>
+    <t>TMP7S2a1:TMP7S2a1:1151880</t>
+  </si>
+  <si>
+    <t>TMP7S2d1:TMP7S2d1:1151882</t>
+  </si>
+  <si>
+    <t>TMP7S2d2:TMP7S2d2:1151883</t>
+  </si>
+  <si>
+    <t>TMP7S2d3:TMP7S2d3:1151884</t>
+  </si>
+  <si>
+    <t>TMP7S2a3:TMP7S2a3:1151878</t>
+  </si>
+  <si>
+    <t>TMP7S2b2:TMP7S2b2:1151876</t>
+  </si>
+  <si>
+    <t>BSS.Shallow_FT:150 x 150MM:1018227</t>
   </si>
   <si>
     <t>BSS.Shallow_FW:BSS.Shallow_FW:1038276</t>
   </si>
   <si>
-    <t>TMP3S2c2:TMP3S2c2:1129989</t>
-  </si>
-  <si>
-    <t>TMP3S2c1:TMP3S2c1:1129988</t>
-  </si>
-  <si>
-    <t>Basic Wall:BSS.50:1090835</t>
-  </si>
-  <si>
-    <t>BOX-UP2:BOX-UP:1091056</t>
-  </si>
-  <si>
-    <t>TMP4S2a3:TMP4S2a3:1129996</t>
-  </si>
-  <si>
-    <t>TMP4S2a2:TMP4S2a2:1129997</t>
-  </si>
-  <si>
-    <t>TMP4S2a1:TMP4S2a1:1129998</t>
-  </si>
-  <si>
-    <t>TMP4S2b1:TMP4S2b1:1129995</t>
-  </si>
-  <si>
-    <t>Basic Wall:BSS.50:1090836</t>
-  </si>
-  <si>
-    <t>Basic Wall:BSS.20mm Wall Finishes (600x600mm):1090841</t>
-  </si>
-  <si>
-    <t>Basic Wall:BSS.50:1090837</t>
-  </si>
-  <si>
-    <t>Basic Wall:BSS.20mm Wall Finishes (600x600mm):1090842</t>
-  </si>
-  <si>
-    <t>TMP5S2a3:TMP5S2a3:1130001</t>
-  </si>
-  <si>
-    <t>TMP5S2a4:TMP5S2a4:1130000</t>
-  </si>
-  <si>
-    <t>TMP5S2a2:TMP5S2a2:1130002</t>
-  </si>
-  <si>
-    <t>TMP5S2a1:TMP5S2a1:1130003</t>
-  </si>
-  <si>
-    <t>TMP6S2a1:TMP6S2a1:1130008</t>
-  </si>
-  <si>
-    <t>TMP6S2a2:TMP6S2a2:1130007</t>
-  </si>
-  <si>
-    <t>Basic Wall:BSS.50:1090838</t>
-  </si>
-  <si>
-    <t>TMP6S2b2:TMP6S2b2:1130005</t>
-  </si>
-  <si>
-    <t>TMP6S2b1:TMP6S2b1:1130006</t>
-  </si>
-  <si>
-    <t>Basic Wall:BSS.20mm Wall Finishes (600x600mm):1090843</t>
-  </si>
-  <si>
-    <t>TMP7S2a3:TMP7S2a3:1130013</t>
-  </si>
-  <si>
-    <t>TMP7S2b1:TMP7S2b1:1130012</t>
-  </si>
-  <si>
-    <t>TMP7S2b2:TMP7S2b2:1130011</t>
-  </si>
-  <si>
-    <t>TMP7S2a2:TMP7S2a2:1130014</t>
-  </si>
-  <si>
-    <t>TMP7S2a1:TMP7S2a1:1130015</t>
-  </si>
-  <si>
-    <t>TMP7S2d1:TMP7S2d1:1130017</t>
-  </si>
-  <si>
-    <t>TMP7S2d2:TMP7S2d2:1130018</t>
-  </si>
-  <si>
-    <t>TMP7S2d3:TMP7S2d3:1130019</t>
-  </si>
-  <si>
-    <t>TMP7S2c3:TMP7S2c3:1130020</t>
-  </si>
-  <si>
-    <t>TMP7S2b3:TMP7S2b3:1130010</t>
-  </si>
-  <si>
-    <t>Floor:BSS.20mm Floor Finishes (600x150mm):1091107</t>
-  </si>
-  <si>
-    <t>BSS.Shallow_FT:150 x 150MM:1018227</t>
-  </si>
-  <si>
-    <t>Floor:BSS.115:1090847</t>
-  </si>
-  <si>
-    <t>Floor:BSS.20mm Floor Finishes (600x600mm):1090854</t>
-  </si>
-  <si>
-    <t>Floor:BSS.20mm Floor Finishes (600x150mm):1090859</t>
-  </si>
-  <si>
-    <t>Floor:BSS.90:1090864</t>
-  </si>
-  <si>
-    <t>Floor:BSS.80:1090926</t>
-  </si>
-  <si>
-    <t>Compound Ceiling:BSS.600/1200.Grid:1091012</t>
-  </si>
-  <si>
-    <t>TMP7S2c2:TMP7S2c2:1130021</t>
-  </si>
-  <si>
-    <t>TMP7S2c1:TMP7S2c1:1130022</t>
+    <t>TMP7S2c2:TMP7S2c2:1151886</t>
+  </si>
+  <si>
+    <t>TMP7S2c1:TMP7S2c1:1151887</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>blank</t>
   </si>
   <si>
     <t>Fitting</t>
   </si>
   <si>
-    <t>BSS.Shower Glass Door:650/2200:1091007</t>
+    <t>BSS.HAND SHOWER SET.MASTER BATH:BSS.HAND SHOWER SET.MASTER BATH:1091130</t>
+  </si>
+  <si>
+    <t>BSS.TECE.CONCEALED CISTERN.9370224:BSS.TECE.CONCEALED CISTERN.9370224:1090923</t>
+  </si>
+  <si>
+    <t>BSS.GESSI.SM.49079:29046000:1090989</t>
+  </si>
+  <si>
+    <t>BSS.GOMGO.PH.GG-6106:Chrome 000:1090992</t>
+  </si>
+  <si>
+    <t>M_Coupling - Threaded - MI - Class 150:Standard:1018144</t>
+  </si>
+  <si>
+    <t>BSS.MIRROR CABINET.C5-MASTER BATH:BSS.MIRROR CABINET.C5-MASTER BATH:1090945</t>
+  </si>
+  <si>
+    <t>BSS.Vesbo Tee Fiting:Standard:1035758</t>
+  </si>
+  <si>
+    <t>BSS.Bottle Trap:BSS.Bottle trap:1018126</t>
+  </si>
+  <si>
+    <t>BSS.FLOOR DRAIN_150:BSS.FLOOR DRAIN_150:1091065</t>
+  </si>
+  <si>
+    <t>BSS.Vesbo Tee Fiting:Standard:1032950</t>
+  </si>
+  <si>
+    <t>BSS.Vesbo Tee Fiting:Standard:1033022</t>
+  </si>
+  <si>
+    <t>BSS.Vesbo Tee Fiting:Standard:1042747</t>
+  </si>
+  <si>
+    <t>M_Coupling - Threaded - MI - Class 150:Standard:1044021</t>
+  </si>
+  <si>
+    <t>BSS.MONIC.BIB TAP.T-4L:BIB TAP:1090961</t>
   </si>
   <si>
     <t>BSS.GESSI,BM.49001:Default:1090988</t>
   </si>
   <si>
-    <t>BSS.MIRROR CABINET.C5-MASTER BATH:BSS.MIRROR CABINET.C5-MASTER BATH:1090945</t>
+    <t>BSS.GOMGO.TR.GG-6108-600:Chrome 000:1090991</t>
   </si>
   <si>
     <t>BSS.TECE.AP.9240402:Flush Plate:1091024</t>
@@ -303,61 +342,7 @@
     <t>BSS.FLOOR DRAIN_100:BSS.FLOOR DRAIN_100:1091045</t>
   </si>
   <si>
-    <t>BSS.MONIC.BIB TAP.T-4L:BIB TAP:1090961</t>
-  </si>
-  <si>
-    <t>BSS.Bottle Trap:BSS.Bottle trap:1018126</t>
-  </si>
-  <si>
-    <t>BSS.TECE.CONCEALED CISTERN.9370224:BSS.TECE.CONCEALED CISTERN.9370224:1090923</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1033022</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1032950</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1035758</t>
-  </si>
-  <si>
     <t>BSS.LAUFEN.WC.820714:820959000 White:1091064</t>
-  </si>
-  <si>
-    <t>BSS.GOMGO.PH.GG-6106:Chrome 000:1090992</t>
-  </si>
-  <si>
-    <t>M_Coupling - Threaded - MI - Class 150:Standard:1018144</t>
-  </si>
-  <si>
-    <t>BSS.GESSI.SM.49079:29046000:1090989</t>
-  </si>
-  <si>
-    <t>BSS.HAND SHOWER SET.MASTER BATH:BSS.HAND SHOWER SET.MASTER BATH:1091130</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1042747</t>
-  </si>
-  <si>
-    <t>M_Coupling - Threaded - MI - Class 150:Standard:1044021</t>
-  </si>
-  <si>
-    <t>BSS.Shower Door Hand Rail:BSS.Shower Door Hand Rail:1090927</t>
-  </si>
-  <si>
-    <t>BSS.GOMGO.TR.GG-6108-600:Chrome 000:1090991</t>
-  </si>
-  <si>
-    <t>BSS.Ceiling Access Panel:450 x 450MM:1091046</t>
-  </si>
-  <si>
-    <t>BSS.Ceiling Access Panel Opening:450 x 450MM:1091047</t>
-  </si>
-  <si>
-    <t>BSS.FLOOR DRAIN_150:BSS.FLOOR DRAIN_150:1091065</t>
-  </si>
-  <si>
-    <t>THRESHOLD1:THRESHOLD:1091082</t>
   </si>
   <si>
     <t>Obstacles</t>
@@ -375,8 +360,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,21 +424,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -491,7 +468,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -525,7 +502,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -560,10 +536,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -736,19 +711,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="53" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -792,9 +762,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -803,13 +773,13 @@
         <v>15</v>
       </c>
       <c r="D2">
-        <v>-935</v>
+        <v>-470</v>
       </c>
       <c r="E2">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F2">
-        <v>1050</v>
+        <v>-775</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -818,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -830,9 +800,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -841,13 +811,13 @@
         <v>16</v>
       </c>
       <c r="D3">
-        <v>-935</v>
+        <v>1350</v>
       </c>
       <c r="E3">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F3">
-        <v>-750</v>
+        <v>425</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -856,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -868,9 +838,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -879,13 +849,13 @@
         <v>17</v>
       </c>
       <c r="D4">
-        <v>-935</v>
+        <v>1350</v>
       </c>
       <c r="E4">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F4">
-        <v>-150</v>
+        <v>1025</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -894,7 +864,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -906,9 +876,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -917,13 +887,13 @@
         <v>18</v>
       </c>
       <c r="D5">
-        <v>-935</v>
+        <v>350</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F5">
-        <v>450</v>
+        <v>-775</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -932,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -944,9 +914,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -955,13 +925,13 @@
         <v>19</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="E6">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F6">
-        <v>450</v>
+        <v>-175</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -970,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -982,9 +952,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -993,22 +963,22 @@
         <v>20</v>
       </c>
       <c r="D7">
-        <v>-470</v>
+        <v>350</v>
       </c>
       <c r="E7">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F7">
-        <v>-1020</v>
+        <v>425</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1020,9 +990,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -1031,22 +1001,22 @@
         <v>21</v>
       </c>
       <c r="D8">
-        <v>-1400</v>
+        <v>350</v>
       </c>
       <c r="E8">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F8">
-        <v>-1135</v>
+        <v>1025</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1058,9 +1028,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -1069,22 +1039,22 @@
         <v>22</v>
       </c>
       <c r="D9">
-        <v>-490</v>
+        <v>30</v>
       </c>
       <c r="E9">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F9">
-        <v>-1045</v>
+        <v>-775</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1096,9 +1066,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -1107,13 +1077,13 @@
         <v>23</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>-490</v>
       </c>
       <c r="E10">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F10">
-        <v>1050</v>
+        <v>-175</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1122,7 +1092,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1134,9 +1104,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1145,22 +1115,22 @@
         <v>24</v>
       </c>
       <c r="D11">
-        <v>-850</v>
+        <v>30</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F11">
-        <v>250</v>
+        <v>425</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1172,7 +1142,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>166</v>
       </c>
@@ -1183,13 +1153,13 @@
         <v>25</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>1350</v>
       </c>
       <c r="E12">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F12">
-        <v>-150</v>
+        <v>-175</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1198,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1210,9 +1180,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1221,13 +1191,13 @@
         <v>26</v>
       </c>
       <c r="D13">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="E13">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F13">
-        <v>-750</v>
+        <v>1025</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1236,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1248,9 +1218,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -1259,36 +1229,36 @@
         <v>27</v>
       </c>
       <c r="D14">
-        <v>2840</v>
+        <v>-470</v>
       </c>
       <c r="E14">
-        <v>920</v>
+        <v>50</v>
       </c>
       <c r="F14">
-        <v>-1020</v>
+        <v>425</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1932</v>
+        <v>2900</v>
       </c>
       <c r="M14">
         <v>2655</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -1297,36 +1267,36 @@
         <v>28</v>
       </c>
       <c r="D15">
-        <v>2830</v>
+        <v>-470</v>
       </c>
       <c r="E15">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F15">
-        <v>-750</v>
+        <v>1025</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1932</v>
+        <v>2900</v>
       </c>
       <c r="M15">
         <v>2655</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -1335,36 +1305,36 @@
         <v>29</v>
       </c>
       <c r="D16">
-        <v>2830</v>
+        <v>-490</v>
       </c>
       <c r="E16">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F16">
-        <v>-150</v>
+        <v>1025</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1932</v>
+        <v>2900</v>
       </c>
       <c r="M16">
         <v>2655</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -1373,36 +1343,36 @@
         <v>30</v>
       </c>
       <c r="D17">
-        <v>2830</v>
+        <v>-490</v>
       </c>
       <c r="E17">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F17">
-        <v>450</v>
+        <v>-175</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1932</v>
+        <v>2900</v>
       </c>
       <c r="M17">
         <v>2655</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -1411,36 +1381,36 @@
         <v>31</v>
       </c>
       <c r="D18">
-        <v>2830</v>
+        <v>-490</v>
       </c>
       <c r="E18">
-        <v>-300</v>
+        <v>50</v>
       </c>
       <c r="F18">
-        <v>-150</v>
+        <v>425</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>1932</v>
+        <v>2900</v>
       </c>
       <c r="M18">
         <v>2655</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -1449,36 +1419,36 @@
         <v>32</v>
       </c>
       <c r="D19">
-        <v>2830</v>
+        <v>-490</v>
       </c>
       <c r="E19">
-        <v>-300</v>
+        <v>50</v>
       </c>
       <c r="F19">
-        <v>-750</v>
+        <v>1025</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1932</v>
+        <v>2900</v>
       </c>
       <c r="M19">
         <v>2655</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -1487,36 +1457,36 @@
         <v>33</v>
       </c>
       <c r="D20">
-        <v>2875</v>
+        <v>-470</v>
       </c>
       <c r="E20">
-        <v>970</v>
+        <v>50</v>
       </c>
       <c r="F20">
-        <v>-1135</v>
+        <v>-175</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>1932</v>
+        <v>2900</v>
       </c>
       <c r="M20">
         <v>2655</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
@@ -1525,36 +1495,36 @@
         <v>34</v>
       </c>
       <c r="D21">
-        <v>2830</v>
+        <v>1350</v>
       </c>
       <c r="E21">
-        <v>-300</v>
+        <v>50</v>
       </c>
       <c r="F21">
-        <v>450</v>
+        <v>-775</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>1932</v>
+        <v>2900</v>
       </c>
       <c r="M21">
         <v>2655</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
@@ -1563,13 +1533,13 @@
         <v>35</v>
       </c>
       <c r="D22">
-        <v>2830</v>
+        <v>50</v>
       </c>
       <c r="E22">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="F22">
-        <v>1050</v>
+        <v>-775</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -1578,21 +1548,21 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>1932</v>
+        <v>1340</v>
       </c>
       <c r="M22">
         <v>2655</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
@@ -1601,13 +1571,13 @@
         <v>36</v>
       </c>
       <c r="D23">
-        <v>2830</v>
+        <v>50</v>
       </c>
       <c r="E23">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F23">
-        <v>1050</v>
+        <v>-775</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -1616,21 +1586,21 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>1932</v>
+        <v>1340</v>
       </c>
       <c r="M23">
         <v>2655</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -1639,36 +1609,36 @@
         <v>37</v>
       </c>
       <c r="D24">
-        <v>750</v>
+        <v>50</v>
       </c>
       <c r="E24">
-        <v>1650</v>
+        <v>100</v>
       </c>
       <c r="F24">
-        <v>-750</v>
+        <v>-175</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="L24">
-        <v>1940</v>
+        <v>1340</v>
       </c>
       <c r="M24">
         <v>2655</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
-        <v>136</v>
+        <v>186</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -1677,36 +1647,36 @@
         <v>38</v>
       </c>
       <c r="D25">
-        <v>900</v>
+        <v>50</v>
       </c>
       <c r="E25">
-        <v>1876</v>
+        <v>-500</v>
       </c>
       <c r="F25">
-        <v>-150</v>
+        <v>-175</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>1940</v>
+        <v>1340</v>
       </c>
       <c r="M25">
         <v>2655</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
@@ -1715,13 +1685,13 @@
         <v>39</v>
       </c>
       <c r="D26">
-        <v>750</v>
+        <v>445</v>
       </c>
       <c r="E26">
-        <v>1870</v>
+        <v>1290</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>-775</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -1730,21 +1700,21 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="L26">
-        <v>1940</v>
+        <v>960</v>
       </c>
       <c r="M26">
         <v>2655</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
@@ -1753,13 +1723,13 @@
         <v>40</v>
       </c>
       <c r="D27">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>1870</v>
+        <v>1290</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1025</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -1768,21 +1738,21 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>1940</v>
+        <v>960</v>
       </c>
       <c r="M27">
         <v>2655</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -1791,13 +1761,13 @@
         <v>41</v>
       </c>
       <c r="D28">
-        <v>150</v>
+        <v>445</v>
       </c>
       <c r="E28">
-        <v>1650</v>
+        <v>1290</v>
       </c>
       <c r="F28">
-        <v>-750</v>
+        <v>425</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -1806,21 +1776,21 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
       <c r="L28">
-        <v>1940</v>
+        <v>960</v>
       </c>
       <c r="M28">
         <v>2655</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
@@ -1829,36 +1799,36 @@
         <v>42</v>
       </c>
       <c r="D29">
-        <v>-850</v>
+        <v>445</v>
       </c>
       <c r="E29">
-        <v>1605</v>
+        <v>1290</v>
       </c>
       <c r="F29">
-        <v>-1052</v>
+        <v>1025</v>
       </c>
       <c r="G29">
         <v>3</v>
       </c>
       <c r="H29">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
       <c r="L29">
-        <v>1940</v>
+        <v>960</v>
       </c>
       <c r="M29">
         <v>2655</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
@@ -1867,13 +1837,13 @@
         <v>43</v>
       </c>
       <c r="D30">
-        <v>750</v>
+        <v>445</v>
       </c>
       <c r="E30">
-        <v>1870</v>
+        <v>1290</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>-175</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -1882,21 +1852,21 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
       <c r="L30">
-        <v>1940</v>
+        <v>960</v>
       </c>
       <c r="M30">
         <v>2655</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
@@ -1905,13 +1875,13 @@
         <v>44</v>
       </c>
       <c r="D31">
-        <v>-450</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>1650</v>
+        <v>1290</v>
       </c>
       <c r="F31">
-        <v>-750</v>
+        <v>1025</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -1920,21 +1890,21 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="L31">
-        <v>1940</v>
+        <v>960</v>
       </c>
       <c r="M31">
         <v>2655</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
@@ -1943,36 +1913,36 @@
         <v>45</v>
       </c>
       <c r="D32">
-        <v>920</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>1907</v>
+        <v>1290</v>
       </c>
       <c r="F32">
-        <v>-1135</v>
+        <v>-175</v>
       </c>
       <c r="G32">
         <v>3</v>
       </c>
       <c r="H32">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
       <c r="L32">
-        <v>1940</v>
+        <v>960</v>
       </c>
       <c r="M32">
         <v>2655</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
@@ -1981,36 +1951,36 @@
         <v>46</v>
       </c>
       <c r="D33">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>1655</v>
+        <v>1290</v>
       </c>
       <c r="F33">
-        <v>-1020</v>
+        <v>425</v>
       </c>
       <c r="G33">
         <v>3</v>
       </c>
       <c r="H33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
       <c r="L33">
-        <v>1940</v>
+        <v>960</v>
       </c>
       <c r="M33">
         <v>2655</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
@@ -2019,13 +1989,13 @@
         <v>47</v>
       </c>
       <c r="D34">
-        <v>1030</v>
+        <v>1010</v>
       </c>
       <c r="E34">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="F34">
-        <v>-150</v>
+        <v>-775</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -2034,7 +2004,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2046,9 +2016,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B35" t="s">
         <v>14</v>
@@ -2057,13 +2027,13 @@
         <v>48</v>
       </c>
       <c r="D35">
-        <v>1030</v>
+        <v>1010</v>
       </c>
       <c r="E35">
-        <v>300</v>
+        <v>31</v>
       </c>
       <c r="F35">
-        <v>450</v>
+        <v>-775</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -2072,7 +2042,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2084,9 +2054,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B36" t="s">
         <v>14</v>
@@ -2095,13 +2065,13 @@
         <v>49</v>
       </c>
       <c r="D36">
-        <v>1030</v>
+        <v>1010</v>
       </c>
       <c r="E36">
-        <v>300</v>
+        <v>31</v>
       </c>
       <c r="F36">
-        <v>1050</v>
+        <v>-175</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -2110,7 +2080,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2122,9 +2092,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
@@ -2133,13 +2103,13 @@
         <v>50</v>
       </c>
       <c r="D37">
-        <v>1030</v>
+        <v>1010</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F37">
-        <v>-150</v>
+        <v>425</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -2148,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -2160,9 +2130,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
@@ -2171,22 +2141,22 @@
         <v>51</v>
       </c>
       <c r="D38">
-        <v>985</v>
+        <v>1010</v>
       </c>
       <c r="E38">
-        <v>-312</v>
+        <v>331</v>
       </c>
       <c r="F38">
-        <v>-1135</v>
+        <v>-175</v>
       </c>
       <c r="G38">
         <v>4</v>
       </c>
       <c r="H38">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -2198,9 +2168,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
@@ -2209,22 +2179,22 @@
         <v>52</v>
       </c>
       <c r="D39">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="E39">
-        <v>-312</v>
+        <v>31</v>
       </c>
       <c r="F39">
-        <v>-1020</v>
+        <v>1025</v>
       </c>
       <c r="G39">
         <v>4</v>
       </c>
       <c r="H39">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -2236,9 +2206,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
-        <v>122</v>
+        <v>203</v>
       </c>
       <c r="B40" t="s">
         <v>14</v>
@@ -2247,36 +2217,36 @@
         <v>53</v>
       </c>
       <c r="D40">
-        <v>445</v>
+        <v>1010</v>
       </c>
       <c r="E40">
-        <v>1315</v>
+        <v>331</v>
       </c>
       <c r="F40">
-        <v>-1135</v>
+        <v>425</v>
       </c>
       <c r="G40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H40">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J40">
         <v>1</v>
       </c>
       <c r="L40">
-        <v>960</v>
+        <v>592</v>
       </c>
       <c r="M40">
         <v>2655</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
-        <v>127</v>
+        <v>204</v>
       </c>
       <c r="B41" t="s">
         <v>14</v>
@@ -2285,36 +2255,36 @@
         <v>54</v>
       </c>
       <c r="D41">
-        <v>495</v>
+        <v>1010</v>
       </c>
       <c r="E41">
-        <v>1280</v>
+        <v>331</v>
       </c>
       <c r="F41">
-        <v>-1045</v>
+        <v>1025</v>
       </c>
       <c r="G41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H41">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J41">
         <v>1</v>
       </c>
       <c r="L41">
-        <v>960</v>
+        <v>592</v>
       </c>
       <c r="M41">
         <v>2655</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
@@ -2323,13 +2293,13 @@
         <v>55</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>-450</v>
       </c>
       <c r="E42">
-        <v>1270</v>
+        <v>1882</v>
       </c>
       <c r="F42">
-        <v>-150</v>
+        <v>-775</v>
       </c>
       <c r="G42">
         <v>5</v>
@@ -2338,21 +2308,21 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J42">
         <v>1</v>
       </c>
       <c r="L42">
-        <v>960</v>
+        <v>1940</v>
       </c>
       <c r="M42">
         <v>2655</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
@@ -2361,13 +2331,13 @@
         <v>56</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E43">
-        <v>1270</v>
+        <v>1882</v>
       </c>
       <c r="F43">
-        <v>1050</v>
+        <v>-775</v>
       </c>
       <c r="G43">
         <v>5</v>
@@ -2376,21 +2346,21 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
       <c r="L43">
-        <v>960</v>
+        <v>1940</v>
       </c>
       <c r="M43">
         <v>2655</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
@@ -2399,13 +2369,13 @@
         <v>57</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>-450</v>
       </c>
       <c r="E44">
-        <v>1270</v>
+        <v>1882</v>
       </c>
       <c r="F44">
-        <v>450</v>
+        <v>-25</v>
       </c>
       <c r="G44">
         <v>5</v>
@@ -2414,21 +2384,21 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J44">
         <v>1</v>
       </c>
       <c r="L44">
-        <v>960</v>
+        <v>1940</v>
       </c>
       <c r="M44">
         <v>2655</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13">
       <c r="A45" s="1">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="B45" t="s">
         <v>14</v>
@@ -2437,13 +2407,13 @@
         <v>58</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="E45">
-        <v>1270</v>
+        <v>1882</v>
       </c>
       <c r="F45">
-        <v>1050</v>
+        <v>-775</v>
       </c>
       <c r="G45">
         <v>5</v>
@@ -2452,21 +2422,21 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J45">
         <v>1</v>
       </c>
       <c r="L45">
-        <v>960</v>
+        <v>1940</v>
       </c>
       <c r="M45">
         <v>2655</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13">
       <c r="A46" s="1">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="B46" t="s">
         <v>14</v>
@@ -2475,36 +2445,36 @@
         <v>59</v>
       </c>
       <c r="D46">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="E46">
-        <v>100</v>
+        <v>1882</v>
       </c>
       <c r="F46">
-        <v>-150</v>
+        <v>-775</v>
       </c>
       <c r="G46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J46">
         <v>1</v>
       </c>
       <c r="L46">
-        <v>1340</v>
+        <v>1940</v>
       </c>
       <c r="M46">
         <v>2655</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13">
       <c r="A47" s="1">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="B47" t="s">
         <v>14</v>
@@ -2513,36 +2483,36 @@
         <v>60</v>
       </c>
       <c r="D47">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="E47">
-        <v>100</v>
+        <v>1882</v>
       </c>
       <c r="F47">
-        <v>-750</v>
+        <v>-25</v>
       </c>
       <c r="G47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J47">
         <v>1</v>
       </c>
       <c r="L47">
-        <v>1340</v>
+        <v>1940</v>
       </c>
       <c r="M47">
         <v>2655</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13">
       <c r="A48" s="1">
-        <v>123</v>
+        <v>211</v>
       </c>
       <c r="B48" t="s">
         <v>14</v>
@@ -2551,36 +2521,36 @@
         <v>61</v>
       </c>
       <c r="D48">
-        <v>25</v>
+        <v>750</v>
       </c>
       <c r="E48">
-        <v>-620</v>
+        <v>1882</v>
       </c>
       <c r="F48">
-        <v>-1135</v>
+        <v>-25</v>
       </c>
       <c r="G48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H48">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
       <c r="L48">
-        <v>1340</v>
+        <v>1940</v>
       </c>
       <c r="M48">
         <v>2655</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49" s="1">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="B49" t="s">
         <v>14</v>
@@ -2589,36 +2559,36 @@
         <v>62</v>
       </c>
       <c r="D49">
-        <v>70</v>
+        <v>-900</v>
       </c>
       <c r="E49">
-        <v>-500</v>
+        <v>1882</v>
       </c>
       <c r="F49">
-        <v>-750</v>
+        <v>-25</v>
       </c>
       <c r="G49">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J49">
         <v>1</v>
       </c>
       <c r="L49">
-        <v>1340</v>
+        <v>1940</v>
       </c>
       <c r="M49">
         <v>2655</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50" s="1">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="B50" t="s">
         <v>14</v>
@@ -2627,13 +2597,13 @@
         <v>63</v>
       </c>
       <c r="D50">
-        <v>70</v>
+        <v>2850</v>
       </c>
       <c r="E50">
-        <v>-500</v>
+        <v>-190</v>
       </c>
       <c r="F50">
-        <v>-150</v>
+        <v>450</v>
       </c>
       <c r="G50">
         <v>6</v>
@@ -2642,21 +2612,21 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J50">
         <v>1</v>
       </c>
       <c r="L50">
-        <v>1340</v>
+        <v>1932</v>
       </c>
       <c r="M50">
         <v>2655</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="A51" s="1">
-        <v>128</v>
+        <v>214</v>
       </c>
       <c r="B51" t="s">
         <v>14</v>
@@ -2665,36 +2635,36 @@
         <v>64</v>
       </c>
       <c r="D51">
-        <v>60</v>
+        <v>2850</v>
       </c>
       <c r="E51">
-        <v>-600</v>
+        <v>-190</v>
       </c>
       <c r="F51">
-        <v>-1045</v>
+        <v>-150</v>
       </c>
       <c r="G51">
         <v>6</v>
       </c>
       <c r="H51">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J51">
         <v>1</v>
       </c>
       <c r="L51">
-        <v>1340</v>
+        <v>1932</v>
       </c>
       <c r="M51">
         <v>2655</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52" s="1">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="B52" t="s">
         <v>14</v>
@@ -2703,36 +2673,36 @@
         <v>65</v>
       </c>
       <c r="D52">
-        <v>450</v>
+        <v>2850</v>
       </c>
       <c r="E52">
-        <v>-450</v>
+        <v>-190</v>
       </c>
       <c r="F52">
-        <v>-25</v>
-      </c>
-      <c r="G52" t="s">
-        <v>85</v>
+        <v>1050</v>
+      </c>
+      <c r="G52">
+        <v>6</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J52">
         <v>1</v>
       </c>
       <c r="L52">
-        <v>2900</v>
+        <v>1932</v>
       </c>
       <c r="M52">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="B53" t="s">
         <v>14</v>
@@ -2741,36 +2711,36 @@
         <v>66</v>
       </c>
       <c r="D53">
-        <v>-450</v>
+        <v>2850</v>
       </c>
       <c r="E53">
-        <v>600</v>
+        <v>-790</v>
       </c>
       <c r="F53">
-        <v>-25</v>
-      </c>
-      <c r="G53" t="s">
-        <v>85</v>
+        <v>-750</v>
+      </c>
+      <c r="G53">
+        <v>6</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J53">
         <v>1</v>
       </c>
       <c r="L53">
-        <v>2900</v>
+        <v>1932</v>
       </c>
       <c r="M53">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="B54" t="s">
         <v>14</v>
@@ -2779,36 +2749,36 @@
         <v>67</v>
       </c>
       <c r="D54">
-        <v>-450</v>
+        <v>2850</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>-790</v>
       </c>
       <c r="F54">
-        <v>-25</v>
-      </c>
-      <c r="G54" t="s">
-        <v>85</v>
+        <v>-150</v>
+      </c>
+      <c r="G54">
+        <v>6</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J54">
         <v>1</v>
       </c>
       <c r="L54">
-        <v>2900</v>
+        <v>1932</v>
       </c>
       <c r="M54">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="B55" t="s">
         <v>14</v>
@@ -2817,36 +2787,36 @@
         <v>68</v>
       </c>
       <c r="D55">
+        <v>2850</v>
+      </c>
+      <c r="E55">
+        <v>-790</v>
+      </c>
+      <c r="F55">
         <v>450</v>
       </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>-25</v>
-      </c>
-      <c r="G55" t="s">
-        <v>85</v>
+      <c r="G55">
+        <v>6</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J55">
         <v>1</v>
       </c>
       <c r="L55">
-        <v>2900</v>
+        <v>1932</v>
       </c>
       <c r="M55">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="B56" t="s">
         <v>14</v>
@@ -2855,36 +2825,36 @@
         <v>69</v>
       </c>
       <c r="D56">
-        <v>450</v>
+        <v>2850</v>
       </c>
       <c r="E56">
-        <v>600</v>
+        <v>-790</v>
       </c>
       <c r="F56">
-        <v>-25</v>
-      </c>
-      <c r="G56" t="s">
-        <v>85</v>
+        <v>1050</v>
+      </c>
+      <c r="G56">
+        <v>6</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J56">
         <v>1</v>
       </c>
       <c r="L56">
-        <v>2900</v>
+        <v>1932</v>
       </c>
       <c r="M56">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B57" t="s">
         <v>14</v>
@@ -2893,36 +2863,36 @@
         <v>70</v>
       </c>
       <c r="D57">
-        <v>-300</v>
+        <v>2850</v>
       </c>
       <c r="E57">
-        <v>450</v>
+        <v>-190</v>
       </c>
       <c r="F57">
-        <v>-25</v>
-      </c>
-      <c r="G57" t="s">
-        <v>85</v>
+        <v>-750</v>
+      </c>
+      <c r="G57">
+        <v>6</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J57">
         <v>1</v>
       </c>
       <c r="L57">
-        <v>2900</v>
+        <v>1932</v>
       </c>
       <c r="M57">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="B58" t="s">
         <v>14</v>
@@ -2931,10 +2901,10 @@
         <v>71</v>
       </c>
       <c r="D58">
-        <v>-300</v>
+        <v>-450</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F58">
         <v>-25</v>
@@ -2946,7 +2916,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -2958,9 +2928,9 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59" s="1">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="B59" t="s">
         <v>14</v>
@@ -2969,7 +2939,7 @@
         <v>72</v>
       </c>
       <c r="D59">
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="E59">
         <v>-450</v>
@@ -2984,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -2996,9 +2966,9 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60" s="1">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B60" t="s">
         <v>14</v>
@@ -3007,7 +2977,7 @@
         <v>73</v>
       </c>
       <c r="D60">
-        <v>300</v>
+        <v>-450</v>
       </c>
       <c r="E60">
         <v>-450</v>
@@ -3022,7 +2992,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -3034,9 +3004,9 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13">
       <c r="A61" s="1">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="B61" t="s">
         <v>14</v>
@@ -3045,10 +3015,10 @@
         <v>74</v>
       </c>
       <c r="D61">
-        <v>-450</v>
+        <v>450</v>
       </c>
       <c r="E61">
-        <v>-450</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <v>-25</v>
@@ -3060,7 +3030,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -3072,9 +3042,9 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13">
       <c r="A62" s="1">
-        <v>161</v>
+        <v>226</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
@@ -3083,22 +3053,22 @@
         <v>75</v>
       </c>
       <c r="D62">
-        <v>-480</v>
+        <v>450</v>
       </c>
       <c r="E62">
-        <v>296</v>
+        <v>600</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="G62" t="s">
         <v>85</v>
       </c>
       <c r="H62">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -3110,33 +3080,33 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13">
       <c r="A63" s="1">
-        <v>162</v>
+        <v>227</v>
       </c>
       <c r="B63" t="s">
         <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D63">
-        <v>-480</v>
+        <v>-300</v>
       </c>
       <c r="E63">
-        <v>296</v>
+        <v>450</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="G63" t="s">
         <v>85</v>
       </c>
       <c r="H63">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -3148,33 +3118,33 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13">
       <c r="A64" s="1">
-        <v>36</v>
+        <v>228</v>
       </c>
       <c r="B64" t="s">
         <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D64">
-        <v>225</v>
+        <v>-300</v>
       </c>
       <c r="E64">
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>-77</v>
+        <v>-25</v>
       </c>
       <c r="G64" t="s">
         <v>85</v>
       </c>
       <c r="H64">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -3186,33 +3156,33 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13">
       <c r="A65" s="1">
-        <v>130</v>
+        <v>229</v>
       </c>
       <c r="B65" t="s">
         <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D65">
-        <v>-480</v>
+        <v>-300</v>
       </c>
       <c r="E65">
-        <v>296</v>
+        <v>-450</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="G65" t="s">
         <v>85</v>
       </c>
       <c r="H65">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -3224,33 +3194,33 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13">
       <c r="A66" s="1">
-        <v>131</v>
+        <v>224</v>
       </c>
       <c r="B66" t="s">
         <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D66">
-        <v>-480</v>
+        <v>450</v>
       </c>
       <c r="E66">
-        <v>296</v>
+        <v>-450</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="G66" t="s">
         <v>85</v>
       </c>
       <c r="H66">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -3262,33 +3232,33 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13">
       <c r="A67" s="1">
-        <v>132</v>
+        <v>222</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D67">
-        <v>-480</v>
+        <v>-450</v>
       </c>
       <c r="E67">
-        <v>296</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="G67" t="s">
         <v>85</v>
       </c>
       <c r="H67">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -3300,24 +3270,24 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13">
       <c r="A68" s="1">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="B68" t="s">
         <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D68">
-        <v>-480</v>
+        <v>225</v>
       </c>
       <c r="E68">
-        <v>296</v>
+        <v>512</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>-77</v>
       </c>
       <c r="G68" t="s">
         <v>85</v>
@@ -3326,7 +3296,7 @@
         <v>6</v>
       </c>
       <c r="I68" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -3338,24 +3308,24 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13">
       <c r="A69" s="1">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="B69" t="s">
         <v>14</v>
       </c>
       <c r="C69" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D69">
-        <v>-480</v>
+        <v>-850</v>
       </c>
       <c r="E69">
-        <v>296</v>
+        <v>935</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>-77</v>
       </c>
       <c r="G69" t="s">
         <v>85</v>
@@ -3364,7 +3334,7 @@
         <v>6</v>
       </c>
       <c r="I69" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -3376,33 +3346,33 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13">
       <c r="A70" s="1">
-        <v>152</v>
+        <v>231</v>
       </c>
       <c r="B70" t="s">
         <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D70">
-        <v>-490</v>
+        <v>300</v>
       </c>
       <c r="E70">
-        <v>-670</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="G70" t="s">
         <v>85</v>
       </c>
       <c r="H70">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -3414,21 +3384,21 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13">
       <c r="A71" s="1">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="B71" t="s">
         <v>14</v>
       </c>
       <c r="C71" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D71">
         <v>300</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="F71">
         <v>-25</v>
@@ -3440,7 +3410,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -3449,82 +3419,6 @@
         <v>2900</v>
       </c>
       <c r="M71">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>163</v>
-      </c>
-      <c r="B72" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72" t="s">
-        <v>75</v>
-      </c>
-      <c r="D72">
-        <v>-480</v>
-      </c>
-      <c r="E72">
-        <v>296</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72" t="s">
-        <v>85</v>
-      </c>
-      <c r="H72">
-        <v>6</v>
-      </c>
-      <c r="I72" t="s">
-        <v>86</v>
-      </c>
-      <c r="J72">
-        <v>1</v>
-      </c>
-      <c r="L72">
-        <v>2900</v>
-      </c>
-      <c r="M72">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>210</v>
-      </c>
-      <c r="B73" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" t="s">
-        <v>84</v>
-      </c>
-      <c r="D73">
-        <v>300</v>
-      </c>
-      <c r="E73">
-        <v>450</v>
-      </c>
-      <c r="F73">
-        <v>-25</v>
-      </c>
-      <c r="G73" t="s">
-        <v>85</v>
-      </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-      <c r="I73" t="s">
-        <v>86</v>
-      </c>
-      <c r="J73">
-        <v>1</v>
-      </c>
-      <c r="L73">
-        <v>2900</v>
-      </c>
-      <c r="M73">
         <v>1932</v>
       </c>
     </row>
@@ -3534,14 +3428,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3585,62 +3479,62 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2">
-        <v>-520</v>
+        <v>160</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>1272</v>
       </c>
       <c r="F2">
-        <v>-970</v>
+        <v>-181</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>2900</v>
+        <v>960</v>
       </c>
       <c r="M2">
         <v>2655</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3">
-        <v>450</v>
+        <v>714</v>
       </c>
       <c r="E3">
-        <v>1810</v>
+        <v>1642</v>
       </c>
       <c r="F3">
-        <v>-150</v>
+        <v>-715</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -3649,36 +3543,36 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1940</v>
+        <v>960</v>
       </c>
       <c r="M3">
         <v>2655</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="E4">
-        <v>1870</v>
+        <v>1270</v>
       </c>
       <c r="F4">
-        <v>150</v>
+        <v>-50</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -3687,121 +3581,121 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1940</v>
+        <v>960</v>
       </c>
       <c r="M4">
         <v>2655</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D5">
-        <v>-450</v>
+        <v>1030</v>
       </c>
       <c r="E5">
-        <v>1762</v>
+        <v>201</v>
       </c>
       <c r="F5">
-        <v>-150</v>
+        <v>-375</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1940</v>
+        <v>592</v>
       </c>
       <c r="M5">
         <v>2655</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
-        <v>154</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D6">
-        <v>-850</v>
+        <v>1007</v>
       </c>
       <c r="E6">
-        <v>1605</v>
+        <v>-212</v>
       </c>
       <c r="F6">
-        <v>-1000</v>
+        <v>-800</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1940</v>
+        <v>592</v>
       </c>
       <c r="M6">
         <v>2655</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D7">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1650</v>
+        <v>1870</v>
       </c>
       <c r="F7">
-        <v>-700</v>
+        <v>125</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -3813,33 +3707,33 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D8">
-        <v>450</v>
+        <v>-800</v>
       </c>
       <c r="E8">
-        <v>1575</v>
+        <v>1907</v>
       </c>
       <c r="F8">
-        <v>-428</v>
+        <v>-365</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H8">
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -3851,366 +3745,366 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D9">
-        <v>-701</v>
+        <v>450</v>
       </c>
       <c r="E9">
-        <v>1642</v>
+        <v>905</v>
       </c>
       <c r="F9">
-        <v>-690</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
+        <v>547</v>
+      </c>
+      <c r="G9" t="s">
+        <v>85</v>
       </c>
       <c r="H9">
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1940</v>
+        <v>2900</v>
       </c>
       <c r="M9">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D10">
-        <v>525</v>
+        <v>225</v>
       </c>
       <c r="E10">
-        <v>1780</v>
+        <v>475</v>
       </c>
       <c r="F10">
-        <v>-800</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
+        <v>-50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>85</v>
       </c>
       <c r="H10">
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1940</v>
+        <v>2900</v>
       </c>
       <c r="M10">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D11">
         <v>375</v>
       </c>
       <c r="E11">
-        <v>1720</v>
+        <v>1050</v>
       </c>
       <c r="F11">
-        <v>-875</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
+        <v>85</v>
       </c>
       <c r="H11">
         <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1940</v>
+        <v>2900</v>
       </c>
       <c r="M11">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D12">
-        <v>-800</v>
+        <v>525</v>
       </c>
       <c r="E12">
-        <v>1907</v>
+        <v>1110</v>
       </c>
       <c r="F12">
-        <v>-340</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
+        <v>175</v>
+      </c>
+      <c r="G12" t="s">
+        <v>85</v>
       </c>
       <c r="H12">
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1940</v>
+        <v>2900</v>
       </c>
       <c r="M12">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D13">
-        <v>-575</v>
+        <v>800</v>
       </c>
       <c r="E13">
-        <v>1662</v>
+        <v>-165</v>
       </c>
       <c r="F13">
-        <v>-999</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
+        <v>210</v>
+      </c>
+      <c r="G13" t="s">
+        <v>85</v>
       </c>
       <c r="H13">
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1940</v>
+        <v>2900</v>
       </c>
       <c r="M13">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D14">
-        <v>1030</v>
+        <v>440</v>
       </c>
       <c r="E14">
-        <v>170</v>
+        <v>699</v>
       </c>
       <c r="F14">
-        <v>-350</v>
-      </c>
-      <c r="G14">
-        <v>4</v>
+        <v>2468</v>
+      </c>
+      <c r="G14" t="s">
+        <v>85</v>
       </c>
       <c r="H14">
         <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>592</v>
+        <v>2900</v>
       </c>
       <c r="M14">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D15">
-        <v>1007</v>
+        <v>-800</v>
       </c>
       <c r="E15">
-        <v>-243</v>
+        <v>980</v>
       </c>
       <c r="F15">
-        <v>-775</v>
-      </c>
-      <c r="G15">
-        <v>4</v>
+        <v>275</v>
+      </c>
+      <c r="G15" t="s">
+        <v>85</v>
       </c>
       <c r="H15">
         <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>592</v>
+        <v>2900</v>
       </c>
       <c r="M15">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D16">
-        <v>210</v>
+        <v>450</v>
       </c>
       <c r="E16">
-        <v>1270</v>
+        <v>1140</v>
       </c>
       <c r="F16">
-        <v>-25</v>
-      </c>
-      <c r="G16">
-        <v>5</v>
+        <v>825</v>
+      </c>
+      <c r="G16" t="s">
+        <v>85</v>
       </c>
       <c r="H16">
         <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>960</v>
+        <v>2900</v>
       </c>
       <c r="M16">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D17">
-        <v>160</v>
+        <v>-540</v>
       </c>
       <c r="E17">
-        <v>1272</v>
+        <v>-600</v>
       </c>
       <c r="F17">
-        <v>-156</v>
-      </c>
-      <c r="G17">
-        <v>5</v>
+        <v>1175</v>
+      </c>
+      <c r="G17" t="s">
+        <v>85</v>
       </c>
       <c r="H17">
         <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>960</v>
+        <v>2900</v>
       </c>
       <c r="M17">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D18">
-        <v>800</v>
+        <v>-450</v>
       </c>
       <c r="E18">
-        <v>-165</v>
+        <v>1092</v>
       </c>
       <c r="F18">
-        <v>210</v>
+        <v>825</v>
       </c>
       <c r="G18" t="s">
         <v>85</v>
@@ -4219,7 +4113,7 @@
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -4231,24 +4125,24 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D19">
-        <v>440</v>
+        <v>-850</v>
       </c>
       <c r="E19">
-        <v>699</v>
+        <v>935</v>
       </c>
       <c r="F19">
-        <v>2468</v>
+        <v>-25</v>
       </c>
       <c r="G19" t="s">
         <v>85</v>
@@ -4257,7 +4151,7 @@
         <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -4269,24 +4163,24 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D20">
-        <v>485</v>
+        <v>-575</v>
       </c>
       <c r="E20">
-        <v>229</v>
+        <v>992</v>
       </c>
       <c r="F20">
-        <v>958</v>
+        <v>-24</v>
       </c>
       <c r="G20" t="s">
         <v>85</v>
@@ -4295,7 +4189,7 @@
         <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -4304,196 +4198,6 @@
         <v>2900</v>
       </c>
       <c r="M20">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>148</v>
-      </c>
-      <c r="B21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21">
-        <v>-540</v>
-      </c>
-      <c r="E21">
-        <v>-600</v>
-      </c>
-      <c r="F21">
-        <v>1175</v>
-      </c>
-      <c r="G21" t="s">
-        <v>85</v>
-      </c>
-      <c r="H21">
-        <v>6</v>
-      </c>
-      <c r="I21" t="s">
-        <v>86</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>2900</v>
-      </c>
-      <c r="M21">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>155</v>
-      </c>
-      <c r="B22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22">
-        <v>265</v>
-      </c>
-      <c r="E22">
-        <v>-75</v>
-      </c>
-      <c r="F22">
-        <v>10</v>
-      </c>
-      <c r="G22" t="s">
-        <v>85</v>
-      </c>
-      <c r="H22">
-        <v>6</v>
-      </c>
-      <c r="I22" t="s">
-        <v>86</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>2900</v>
-      </c>
-      <c r="M22">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>156</v>
-      </c>
-      <c r="B23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D23">
-        <v>-65</v>
-      </c>
-      <c r="E23">
-        <v>-405</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23" t="s">
-        <v>85</v>
-      </c>
-      <c r="H23">
-        <v>6</v>
-      </c>
-      <c r="I23" t="s">
-        <v>86</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>2900</v>
-      </c>
-      <c r="M23">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>159</v>
-      </c>
-      <c r="B24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24">
-        <v>225</v>
-      </c>
-      <c r="E24">
-        <v>475</v>
-      </c>
-      <c r="F24">
-        <v>-50</v>
-      </c>
-      <c r="G24" t="s">
-        <v>85</v>
-      </c>
-      <c r="H24">
-        <v>6</v>
-      </c>
-      <c r="I24" t="s">
-        <v>86</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>2900</v>
-      </c>
-      <c r="M24">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>160</v>
-      </c>
-      <c r="B25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25">
-        <v>-490</v>
-      </c>
-      <c r="E25">
-        <v>-670</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25" t="s">
-        <v>85</v>
-      </c>
-      <c r="H25">
-        <v>6</v>
-      </c>
-      <c r="I25" t="s">
-        <v>86</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>2900</v>
-      </c>
-      <c r="M25">
         <v>1932</v>
       </c>
     </row>
@@ -4503,14 +4207,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4554,15 +4258,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D2">
         <v>700</v>
@@ -4580,7 +4284,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -4592,15 +4296,15 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D3">
         <v>340</v>
@@ -4618,7 +4322,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -4630,15 +4334,15 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>95</v>
       </c>
       <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
         <v>112</v>
-      </c>
-      <c r="C4" t="s">
-        <v>115</v>
       </c>
       <c r="D4">
         <v>240</v>
@@ -4656,7 +4360,7 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J4">
         <v>1</v>

--- a/Greyform/Python_Application/exporteddatassss(with TMP)(draft)(tetra).xlsx
+++ b/Greyform/Python_Application/exporteddatassss(with TMP)(draft)(tetra).xlsx
@@ -1992,7 +1992,7 @@
         <v>1010</v>
       </c>
       <c r="E34">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="F34">
         <v>-775</v>
@@ -2030,7 +2030,7 @@
         <v>1010</v>
       </c>
       <c r="E35">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>-775</v>
@@ -2068,7 +2068,7 @@
         <v>1010</v>
       </c>
       <c r="E36">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>-175</v>
@@ -2106,7 +2106,7 @@
         <v>1010</v>
       </c>
       <c r="E37">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>425</v>
@@ -2144,7 +2144,7 @@
         <v>1010</v>
       </c>
       <c r="E38">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="F38">
         <v>-175</v>
@@ -2182,7 +2182,7 @@
         <v>1010</v>
       </c>
       <c r="E39">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>1025</v>
@@ -2220,7 +2220,7 @@
         <v>1010</v>
       </c>
       <c r="E40">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="F40">
         <v>425</v>
@@ -2258,7 +2258,7 @@
         <v>1010</v>
       </c>
       <c r="E41">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="F41">
         <v>1025</v>
@@ -2600,7 +2600,7 @@
         <v>2850</v>
       </c>
       <c r="E50">
-        <v>-190</v>
+        <v>300</v>
       </c>
       <c r="F50">
         <v>450</v>
@@ -2638,7 +2638,7 @@
         <v>2850</v>
       </c>
       <c r="E51">
-        <v>-190</v>
+        <v>300</v>
       </c>
       <c r="F51">
         <v>-150</v>
@@ -2676,7 +2676,7 @@
         <v>2850</v>
       </c>
       <c r="E52">
-        <v>-190</v>
+        <v>300</v>
       </c>
       <c r="F52">
         <v>1050</v>
@@ -2714,7 +2714,7 @@
         <v>2850</v>
       </c>
       <c r="E53">
-        <v>-790</v>
+        <v>-300</v>
       </c>
       <c r="F53">
         <v>-750</v>
@@ -2752,7 +2752,7 @@
         <v>2850</v>
       </c>
       <c r="E54">
-        <v>-790</v>
+        <v>-300</v>
       </c>
       <c r="F54">
         <v>-150</v>
@@ -2790,7 +2790,7 @@
         <v>2850</v>
       </c>
       <c r="E55">
-        <v>-790</v>
+        <v>-300</v>
       </c>
       <c r="F55">
         <v>450</v>
@@ -2828,7 +2828,7 @@
         <v>2850</v>
       </c>
       <c r="E56">
-        <v>-790</v>
+        <v>-300</v>
       </c>
       <c r="F56">
         <v>1050</v>
@@ -2866,7 +2866,7 @@
         <v>2850</v>
       </c>
       <c r="E57">
-        <v>-190</v>
+        <v>300</v>
       </c>
       <c r="F57">
         <v>-750</v>
@@ -2901,10 +2901,10 @@
         <v>71</v>
       </c>
       <c r="D58">
-        <v>-450</v>
+        <v>1480</v>
       </c>
       <c r="E58">
-        <v>600</v>
+        <v>1270</v>
       </c>
       <c r="F58">
         <v>-25</v>
@@ -2939,10 +2939,10 @@
         <v>72</v>
       </c>
       <c r="D59">
-        <v>300</v>
+        <v>790</v>
       </c>
       <c r="E59">
-        <v>-450</v>
+        <v>220</v>
       </c>
       <c r="F59">
         <v>-25</v>
@@ -2977,10 +2977,10 @@
         <v>73</v>
       </c>
       <c r="D60">
-        <v>-450</v>
+        <v>1480</v>
       </c>
       <c r="E60">
-        <v>-450</v>
+        <v>220</v>
       </c>
       <c r="F60">
         <v>-25</v>
@@ -3015,10 +3015,10 @@
         <v>74</v>
       </c>
       <c r="D61">
-        <v>450</v>
+        <v>2380</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>670</v>
       </c>
       <c r="F61">
         <v>-25</v>
@@ -3053,10 +3053,10 @@
         <v>75</v>
       </c>
       <c r="D62">
-        <v>450</v>
+        <v>2380</v>
       </c>
       <c r="E62">
-        <v>600</v>
+        <v>1270</v>
       </c>
       <c r="F62">
         <v>-25</v>
@@ -3091,10 +3091,10 @@
         <v>76</v>
       </c>
       <c r="D63">
-        <v>-300</v>
+        <v>190</v>
       </c>
       <c r="E63">
-        <v>450</v>
+        <v>1120</v>
       </c>
       <c r="F63">
         <v>-25</v>
@@ -3129,10 +3129,10 @@
         <v>77</v>
       </c>
       <c r="D64">
-        <v>-300</v>
+        <v>190</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>670</v>
       </c>
       <c r="F64">
         <v>-25</v>
@@ -3167,10 +3167,10 @@
         <v>78</v>
       </c>
       <c r="D65">
-        <v>-300</v>
+        <v>190</v>
       </c>
       <c r="E65">
-        <v>-450</v>
+        <v>220</v>
       </c>
       <c r="F65">
         <v>-25</v>
@@ -3205,10 +3205,10 @@
         <v>79</v>
       </c>
       <c r="D66">
-        <v>450</v>
+        <v>2380</v>
       </c>
       <c r="E66">
-        <v>-450</v>
+        <v>220</v>
       </c>
       <c r="F66">
         <v>-25</v>
@@ -3243,10 +3243,10 @@
         <v>80</v>
       </c>
       <c r="D67">
-        <v>-450</v>
+        <v>1480</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>670</v>
       </c>
       <c r="F67">
         <v>-25</v>
@@ -3281,10 +3281,10 @@
         <v>81</v>
       </c>
       <c r="D68">
-        <v>225</v>
+        <v>715</v>
       </c>
       <c r="E68">
-        <v>512</v>
+        <v>1182</v>
       </c>
       <c r="F68">
         <v>-77</v>
@@ -3319,10 +3319,10 @@
         <v>82</v>
       </c>
       <c r="D69">
-        <v>-850</v>
+        <v>1080</v>
       </c>
       <c r="E69">
-        <v>935</v>
+        <v>1605</v>
       </c>
       <c r="F69">
         <v>-77</v>
@@ -3357,10 +3357,10 @@
         <v>83</v>
       </c>
       <c r="D70">
-        <v>300</v>
+        <v>790</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>670</v>
       </c>
       <c r="F70">
         <v>-25</v>
@@ -3395,10 +3395,10 @@
         <v>84</v>
       </c>
       <c r="D71">
-        <v>300</v>
+        <v>790</v>
       </c>
       <c r="E71">
-        <v>450</v>
+        <v>1120</v>
       </c>
       <c r="F71">
         <v>-25</v>
@@ -3607,7 +3607,7 @@
         <v>1030</v>
       </c>
       <c r="E5">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="F5">
         <v>-375</v>
@@ -3645,7 +3645,7 @@
         <v>1007</v>
       </c>
       <c r="E6">
-        <v>-212</v>
+        <v>-243</v>
       </c>
       <c r="F6">
         <v>-800</v>
@@ -3756,10 +3756,10 @@
         <v>97</v>
       </c>
       <c r="D9">
-        <v>450</v>
+        <v>2380</v>
       </c>
       <c r="E9">
-        <v>905</v>
+        <v>1575</v>
       </c>
       <c r="F9">
         <v>547</v>
@@ -3794,10 +3794,10 @@
         <v>98</v>
       </c>
       <c r="D10">
-        <v>225</v>
+        <v>715</v>
       </c>
       <c r="E10">
-        <v>475</v>
+        <v>1145</v>
       </c>
       <c r="F10">
         <v>-50</v>
@@ -3832,10 +3832,10 @@
         <v>99</v>
       </c>
       <c r="D11">
-        <v>375</v>
+        <v>2305</v>
       </c>
       <c r="E11">
-        <v>1050</v>
+        <v>1720</v>
       </c>
       <c r="F11">
         <v>100</v>
@@ -3870,10 +3870,10 @@
         <v>100</v>
       </c>
       <c r="D12">
-        <v>525</v>
+        <v>2455</v>
       </c>
       <c r="E12">
-        <v>1110</v>
+        <v>1780</v>
       </c>
       <c r="F12">
         <v>175</v>
@@ -3908,10 +3908,10 @@
         <v>101</v>
       </c>
       <c r="D13">
-        <v>800</v>
+        <v>2730</v>
       </c>
       <c r="E13">
-        <v>-165</v>
+        <v>505</v>
       </c>
       <c r="F13">
         <v>210</v>
@@ -3946,10 +3946,10 @@
         <v>102</v>
       </c>
       <c r="D14">
-        <v>440</v>
+        <v>930</v>
       </c>
       <c r="E14">
-        <v>699</v>
+        <v>1369</v>
       </c>
       <c r="F14">
         <v>2468</v>
@@ -3984,10 +3984,10 @@
         <v>103</v>
       </c>
       <c r="D15">
-        <v>-800</v>
+        <v>1130</v>
       </c>
       <c r="E15">
-        <v>980</v>
+        <v>1650</v>
       </c>
       <c r="F15">
         <v>275</v>
@@ -4022,10 +4022,10 @@
         <v>104</v>
       </c>
       <c r="D16">
-        <v>450</v>
+        <v>2380</v>
       </c>
       <c r="E16">
-        <v>1140</v>
+        <v>1810</v>
       </c>
       <c r="F16">
         <v>825</v>
@@ -4060,10 +4060,10 @@
         <v>105</v>
       </c>
       <c r="D17">
-        <v>-540</v>
+        <v>1390</v>
       </c>
       <c r="E17">
-        <v>-600</v>
+        <v>70</v>
       </c>
       <c r="F17">
         <v>1175</v>
@@ -4098,10 +4098,10 @@
         <v>106</v>
       </c>
       <c r="D18">
-        <v>-450</v>
+        <v>1480</v>
       </c>
       <c r="E18">
-        <v>1092</v>
+        <v>1762</v>
       </c>
       <c r="F18">
         <v>825</v>
@@ -4136,10 +4136,10 @@
         <v>107</v>
       </c>
       <c r="D19">
-        <v>-850</v>
+        <v>1080</v>
       </c>
       <c r="E19">
-        <v>935</v>
+        <v>1605</v>
       </c>
       <c r="F19">
         <v>-25</v>
@@ -4174,10 +4174,10 @@
         <v>108</v>
       </c>
       <c r="D20">
-        <v>-575</v>
+        <v>1355</v>
       </c>
       <c r="E20">
-        <v>992</v>
+        <v>1662</v>
       </c>
       <c r="F20">
         <v>-24</v>
@@ -4269,10 +4269,10 @@
         <v>110</v>
       </c>
       <c r="D2">
-        <v>700</v>
+        <v>2630</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>685</v>
       </c>
       <c r="F2">
         <v>210</v>
@@ -4307,10 +4307,10 @@
         <v>111</v>
       </c>
       <c r="D3">
-        <v>340</v>
+        <v>2270</v>
       </c>
       <c r="E3">
-        <v>-385</v>
+        <v>285</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -4345,10 +4345,10 @@
         <v>112</v>
       </c>
       <c r="D4">
-        <v>240</v>
+        <v>2170</v>
       </c>
       <c r="E4">
-        <v>-485</v>
+        <v>185</v>
       </c>
       <c r="F4">
         <v>175</v>

--- a/Greyform/Python_Application/exporteddatassss(with TMP)(draft)(tetra).xlsx
+++ b/Greyform/Python_Application/exporteddatassss(with TMP)(draft)(tetra).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="117">
   <si>
     <t>Marking type</t>
   </si>
@@ -63,202 +63,214 @@
     <t>Tile</t>
   </si>
   <si>
-    <t>TMP1S2d4:TMP1S2d4:1151823</t>
-  </si>
-  <si>
-    <t>TMP1S2a2:TMP1S2a2:1141730</t>
-  </si>
-  <si>
-    <t>TMP1S2a1:TMP1S2a1:1141731</t>
-  </si>
-  <si>
-    <t>TMP1S2b4:TMP1S2b4:1141733</t>
-  </si>
-  <si>
-    <t>TMP1S2b3:TMP1S2b3:1141734</t>
-  </si>
-  <si>
-    <t>TMP1S2b2:TMP1S2b2:1141735</t>
-  </si>
-  <si>
-    <t>TMP1S2b1:TMP1S2b1:1141736</t>
-  </si>
-  <si>
-    <t>TMP1S2c4:TMP1S2c4:1151818</t>
-  </si>
-  <si>
-    <t>TMP1S2c3:TMP1S2c3:1151819</t>
-  </si>
-  <si>
-    <t>TMP1S2c2:TMP1S2c2:1151820</t>
-  </si>
-  <si>
-    <t>TMP1S2a3:TMP1S2a3:1141729</t>
-  </si>
-  <si>
-    <t>TMP1S2c1:TMP1S2c1:1151821</t>
-  </si>
-  <si>
-    <t>TMP1S2d2:TMP1S2d2:1151825</t>
-  </si>
-  <si>
-    <t>TMP1S2d1:TMP1S2d1:1151826</t>
-  </si>
-  <si>
-    <t>TMP1S2e4:TMP1S2e4:1151828</t>
-  </si>
-  <si>
-    <t>TMP1S2e3:TMP1S2e3:1151829</t>
-  </si>
-  <si>
-    <t>TMP1S2e2:TMP1S2e2:1151830</t>
-  </si>
-  <si>
-    <t>TMP1S2e1:TMP1S2e1:1151831</t>
-  </si>
-  <si>
-    <t>TMP1S2d3:TMP1S2d3:1151824</t>
-  </si>
-  <si>
-    <t>TMP1S2a4:TMP1S2a4:1141728</t>
-  </si>
-  <si>
-    <t>TMP2S2b2:TMP2S2b2:1151833</t>
-  </si>
-  <si>
-    <t>TMP2S2a2:TMP2S2a2:1151835</t>
-  </si>
-  <si>
-    <t>TMP2S2a1:TMP2S2a1:1151836</t>
-  </si>
-  <si>
-    <t>TMP2S2b1:TMP2S2b1:1151834</t>
-  </si>
-  <si>
-    <t>TMP3S2b4:TMP3S2b4:1151838</t>
-  </si>
-  <si>
-    <t>TMP3S2a4:TMP3S2a4:1151842</t>
-  </si>
-  <si>
-    <t>TMP3S2b2:TMP3S2b2:1151841</t>
-  </si>
-  <si>
-    <t>TMP3S2b1:TMP3S2b1:1151840</t>
-  </si>
-  <si>
-    <t>TMP3S2b3:TMP3S2b3:1151839</t>
-  </si>
-  <si>
-    <t>TMP3S2a1:TMP3S2a1:1151845</t>
-  </si>
-  <si>
-    <t>TMP3S2a3:TMP3S2a3:1151843</t>
-  </si>
-  <si>
-    <t>TMP3S2a2:TMP3S2a2:1151844</t>
-  </si>
-  <si>
-    <t>TMP4S2a4:TMP4S2a4:1151848</t>
-  </si>
-  <si>
-    <t>TMP4S2b4:TMP4S2b4:1151847</t>
-  </si>
-  <si>
-    <t>TMP4S2b3:TMP4S2b3:1151849</t>
-  </si>
-  <si>
-    <t>TMP4S2b2:TMP4S2b2:1151850</t>
-  </si>
-  <si>
-    <t>TMP4S2a3:TMP4S2a3:1151852</t>
-  </si>
-  <si>
-    <t>TMP4S2b1:TMP4S2b1:1151851</t>
-  </si>
-  <si>
-    <t>TMP4S2a2:TMP4S2a2:1151853</t>
-  </si>
-  <si>
-    <t>TMP4S2a1:TMP4S2a1:1151854</t>
-  </si>
-  <si>
-    <t>TMP5S2a3:TMP5S2a3:1151858</t>
-  </si>
-  <si>
-    <t>TMP5S2a1:TMP5S2a1:1151863</t>
-  </si>
-  <si>
-    <t>TMP5S2b3:TMP5S2b3:1151859</t>
-  </si>
-  <si>
-    <t>TMP5S2a4:TMP5S2a4:1151856</t>
-  </si>
-  <si>
-    <t>TMP5S2a2:TMP5S2a2:1151860</t>
-  </si>
-  <si>
-    <t>TMP5S2b2:TMP5S2b2:1151861</t>
-  </si>
-  <si>
-    <t>TMP5S2b1:TMP5S2b1:1151862</t>
-  </si>
-  <si>
-    <t>TMP5S2b4:TMP5S2b4:1151857</t>
-  </si>
-  <si>
-    <t>TMP6S2a2:TMP6S2a2:1151867</t>
-  </si>
-  <si>
-    <t>TMP6S2a4:TMP6S2a4:1151866</t>
-  </si>
-  <si>
-    <t>TMP6S2a1:TMP6S2a1:1151868</t>
-  </si>
-  <si>
-    <t>TMP6S2b4:TMP6S2b4:1151870</t>
-  </si>
-  <si>
-    <t>TMP6S2b3:TMP6S2b3:1151871</t>
-  </si>
-  <si>
-    <t>TMP6S2b2:TMP6S2b2:1151872</t>
-  </si>
-  <si>
-    <t>TMP6S2b1:TMP6S2b1:1151873</t>
-  </si>
-  <si>
-    <t>TMP6S2a3:TMP6S2a3:1151865</t>
-  </si>
-  <si>
-    <t>TMP7S2b1:TMP7S2b1:1151877</t>
-  </si>
-  <si>
-    <t>TMP7S2c3:TMP7S2c3:1151885</t>
-  </si>
-  <si>
-    <t>TMP7S2b3:TMP7S2b3:1151875</t>
-  </si>
-  <si>
-    <t>TMP7S2a2:TMP7S2a2:1151879</t>
-  </si>
-  <si>
-    <t>TMP7S2a1:TMP7S2a1:1151880</t>
-  </si>
-  <si>
-    <t>TMP7S2d1:TMP7S2d1:1151882</t>
-  </si>
-  <si>
-    <t>TMP7S2d2:TMP7S2d2:1151883</t>
-  </si>
-  <si>
-    <t>TMP7S2d3:TMP7S2d3:1151884</t>
-  </si>
-  <si>
-    <t>TMP7S2a3:TMP7S2a3:1151878</t>
-  </si>
-  <si>
-    <t>TMP7S2b2:TMP7S2b2:1151876</t>
+    <t>TMP1S2f1:TMP1S2f1:1155196</t>
+  </si>
+  <si>
+    <t>TMP1S2a2:TMP1S2a2:1155170</t>
+  </si>
+  <si>
+    <t>TMP1S2a1:TMP1S2a1:1155171</t>
+  </si>
+  <si>
+    <t>TMP1S2b4:TMP1S2b4:1155173</t>
+  </si>
+  <si>
+    <t>TMP1S2b3:TMP1S2b3:1155174</t>
+  </si>
+  <si>
+    <t>TMP1S2b2:TMP1S2b2:1155175</t>
+  </si>
+  <si>
+    <t>TMP1S2b1:TMP1S2b1:1155176</t>
+  </si>
+  <si>
+    <t>TMP1S2c4:TMP1S2c4:1155178</t>
+  </si>
+  <si>
+    <t>TMP1S2c3:TMP1S2c3:1155179</t>
+  </si>
+  <si>
+    <t>TMP1S2c2:TMP1S2c2:1155180</t>
+  </si>
+  <si>
+    <t>TMP1S2a3:TMP1S2a3:1155169</t>
+  </si>
+  <si>
+    <t>TMP1S2c1:TMP1S2c1:1155181</t>
+  </si>
+  <si>
+    <t>TMP1S2d3:TMP1S2d3:1155184</t>
+  </si>
+  <si>
+    <t>TMP1S2d1:TMP1S2d1:1155186</t>
+  </si>
+  <si>
+    <t>TMP1S2e4:TMP1S2e4:1155188</t>
+  </si>
+  <si>
+    <t>TMP1S2e3:TMP1S2e3:1155189</t>
+  </si>
+  <si>
+    <t>TMP1S2e2:TMP1S2e2:1155190</t>
+  </si>
+  <si>
+    <t>TMP1S2e1:TMP1S2e1:1155191</t>
+  </si>
+  <si>
+    <t>TMP1S2f4:TMP1S2f4:1155193</t>
+  </si>
+  <si>
+    <t>TMP1S2f3:TMP1S2f3:1155194</t>
+  </si>
+  <si>
+    <t>TMP1S2f2:TMP1S2f2:1155195</t>
+  </si>
+  <si>
+    <t>TMP1S2d4:TMP1S2d4:1155183</t>
+  </si>
+  <si>
+    <t>TMP1S2a4:TMP1S2a4:1155168</t>
+  </si>
+  <si>
+    <t>TMP1S2d2:TMP1S2d2:1155185</t>
+  </si>
+  <si>
+    <t>TMP2S2b2:TMP2S2b2:1155235</t>
+  </si>
+  <si>
+    <t>TMP2S2b1:TMP2S2b1:1155236</t>
+  </si>
+  <si>
+    <t>TMP2S2a2:TMP2S2a2:1155237</t>
+  </si>
+  <si>
+    <t>TMP2S2a1:TMP2S2a1:1155238</t>
+  </si>
+  <si>
+    <t>TMP3S2a2:TMP3S2a2:1155232</t>
+  </si>
+  <si>
+    <t>TMP3S2b1:TMP3S2b1:1155228</t>
+  </si>
+  <si>
+    <t>TMP3S2b3:TMP3S2b3:1155227</t>
+  </si>
+  <si>
+    <t>TMP3S2b4:TMP3S2b4:1155226</t>
+  </si>
+  <si>
+    <t>TMP3S2a3:TMP3S2a3:1155231</t>
+  </si>
+  <si>
+    <t>TMP3S2b2:TMP3S2b2:1155229</t>
+  </si>
+  <si>
+    <t>TMP3S2a4:TMP3S2a4:1155230</t>
+  </si>
+  <si>
+    <t>TMP3S2a1:TMP3S2a1:1155233</t>
+  </si>
+  <si>
+    <t>TMP4S2a3:TMP4S2a3:1155222</t>
+  </si>
+  <si>
+    <t>TMP4S2a4:TMP4S2a4:1155218</t>
+  </si>
+  <si>
+    <t>TMP4S2a1:TMP4S2a1:1155224</t>
+  </si>
+  <si>
+    <t>TMP4S2a2:TMP4S2a2:1155223</t>
+  </si>
+  <si>
+    <t>TMP4S2b4:TMP4S2b4:1155217</t>
+  </si>
+  <si>
+    <t>TMP4S2b1:TMP4S2b1:1155221</t>
+  </si>
+  <si>
+    <t>TMP4S2b3:TMP4S2b3:1155219</t>
+  </si>
+  <si>
+    <t>TMP4S2b2:TMP4S2b2:1155220</t>
+  </si>
+  <si>
+    <t>TMP5S2a4:TMP5S2a4:1155208</t>
+  </si>
+  <si>
+    <t>TMP5S2b3:TMP5S2b3:1155211</t>
+  </si>
+  <si>
+    <t>TMP5S2a2:TMP5S2a2:1155212</t>
+  </si>
+  <si>
+    <t>TMP5S2b2:TMP5S2b2:1155213</t>
+  </si>
+  <si>
+    <t>TMP5S2a1:TMP5S2a1:1155215</t>
+  </si>
+  <si>
+    <t>TMP5S2b4:TMP5S2b4:1155209</t>
+  </si>
+  <si>
+    <t>TMP5S2b1:TMP5S2b1:1155214</t>
+  </si>
+  <si>
+    <t>TMP5S2a3:TMP5S2a3:1155210</t>
+  </si>
+  <si>
+    <t>TMP6S2a2:TMP6S2a2:1155200</t>
+  </si>
+  <si>
+    <t>TMP6S2b1:TMP6S2b1:1155206</t>
+  </si>
+  <si>
+    <t>TMP6S2b2:TMP6S2b2:1155205</t>
+  </si>
+  <si>
+    <t>TMP6S2b3:TMP6S2b3:1155204</t>
+  </si>
+  <si>
+    <t>TMP6S2b4:TMP6S2b4:1155203</t>
+  </si>
+  <si>
+    <t>TMP6S2a1:TMP6S2a1:1155201</t>
+  </si>
+  <si>
+    <t>TMP6S2a4:TMP6S2a4:1155199</t>
+  </si>
+  <si>
+    <t>TMP6S2a3:TMP6S2a3:1155198</t>
+  </si>
+  <si>
+    <t>TMP7S2a3:TMP7S2a3:1155243</t>
+  </si>
+  <si>
+    <t>TMP7S2a2:TMP7S2a2:1155244</t>
+  </si>
+  <si>
+    <t>TMP7S2a1:TMP7S2a1:1155245</t>
+  </si>
+  <si>
+    <t>TMP7S2d1:TMP7S2d1:1155247</t>
+  </si>
+  <si>
+    <t>TMP7S2c3:TMP7S2c3:1155250</t>
+  </si>
+  <si>
+    <t>TMP7S2d3:TMP7S2d3:1155249</t>
+  </si>
+  <si>
+    <t>TMP7S2b2:TMP7S2b2:1155241</t>
+  </si>
+  <si>
+    <t>TMP7S2b3:TMP7S2b3:1155240</t>
+  </si>
+  <si>
+    <t>TMP7S2d2:TMP7S2d2:1155248</t>
+  </si>
+  <si>
+    <t>TMP7S2b1:TMP7S2b1:1155242</t>
   </si>
   <si>
     <t>BSS.Shallow_FT:150 x 150MM:1018227</t>
@@ -267,10 +279,10 @@
     <t>BSS.Shallow_FW:BSS.Shallow_FW:1038276</t>
   </si>
   <si>
-    <t>TMP7S2c2:TMP7S2c2:1151886</t>
-  </si>
-  <si>
-    <t>TMP7S2c1:TMP7S2c1:1151887</t>
+    <t>TMP7S2c2:TMP7S2c2:1155251</t>
+  </si>
+  <si>
+    <t>TMP7S2c1:TMP7S2c1:1155252</t>
   </si>
   <si>
     <t>F</t>
@@ -712,7 +724,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O71"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -764,7 +776,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -773,13 +785,13 @@
         <v>15</v>
       </c>
       <c r="D2">
-        <v>-470</v>
+        <v>-935</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-775</v>
+        <v>1025</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -788,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -814,7 +826,7 @@
         <v>1350</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>425</v>
@@ -826,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -852,7 +864,7 @@
         <v>1350</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>1025</v>
@@ -864,7 +876,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -890,7 +902,7 @@
         <v>350</v>
       </c>
       <c r="E5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>-775</v>
@@ -902,7 +914,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -928,7 +940,7 @@
         <v>350</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>-175</v>
@@ -940,7 +952,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -966,7 +978,7 @@
         <v>350</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>425</v>
@@ -978,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1004,7 +1016,7 @@
         <v>350</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>1025</v>
@@ -1016,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1042,7 +1054,7 @@
         <v>30</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>-775</v>
@@ -1054,7 +1066,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1080,7 +1092,7 @@
         <v>-490</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>-175</v>
@@ -1092,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1118,7 +1130,7 @@
         <v>30</v>
       </c>
       <c r="E11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>425</v>
@@ -1130,7 +1142,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1156,7 +1168,7 @@
         <v>1350</v>
       </c>
       <c r="E12">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>-175</v>
@@ -1168,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1194,7 +1206,7 @@
         <v>30</v>
       </c>
       <c r="E13">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>1025</v>
@@ -1206,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1220,7 +1232,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -1232,10 +1244,10 @@
         <v>-470</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>425</v>
+        <v>-175</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1244,7 +1256,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1270,7 +1282,7 @@
         <v>-470</v>
       </c>
       <c r="E15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>1025</v>
@@ -1282,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1308,7 +1320,7 @@
         <v>-490</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>1025</v>
@@ -1320,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1346,7 +1358,7 @@
         <v>-490</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>-175</v>
@@ -1358,7 +1370,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1384,7 +1396,7 @@
         <v>-490</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>425</v>
@@ -1396,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1422,7 +1434,7 @@
         <v>-490</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>1025</v>
@@ -1434,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1448,7 +1460,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -1457,13 +1469,13 @@
         <v>33</v>
       </c>
       <c r="D20">
-        <v>-470</v>
+        <v>-935</v>
       </c>
       <c r="E20">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>-175</v>
+        <v>-775</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1472,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1486,7 +1498,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
@@ -1495,13 +1507,13 @@
         <v>34</v>
       </c>
       <c r="D21">
-        <v>1350</v>
+        <v>-935</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>-775</v>
+        <v>-175</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1510,7 +1522,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1524,7 +1536,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
@@ -1533,28 +1545,28 @@
         <v>35</v>
       </c>
       <c r="D22">
-        <v>50</v>
+        <v>-935</v>
       </c>
       <c r="E22">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>-775</v>
+        <v>425</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>1340</v>
+        <v>2900</v>
       </c>
       <c r="M22">
         <v>2655</v>
@@ -1562,7 +1574,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
@@ -1571,28 +1583,28 @@
         <v>36</v>
       </c>
       <c r="D23">
-        <v>50</v>
+        <v>-470</v>
       </c>
       <c r="E23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>-775</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>1340</v>
+        <v>2900</v>
       </c>
       <c r="M23">
         <v>2655</v>
@@ -1600,7 +1612,7 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -1609,28 +1621,28 @@
         <v>37</v>
       </c>
       <c r="D24">
-        <v>50</v>
+        <v>1350</v>
       </c>
       <c r="E24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>-175</v>
+        <v>-775</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="L24">
-        <v>1340</v>
+        <v>2900</v>
       </c>
       <c r="M24">
         <v>2655</v>
@@ -1638,7 +1650,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -1647,28 +1659,28 @@
         <v>38</v>
       </c>
       <c r="D25">
-        <v>50</v>
+        <v>-470</v>
       </c>
       <c r="E25">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>-175</v>
+        <v>425</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>1340</v>
+        <v>2900</v>
       </c>
       <c r="M25">
         <v>2655</v>
@@ -1676,7 +1688,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
@@ -1685,28 +1697,28 @@
         <v>39</v>
       </c>
       <c r="D26">
-        <v>445</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>1290</v>
+        <v>-500</v>
       </c>
       <c r="F26">
         <v>-775</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="L26">
-        <v>960</v>
+        <v>1340</v>
       </c>
       <c r="M26">
         <v>2655</v>
@@ -1714,7 +1726,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
@@ -1726,25 +1738,25 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1290</v>
+        <v>-500</v>
       </c>
       <c r="F27">
-        <v>1025</v>
+        <v>-175</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>960</v>
+        <v>1340</v>
       </c>
       <c r="M27">
         <v>2655</v>
@@ -1752,7 +1764,7 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -1761,28 +1773,28 @@
         <v>41</v>
       </c>
       <c r="D28">
-        <v>445</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>1290</v>
+        <v>100</v>
       </c>
       <c r="F28">
-        <v>425</v>
+        <v>-775</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
       <c r="L28">
-        <v>960</v>
+        <v>1340</v>
       </c>
       <c r="M28">
         <v>2655</v>
@@ -1790,7 +1802,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
@@ -1799,28 +1811,28 @@
         <v>42</v>
       </c>
       <c r="D29">
-        <v>445</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>1290</v>
+        <v>100</v>
       </c>
       <c r="F29">
-        <v>1025</v>
+        <v>-175</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
       <c r="L29">
-        <v>960</v>
+        <v>1340</v>
       </c>
       <c r="M29">
         <v>2655</v>
@@ -1828,7 +1840,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
@@ -1837,13 +1849,13 @@
         <v>43</v>
       </c>
       <c r="D30">
-        <v>445</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>1290</v>
+        <v>1200</v>
       </c>
       <c r="F30">
-        <v>-175</v>
+        <v>425</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -1852,7 +1864,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -1866,7 +1878,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
@@ -1875,10 +1887,10 @@
         <v>44</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="E31">
-        <v>1290</v>
+        <v>1200</v>
       </c>
       <c r="F31">
         <v>1025</v>
@@ -1890,7 +1902,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -1904,7 +1916,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
@@ -1913,10 +1925,10 @@
         <v>45</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="E32">
-        <v>1290</v>
+        <v>1200</v>
       </c>
       <c r="F32">
         <v>-175</v>
@@ -1928,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -1942,7 +1954,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
@@ -1951,13 +1963,13 @@
         <v>46</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="E33">
-        <v>1290</v>
+        <v>1200</v>
       </c>
       <c r="F33">
-        <v>425</v>
+        <v>-775</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -1966,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -1980,7 +1992,7 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
@@ -1989,28 +2001,28 @@
         <v>47</v>
       </c>
       <c r="D34">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="F34">
-        <v>-775</v>
+        <v>-175</v>
       </c>
       <c r="G34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
       <c r="L34">
-        <v>592</v>
+        <v>960</v>
       </c>
       <c r="M34">
         <v>2655</v>
@@ -2018,7 +2030,7 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="B35" t="s">
         <v>14</v>
@@ -2027,28 +2039,28 @@
         <v>48</v>
       </c>
       <c r="D35">
-        <v>1010</v>
+        <v>445</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F35">
-        <v>-775</v>
+        <v>425</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
       <c r="L35">
-        <v>592</v>
+        <v>960</v>
       </c>
       <c r="M35">
         <v>2655</v>
@@ -2056,7 +2068,7 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="B36" t="s">
         <v>14</v>
@@ -2065,28 +2077,28 @@
         <v>49</v>
       </c>
       <c r="D36">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F36">
-        <v>-175</v>
+        <v>1025</v>
       </c>
       <c r="G36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J36">
         <v>1</v>
       </c>
       <c r="L36">
-        <v>592</v>
+        <v>960</v>
       </c>
       <c r="M36">
         <v>2655</v>
@@ -2094,7 +2106,7 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
@@ -2103,28 +2115,28 @@
         <v>50</v>
       </c>
       <c r="D37">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F37">
-        <v>425</v>
+        <v>1025</v>
       </c>
       <c r="G37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
       <c r="L37">
-        <v>592</v>
+        <v>960</v>
       </c>
       <c r="M37">
         <v>2655</v>
@@ -2132,7 +2144,7 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
@@ -2141,7 +2153,7 @@
         <v>51</v>
       </c>
       <c r="D38">
-        <v>1010</v>
+        <v>960</v>
       </c>
       <c r="E38">
         <v>300</v>
@@ -2156,13 +2168,13 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J38">
         <v>1</v>
       </c>
       <c r="L38">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="M38">
         <v>2655</v>
@@ -2170,7 +2182,7 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
@@ -2179,13 +2191,13 @@
         <v>52</v>
       </c>
       <c r="D39">
-        <v>1010</v>
+        <v>960</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F39">
-        <v>1025</v>
+        <v>-775</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -2194,13 +2206,13 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
       <c r="L39">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="M39">
         <v>2655</v>
@@ -2208,7 +2220,7 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="B40" t="s">
         <v>14</v>
@@ -2217,13 +2229,13 @@
         <v>53</v>
       </c>
       <c r="D40">
-        <v>1010</v>
+        <v>960</v>
       </c>
       <c r="E40">
         <v>300</v>
       </c>
       <c r="F40">
-        <v>425</v>
+        <v>1025</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -2232,13 +2244,13 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J40">
         <v>1</v>
       </c>
       <c r="L40">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="M40">
         <v>2655</v>
@@ -2246,7 +2258,7 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B41" t="s">
         <v>14</v>
@@ -2255,13 +2267,13 @@
         <v>54</v>
       </c>
       <c r="D41">
-        <v>1010</v>
+        <v>960</v>
       </c>
       <c r="E41">
         <v>300</v>
       </c>
       <c r="F41">
-        <v>1025</v>
+        <v>425</v>
       </c>
       <c r="G41">
         <v>4</v>
@@ -2270,13 +2282,13 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J41">
         <v>1</v>
       </c>
       <c r="L41">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="M41">
         <v>2655</v>
@@ -2284,7 +2296,7 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
@@ -2293,28 +2305,28 @@
         <v>55</v>
       </c>
       <c r="D42">
-        <v>-450</v>
+        <v>960</v>
       </c>
       <c r="E42">
-        <v>1882</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>-775</v>
       </c>
       <c r="G42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J42">
         <v>1</v>
       </c>
       <c r="L42">
-        <v>1940</v>
+        <v>600</v>
       </c>
       <c r="M42">
         <v>2655</v>
@@ -2322,7 +2334,7 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
@@ -2331,28 +2343,28 @@
         <v>56</v>
       </c>
       <c r="D43">
-        <v>750</v>
+        <v>960</v>
       </c>
       <c r="E43">
-        <v>1882</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>-775</v>
+        <v>1025</v>
       </c>
       <c r="G43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
       <c r="L43">
-        <v>1940</v>
+        <v>600</v>
       </c>
       <c r="M43">
         <v>2655</v>
@@ -2360,7 +2372,7 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
@@ -2369,28 +2381,28 @@
         <v>57</v>
       </c>
       <c r="D44">
-        <v>-450</v>
+        <v>960</v>
       </c>
       <c r="E44">
-        <v>1882</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>-25</v>
+        <v>-175</v>
       </c>
       <c r="G44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J44">
         <v>1</v>
       </c>
       <c r="L44">
-        <v>1940</v>
+        <v>600</v>
       </c>
       <c r="M44">
         <v>2655</v>
@@ -2398,7 +2410,7 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B45" t="s">
         <v>14</v>
@@ -2407,28 +2419,28 @@
         <v>58</v>
       </c>
       <c r="D45">
-        <v>-900</v>
+        <v>960</v>
       </c>
       <c r="E45">
-        <v>1882</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>-775</v>
+        <v>425</v>
       </c>
       <c r="G45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J45">
         <v>1</v>
       </c>
       <c r="L45">
-        <v>1940</v>
+        <v>600</v>
       </c>
       <c r="M45">
         <v>2655</v>
@@ -2436,7 +2448,7 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B46" t="s">
         <v>14</v>
@@ -2445,10 +2457,10 @@
         <v>59</v>
       </c>
       <c r="D46">
-        <v>150</v>
+        <v>-900</v>
       </c>
       <c r="E46">
-        <v>1882</v>
+        <v>1800</v>
       </c>
       <c r="F46">
         <v>-775</v>
@@ -2460,7 +2472,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -2474,7 +2486,7 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B47" t="s">
         <v>14</v>
@@ -2483,10 +2495,10 @@
         <v>60</v>
       </c>
       <c r="D47">
-        <v>150</v>
+        <v>-450</v>
       </c>
       <c r="E47">
-        <v>1882</v>
+        <v>1800</v>
       </c>
       <c r="F47">
         <v>-25</v>
@@ -2498,7 +2510,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -2512,7 +2524,7 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B48" t="s">
         <v>14</v>
@@ -2521,13 +2533,13 @@
         <v>61</v>
       </c>
       <c r="D48">
-        <v>750</v>
+        <v>150</v>
       </c>
       <c r="E48">
-        <v>1882</v>
+        <v>1800</v>
       </c>
       <c r="F48">
-        <v>-25</v>
+        <v>-775</v>
       </c>
       <c r="G48">
         <v>5</v>
@@ -2536,7 +2548,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -2550,7 +2562,7 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B49" t="s">
         <v>14</v>
@@ -2559,10 +2571,10 @@
         <v>62</v>
       </c>
       <c r="D49">
-        <v>-900</v>
+        <v>150</v>
       </c>
       <c r="E49">
-        <v>1882</v>
+        <v>1800</v>
       </c>
       <c r="F49">
         <v>-25</v>
@@ -2574,7 +2586,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -2588,7 +2600,7 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B50" t="s">
         <v>14</v>
@@ -2597,28 +2609,28 @@
         <v>63</v>
       </c>
       <c r="D50">
-        <v>2850</v>
+        <v>750</v>
       </c>
       <c r="E50">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="F50">
-        <v>450</v>
+        <v>-775</v>
       </c>
       <c r="G50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J50">
         <v>1</v>
       </c>
       <c r="L50">
-        <v>1932</v>
+        <v>1940</v>
       </c>
       <c r="M50">
         <v>2655</v>
@@ -2626,7 +2638,7 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="B51" t="s">
         <v>14</v>
@@ -2635,28 +2647,28 @@
         <v>64</v>
       </c>
       <c r="D51">
-        <v>2850</v>
+        <v>-900</v>
       </c>
       <c r="E51">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="F51">
-        <v>-150</v>
+        <v>-25</v>
       </c>
       <c r="G51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J51">
         <v>1</v>
       </c>
       <c r="L51">
-        <v>1932</v>
+        <v>1940</v>
       </c>
       <c r="M51">
         <v>2655</v>
@@ -2664,7 +2676,7 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B52" t="s">
         <v>14</v>
@@ -2673,28 +2685,28 @@
         <v>65</v>
       </c>
       <c r="D52">
-        <v>2850</v>
+        <v>750</v>
       </c>
       <c r="E52">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="F52">
-        <v>1050</v>
+        <v>-25</v>
       </c>
       <c r="G52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J52">
         <v>1</v>
       </c>
       <c r="L52">
-        <v>1932</v>
+        <v>1940</v>
       </c>
       <c r="M52">
         <v>2655</v>
@@ -2702,7 +2714,7 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="B53" t="s">
         <v>14</v>
@@ -2711,28 +2723,28 @@
         <v>66</v>
       </c>
       <c r="D53">
-        <v>2850</v>
+        <v>-450</v>
       </c>
       <c r="E53">
-        <v>-300</v>
+        <v>1800</v>
       </c>
       <c r="F53">
-        <v>-750</v>
+        <v>-775</v>
       </c>
       <c r="G53">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J53">
         <v>1</v>
       </c>
       <c r="L53">
-        <v>1932</v>
+        <v>1940</v>
       </c>
       <c r="M53">
         <v>2655</v>
@@ -2740,7 +2752,7 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="B54" t="s">
         <v>14</v>
@@ -2749,13 +2761,13 @@
         <v>67</v>
       </c>
       <c r="D54">
-        <v>2850</v>
+        <v>2760</v>
       </c>
       <c r="E54">
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="F54">
-        <v>-150</v>
+        <v>450</v>
       </c>
       <c r="G54">
         <v>6</v>
@@ -2764,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -2778,7 +2790,7 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="B55" t="s">
         <v>14</v>
@@ -2787,13 +2799,13 @@
         <v>68</v>
       </c>
       <c r="D55">
-        <v>2850</v>
+        <v>2760</v>
       </c>
       <c r="E55">
         <v>-300</v>
       </c>
       <c r="F55">
-        <v>450</v>
+        <v>1050</v>
       </c>
       <c r="G55">
         <v>6</v>
@@ -2802,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -2816,7 +2828,7 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="B56" t="s">
         <v>14</v>
@@ -2825,13 +2837,13 @@
         <v>69</v>
       </c>
       <c r="D56">
-        <v>2850</v>
+        <v>2760</v>
       </c>
       <c r="E56">
         <v>-300</v>
       </c>
       <c r="F56">
-        <v>1050</v>
+        <v>450</v>
       </c>
       <c r="G56">
         <v>6</v>
@@ -2840,7 +2852,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -2854,7 +2866,7 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="B57" t="s">
         <v>14</v>
@@ -2863,13 +2875,13 @@
         <v>70</v>
       </c>
       <c r="D57">
-        <v>2850</v>
+        <v>2760</v>
       </c>
       <c r="E57">
-        <v>300</v>
+        <v>-300</v>
       </c>
       <c r="F57">
-        <v>-750</v>
+        <v>-150</v>
       </c>
       <c r="G57">
         <v>6</v>
@@ -2878,7 +2890,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -2892,7 +2904,7 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="1">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="B58" t="s">
         <v>14</v>
@@ -2901,36 +2913,36 @@
         <v>71</v>
       </c>
       <c r="D58">
-        <v>1480</v>
+        <v>2760</v>
       </c>
       <c r="E58">
-        <v>1270</v>
+        <v>-300</v>
       </c>
       <c r="F58">
-        <v>-25</v>
-      </c>
-      <c r="G58" t="s">
-        <v>85</v>
+        <v>-750</v>
+      </c>
+      <c r="G58">
+        <v>6</v>
       </c>
       <c r="H58">
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J58">
         <v>1</v>
       </c>
       <c r="L58">
-        <v>2900</v>
+        <v>1932</v>
       </c>
       <c r="M58">
-        <v>1932</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="B59" t="s">
         <v>14</v>
@@ -2939,36 +2951,36 @@
         <v>72</v>
       </c>
       <c r="D59">
-        <v>790</v>
+        <v>2760</v>
       </c>
       <c r="E59">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="F59">
-        <v>-25</v>
-      </c>
-      <c r="G59" t="s">
-        <v>85</v>
+        <v>1050</v>
+      </c>
+      <c r="G59">
+        <v>6</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J59">
         <v>1</v>
       </c>
       <c r="L59">
-        <v>2900</v>
+        <v>1932</v>
       </c>
       <c r="M59">
-        <v>1932</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="B60" t="s">
         <v>14</v>
@@ -2977,36 +2989,36 @@
         <v>73</v>
       </c>
       <c r="D60">
-        <v>1480</v>
+        <v>2760</v>
       </c>
       <c r="E60">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="F60">
-        <v>-25</v>
-      </c>
-      <c r="G60" t="s">
-        <v>85</v>
+        <v>-150</v>
+      </c>
+      <c r="G60">
+        <v>6</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J60">
         <v>1</v>
       </c>
       <c r="L60">
-        <v>2900</v>
+        <v>1932</v>
       </c>
       <c r="M60">
-        <v>1932</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="B61" t="s">
         <v>14</v>
@@ -3015,36 +3027,36 @@
         <v>74</v>
       </c>
       <c r="D61">
-        <v>2380</v>
+        <v>2760</v>
       </c>
       <c r="E61">
-        <v>670</v>
+        <v>300</v>
       </c>
       <c r="F61">
-        <v>-25</v>
-      </c>
-      <c r="G61" t="s">
-        <v>85</v>
+        <v>-750</v>
+      </c>
+      <c r="G61">
+        <v>6</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J61">
         <v>1</v>
       </c>
       <c r="L61">
-        <v>2900</v>
+        <v>1932</v>
       </c>
       <c r="M61">
-        <v>1932</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="1">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
@@ -3053,22 +3065,22 @@
         <v>75</v>
       </c>
       <c r="D62">
-        <v>2380</v>
+        <v>2310</v>
       </c>
       <c r="E62">
-        <v>1270</v>
+        <v>150</v>
       </c>
       <c r="F62">
         <v>-25</v>
       </c>
       <c r="G62" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -3082,7 +3094,7 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="1">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B63" t="s">
         <v>14</v>
@@ -3091,22 +3103,22 @@
         <v>76</v>
       </c>
       <c r="D63">
-        <v>190</v>
+        <v>2310</v>
       </c>
       <c r="E63">
-        <v>1120</v>
+        <v>600</v>
       </c>
       <c r="F63">
         <v>-25</v>
       </c>
       <c r="G63" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -3120,7 +3132,7 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="1">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B64" t="s">
         <v>14</v>
@@ -3129,22 +3141,22 @@
         <v>77</v>
       </c>
       <c r="D64">
-        <v>190</v>
+        <v>2310</v>
       </c>
       <c r="E64">
-        <v>670</v>
+        <v>1200</v>
       </c>
       <c r="F64">
         <v>-25</v>
       </c>
       <c r="G64" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -3158,7 +3170,7 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="1">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B65" t="s">
         <v>14</v>
@@ -3167,22 +3179,22 @@
         <v>78</v>
       </c>
       <c r="D65">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="E65">
-        <v>220</v>
+        <v>1050</v>
       </c>
       <c r="F65">
         <v>-25</v>
       </c>
       <c r="G65" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -3196,7 +3208,7 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="1">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B66" t="s">
         <v>14</v>
@@ -3205,22 +3217,22 @@
         <v>79</v>
       </c>
       <c r="D66">
-        <v>2380</v>
+        <v>720</v>
       </c>
       <c r="E66">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="F66">
         <v>-25</v>
       </c>
       <c r="G66" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H66">
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -3234,7 +3246,7 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="1">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
@@ -3243,22 +3255,22 @@
         <v>80</v>
       </c>
       <c r="D67">
-        <v>1480</v>
+        <v>120</v>
       </c>
       <c r="E67">
-        <v>670</v>
+        <v>150</v>
       </c>
       <c r="F67">
         <v>-25</v>
       </c>
       <c r="G67" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -3272,7 +3284,7 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="1">
-        <v>36</v>
+        <v>226</v>
       </c>
       <c r="B68" t="s">
         <v>14</v>
@@ -3281,22 +3293,22 @@
         <v>81</v>
       </c>
       <c r="D68">
-        <v>715</v>
+        <v>1410</v>
       </c>
       <c r="E68">
-        <v>1182</v>
+        <v>600</v>
       </c>
       <c r="F68">
-        <v>-77</v>
+        <v>-25</v>
       </c>
       <c r="G68" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H68">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -3310,7 +3322,7 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="1">
-        <v>74</v>
+        <v>225</v>
       </c>
       <c r="B69" t="s">
         <v>14</v>
@@ -3319,22 +3331,22 @@
         <v>82</v>
       </c>
       <c r="D69">
-        <v>1080</v>
+        <v>1410</v>
       </c>
       <c r="E69">
-        <v>1605</v>
+        <v>150</v>
       </c>
       <c r="F69">
-        <v>-77</v>
+        <v>-25</v>
       </c>
       <c r="G69" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H69">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -3348,7 +3360,7 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="1">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B70" t="s">
         <v>14</v>
@@ -3357,22 +3369,22 @@
         <v>83</v>
       </c>
       <c r="D70">
-        <v>790</v>
+        <v>120</v>
       </c>
       <c r="E70">
-        <v>670</v>
+        <v>600</v>
       </c>
       <c r="F70">
         <v>-25</v>
       </c>
       <c r="G70" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -3386,7 +3398,7 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="1">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B71" t="s">
         <v>14</v>
@@ -3395,30 +3407,182 @@
         <v>84</v>
       </c>
       <c r="D71">
-        <v>790</v>
+        <v>1410</v>
       </c>
       <c r="E71">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="F71">
         <v>-25</v>
       </c>
       <c r="G71" t="s">
+        <v>89</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71" t="s">
+        <v>92</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>2900</v>
+      </c>
+      <c r="M71">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="1">
+        <v>36</v>
+      </c>
+      <c r="B72" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" t="s">
         <v>85</v>
       </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
-      <c r="I71" t="s">
+      <c r="D72">
+        <v>645</v>
+      </c>
+      <c r="E72">
+        <v>1112</v>
+      </c>
+      <c r="F72">
+        <v>-77</v>
+      </c>
+      <c r="G72" t="s">
+        <v>89</v>
+      </c>
+      <c r="H72">
+        <v>6</v>
+      </c>
+      <c r="I72" t="s">
+        <v>92</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>2900</v>
+      </c>
+      <c r="M72">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="1">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" t="s">
+        <v>86</v>
+      </c>
+      <c r="D73">
+        <v>1010</v>
+      </c>
+      <c r="E73">
+        <v>1535</v>
+      </c>
+      <c r="F73">
+        <v>-77</v>
+      </c>
+      <c r="G73" t="s">
+        <v>89</v>
+      </c>
+      <c r="H73">
+        <v>6</v>
+      </c>
+      <c r="I73" t="s">
+        <v>92</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>2900</v>
+      </c>
+      <c r="M73">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="1">
+        <v>235</v>
+      </c>
+      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" t="s">
+        <v>87</v>
+      </c>
+      <c r="D74">
+        <v>720</v>
+      </c>
+      <c r="E74">
+        <v>600</v>
+      </c>
+      <c r="F74">
+        <v>-25</v>
+      </c>
+      <c r="G74" t="s">
+        <v>89</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>92</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>2900</v>
+      </c>
+      <c r="M74">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="1">
+        <v>236</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" t="s">
         <v>88</v>
       </c>
-      <c r="J71">
-        <v>1</v>
-      </c>
-      <c r="L71">
-        <v>2900</v>
-      </c>
-      <c r="M71">
+      <c r="D75">
+        <v>720</v>
+      </c>
+      <c r="E75">
+        <v>1050</v>
+      </c>
+      <c r="F75">
+        <v>-25</v>
+      </c>
+      <c r="G75" t="s">
+        <v>89</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75" t="s">
+        <v>92</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>2900</v>
+      </c>
+      <c r="M75">
         <v>1932</v>
       </c>
     </row>
@@ -3484,16 +3648,16 @@
         <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D2">
         <v>160</v>
       </c>
       <c r="E2">
-        <v>1272</v>
+        <v>1202</v>
       </c>
       <c r="F2">
         <v>-181</v>
@@ -3505,7 +3669,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -3522,16 +3686,16 @@
         <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D3">
         <v>714</v>
       </c>
       <c r="E3">
-        <v>1642</v>
+        <v>1572</v>
       </c>
       <c r="F3">
         <v>-715</v>
@@ -3543,7 +3707,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -3560,16 +3724,16 @@
         <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D4">
         <v>210</v>
       </c>
       <c r="E4">
-        <v>1270</v>
+        <v>1200</v>
       </c>
       <c r="F4">
         <v>-50</v>
@@ -3581,7 +3745,7 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -3598,13 +3762,13 @@
         <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D5">
-        <v>1030</v>
+        <v>960</v>
       </c>
       <c r="E5">
         <v>170</v>
@@ -3619,13 +3783,13 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="M5">
         <v>2655</v>
@@ -3636,13 +3800,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D6">
-        <v>1007</v>
+        <v>937</v>
       </c>
       <c r="E6">
         <v>-243</v>
@@ -3657,13 +3821,13 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="M6">
         <v>2655</v>
@@ -3674,16 +3838,16 @@
         <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1870</v>
+        <v>1800</v>
       </c>
       <c r="F7">
         <v>125</v>
@@ -3695,7 +3859,7 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -3712,16 +3876,16 @@
         <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D8">
         <v>-800</v>
       </c>
       <c r="E8">
-        <v>1907</v>
+        <v>1837</v>
       </c>
       <c r="F8">
         <v>-365</v>
@@ -3733,7 +3897,7 @@
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -3750,28 +3914,28 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D9">
-        <v>2380</v>
+        <v>2310</v>
       </c>
       <c r="E9">
-        <v>1575</v>
+        <v>1505</v>
       </c>
       <c r="F9">
         <v>547</v>
       </c>
       <c r="G9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H9">
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -3788,28 +3952,28 @@
         <v>159</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D10">
-        <v>715</v>
+        <v>645</v>
       </c>
       <c r="E10">
-        <v>1145</v>
+        <v>1075</v>
       </c>
       <c r="F10">
         <v>-50</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H10">
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -3826,28 +3990,28 @@
         <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D11">
-        <v>2305</v>
+        <v>2235</v>
       </c>
       <c r="E11">
-        <v>1720</v>
+        <v>1650</v>
       </c>
       <c r="F11">
         <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H11">
         <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -3864,28 +4028,28 @@
         <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D12">
-        <v>2455</v>
+        <v>2385</v>
       </c>
       <c r="E12">
-        <v>1780</v>
+        <v>1710</v>
       </c>
       <c r="F12">
         <v>175</v>
       </c>
       <c r="G12" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H12">
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -3902,28 +4066,28 @@
         <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D13">
-        <v>2730</v>
+        <v>2660</v>
       </c>
       <c r="E13">
-        <v>505</v>
+        <v>435</v>
       </c>
       <c r="F13">
         <v>210</v>
       </c>
       <c r="G13" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H13">
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -3940,28 +4104,28 @@
         <v>118</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D14">
-        <v>930</v>
+        <v>860</v>
       </c>
       <c r="E14">
-        <v>1369</v>
+        <v>1299</v>
       </c>
       <c r="F14">
         <v>2468</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H14">
         <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -3978,28 +4142,28 @@
         <v>144</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D15">
-        <v>1130</v>
+        <v>1060</v>
       </c>
       <c r="E15">
-        <v>1650</v>
+        <v>1580</v>
       </c>
       <c r="F15">
         <v>275</v>
       </c>
       <c r="G15" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H15">
         <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -4016,28 +4180,28 @@
         <v>145</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D16">
-        <v>2380</v>
+        <v>2310</v>
       </c>
       <c r="E16">
-        <v>1810</v>
+        <v>1740</v>
       </c>
       <c r="F16">
         <v>825</v>
       </c>
       <c r="G16" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H16">
         <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -4054,28 +4218,28 @@
         <v>148</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D17">
-        <v>1390</v>
+        <v>1320</v>
       </c>
       <c r="E17">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>1175</v>
       </c>
       <c r="G17" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H17">
         <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -4092,28 +4256,28 @@
         <v>153</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D18">
-        <v>1480</v>
+        <v>1410</v>
       </c>
       <c r="E18">
-        <v>1762</v>
+        <v>1692</v>
       </c>
       <c r="F18">
         <v>825</v>
       </c>
       <c r="G18" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H18">
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -4130,28 +4294,28 @@
         <v>154</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D19">
-        <v>1080</v>
+        <v>1010</v>
       </c>
       <c r="E19">
-        <v>1605</v>
+        <v>1535</v>
       </c>
       <c r="F19">
         <v>-25</v>
       </c>
       <c r="G19" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H19">
         <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -4168,28 +4332,28 @@
         <v>158</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D20">
-        <v>1355</v>
+        <v>1285</v>
       </c>
       <c r="E20">
-        <v>1662</v>
+        <v>1592</v>
       </c>
       <c r="F20">
         <v>-24</v>
       </c>
       <c r="G20" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H20">
         <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -4263,28 +4427,28 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D2">
-        <v>2630</v>
+        <v>2560</v>
       </c>
       <c r="E2">
-        <v>685</v>
+        <v>615</v>
       </c>
       <c r="F2">
         <v>210</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H2">
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -4301,28 +4465,28 @@
         <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D3">
-        <v>2270</v>
+        <v>2200</v>
       </c>
       <c r="E3">
-        <v>285</v>
+        <v>215</v>
       </c>
       <c r="F3">
         <v>100</v>
       </c>
       <c r="G3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H3">
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -4339,28 +4503,28 @@
         <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D4">
-        <v>2170</v>
+        <v>2100</v>
       </c>
       <c r="E4">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="F4">
         <v>175</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H4">
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J4">
         <v>1</v>

--- a/Greyform/Python_Application/exporteddatassss(with TMP)(draft)(tetra).xlsx
+++ b/Greyform/Python_Application/exporteddatassss(with TMP)(draft)(tetra).xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MokZhiZhuan\OneDrive - WINSYS TECHNOLOGY PTE LTD\Documents\GitHub\GreyForm_UI\Greyform\Python_Application\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2817B1E0-5275-40AA-A9AF-47202A32D606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="390" yWindow="15" windowWidth="23235" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage 2" sheetId="1" r:id="rId1"/>
     <sheet name="Stage 3" sheetId="2" r:id="rId2"/>
     <sheet name="Obstacles" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="115">
   <si>
     <t>Marking type</t>
   </si>
@@ -63,214 +69,214 @@
     <t>Tile</t>
   </si>
   <si>
-    <t>TMP1S2f1:TMP1S2f1:1155196</t>
-  </si>
-  <si>
-    <t>TMP1S2a2:TMP1S2a2:1155170</t>
-  </si>
-  <si>
-    <t>TMP1S2a1:TMP1S2a1:1155171</t>
-  </si>
-  <si>
-    <t>TMP1S2b4:TMP1S2b4:1155173</t>
-  </si>
-  <si>
-    <t>TMP1S2b3:TMP1S2b3:1155174</t>
-  </si>
-  <si>
-    <t>TMP1S2b2:TMP1S2b2:1155175</t>
-  </si>
-  <si>
-    <t>TMP1S2b1:TMP1S2b1:1155176</t>
-  </si>
-  <si>
-    <t>TMP1S2c4:TMP1S2c4:1155178</t>
-  </si>
-  <si>
-    <t>TMP1S2c3:TMP1S2c3:1155179</t>
-  </si>
-  <si>
-    <t>TMP1S2c2:TMP1S2c2:1155180</t>
-  </si>
-  <si>
-    <t>TMP1S2a3:TMP1S2a3:1155169</t>
-  </si>
-  <si>
-    <t>TMP1S2c1:TMP1S2c1:1155181</t>
-  </si>
-  <si>
-    <t>TMP1S2d3:TMP1S2d3:1155184</t>
-  </si>
-  <si>
-    <t>TMP1S2d1:TMP1S2d1:1155186</t>
-  </si>
-  <si>
-    <t>TMP1S2e4:TMP1S2e4:1155188</t>
-  </si>
-  <si>
-    <t>TMP1S2e3:TMP1S2e3:1155189</t>
-  </si>
-  <si>
-    <t>TMP1S2e2:TMP1S2e2:1155190</t>
-  </si>
-  <si>
-    <t>TMP1S2e1:TMP1S2e1:1155191</t>
-  </si>
-  <si>
-    <t>TMP1S2f4:TMP1S2f4:1155193</t>
-  </si>
-  <si>
-    <t>TMP1S2f3:TMP1S2f3:1155194</t>
-  </si>
-  <si>
-    <t>TMP1S2f2:TMP1S2f2:1155195</t>
-  </si>
-  <si>
-    <t>TMP1S2d4:TMP1S2d4:1155183</t>
-  </si>
-  <si>
-    <t>TMP1S2a4:TMP1S2a4:1155168</t>
-  </si>
-  <si>
-    <t>TMP1S2d2:TMP1S2d2:1155185</t>
-  </si>
-  <si>
-    <t>TMP2S2b2:TMP2S2b2:1155235</t>
-  </si>
-  <si>
-    <t>TMP2S2b1:TMP2S2b1:1155236</t>
-  </si>
-  <si>
-    <t>TMP2S2a2:TMP2S2a2:1155237</t>
-  </si>
-  <si>
-    <t>TMP2S2a1:TMP2S2a1:1155238</t>
-  </si>
-  <si>
-    <t>TMP3S2a2:TMP3S2a2:1155232</t>
-  </si>
-  <si>
-    <t>TMP3S2b1:TMP3S2b1:1155228</t>
-  </si>
-  <si>
-    <t>TMP3S2b3:TMP3S2b3:1155227</t>
-  </si>
-  <si>
-    <t>TMP3S2b4:TMP3S2b4:1155226</t>
-  </si>
-  <si>
-    <t>TMP3S2a3:TMP3S2a3:1155231</t>
-  </si>
-  <si>
-    <t>TMP3S2b2:TMP3S2b2:1155229</t>
-  </si>
-  <si>
-    <t>TMP3S2a4:TMP3S2a4:1155230</t>
-  </si>
-  <si>
-    <t>TMP3S2a1:TMP3S2a1:1155233</t>
-  </si>
-  <si>
-    <t>TMP4S2a3:TMP4S2a3:1155222</t>
-  </si>
-  <si>
-    <t>TMP4S2a4:TMP4S2a4:1155218</t>
-  </si>
-  <si>
-    <t>TMP4S2a1:TMP4S2a1:1155224</t>
-  </si>
-  <si>
-    <t>TMP4S2a2:TMP4S2a2:1155223</t>
-  </si>
-  <si>
-    <t>TMP4S2b4:TMP4S2b4:1155217</t>
-  </si>
-  <si>
-    <t>TMP4S2b1:TMP4S2b1:1155221</t>
-  </si>
-  <si>
-    <t>TMP4S2b3:TMP4S2b3:1155219</t>
-  </si>
-  <si>
-    <t>TMP4S2b2:TMP4S2b2:1155220</t>
-  </si>
-  <si>
-    <t>TMP5S2a4:TMP5S2a4:1155208</t>
-  </si>
-  <si>
-    <t>TMP5S2b3:TMP5S2b3:1155211</t>
-  </si>
-  <si>
-    <t>TMP5S2a2:TMP5S2a2:1155212</t>
-  </si>
-  <si>
-    <t>TMP5S2b2:TMP5S2b2:1155213</t>
-  </si>
-  <si>
-    <t>TMP5S2a1:TMP5S2a1:1155215</t>
-  </si>
-  <si>
-    <t>TMP5S2b4:TMP5S2b4:1155209</t>
-  </si>
-  <si>
-    <t>TMP5S2b1:TMP5S2b1:1155214</t>
-  </si>
-  <si>
-    <t>TMP5S2a3:TMP5S2a3:1155210</t>
-  </si>
-  <si>
-    <t>TMP6S2a2:TMP6S2a2:1155200</t>
-  </si>
-  <si>
-    <t>TMP6S2b1:TMP6S2b1:1155206</t>
-  </si>
-  <si>
-    <t>TMP6S2b2:TMP6S2b2:1155205</t>
-  </si>
-  <si>
-    <t>TMP6S2b3:TMP6S2b3:1155204</t>
-  </si>
-  <si>
-    <t>TMP6S2b4:TMP6S2b4:1155203</t>
-  </si>
-  <si>
-    <t>TMP6S2a1:TMP6S2a1:1155201</t>
-  </si>
-  <si>
-    <t>TMP6S2a4:TMP6S2a4:1155199</t>
-  </si>
-  <si>
-    <t>TMP6S2a3:TMP6S2a3:1155198</t>
-  </si>
-  <si>
-    <t>TMP7S2a3:TMP7S2a3:1155243</t>
-  </si>
-  <si>
-    <t>TMP7S2a2:TMP7S2a2:1155244</t>
-  </si>
-  <si>
-    <t>TMP7S2a1:TMP7S2a1:1155245</t>
-  </si>
-  <si>
-    <t>TMP7S2d1:TMP7S2d1:1155247</t>
-  </si>
-  <si>
-    <t>TMP7S2c3:TMP7S2c3:1155250</t>
-  </si>
-  <si>
-    <t>TMP7S2d3:TMP7S2d3:1155249</t>
-  </si>
-  <si>
-    <t>TMP7S2b2:TMP7S2b2:1155241</t>
-  </si>
-  <si>
-    <t>TMP7S2b3:TMP7S2b3:1155240</t>
-  </si>
-  <si>
-    <t>TMP7S2d2:TMP7S2d2:1155248</t>
-  </si>
-  <si>
-    <t>TMP7S2b1:TMP7S2b1:1155242</t>
+    <t>TMP1S2f1:TMP1S2f1:1155220</t>
+  </si>
+  <si>
+    <t>TMP1S2a2:TMP1S2a2:1155194</t>
+  </si>
+  <si>
+    <t>TMP1S2a1:TMP1S2a1:1155195</t>
+  </si>
+  <si>
+    <t>TMP1S2b4:TMP1S2b4:1155197</t>
+  </si>
+  <si>
+    <t>TMP1S2b3:TMP1S2b3:1155198</t>
+  </si>
+  <si>
+    <t>TMP1S2b2:TMP1S2b2:1155199</t>
+  </si>
+  <si>
+    <t>TMP1S2b1:TMP1S2b1:1155200</t>
+  </si>
+  <si>
+    <t>TMP1S2c4:TMP1S2c4:1155202</t>
+  </si>
+  <si>
+    <t>TMP1S2c3:TMP1S2c3:1155203</t>
+  </si>
+  <si>
+    <t>TMP1S2c2:TMP1S2c2:1155204</t>
+  </si>
+  <si>
+    <t>TMP1S2a3:TMP1S2a3:1155193</t>
+  </si>
+  <si>
+    <t>TMP1S2c1:TMP1S2c1:1155205</t>
+  </si>
+  <si>
+    <t>TMP1S2d3:TMP1S2d3:1155208</t>
+  </si>
+  <si>
+    <t>TMP1S2d1:TMP1S2d1:1155210</t>
+  </si>
+  <si>
+    <t>TMP1S2e4:TMP1S2e4:1155212</t>
+  </si>
+  <si>
+    <t>TMP1S2e3:TMP1S2e3:1155213</t>
+  </si>
+  <si>
+    <t>TMP1S2e2:TMP1S2e2:1155214</t>
+  </si>
+  <si>
+    <t>TMP1S2e1:TMP1S2e1:1155215</t>
+  </si>
+  <si>
+    <t>TMP1S2f4:TMP1S2f4:1155217</t>
+  </si>
+  <si>
+    <t>TMP1S2f3:TMP1S2f3:1155218</t>
+  </si>
+  <si>
+    <t>TMP1S2f2:TMP1S2f2:1155219</t>
+  </si>
+  <si>
+    <t>TMP1S2d4:TMP1S2d4:1155207</t>
+  </si>
+  <si>
+    <t>TMP1S2a4:TMP1S2a4:1155192</t>
+  </si>
+  <si>
+    <t>TMP1S2d2:TMP1S2d2:1155209</t>
+  </si>
+  <si>
+    <t>TMP2S2a2:TMP2S2a2:1155224</t>
+  </si>
+  <si>
+    <t>TMP2S2a1:TMP2S2a1:1155225</t>
+  </si>
+  <si>
+    <t>TMP2S2b1:TMP2S2b1:1155223</t>
+  </si>
+  <si>
+    <t>TMP2S2b2:TMP2S2b2:1155222</t>
+  </si>
+  <si>
+    <t>TMP3S2a4:TMP3S2a4:1155231</t>
+  </si>
+  <si>
+    <t>TMP3S2b2:TMP3S2b2:1155230</t>
+  </si>
+  <si>
+    <t>TMP3S2b1:TMP3S2b1:1155229</t>
+  </si>
+  <si>
+    <t>TMP3S2b3:TMP3S2b3:1155228</t>
+  </si>
+  <si>
+    <t>TMP3S2b4:TMP3S2b4:1155227</t>
+  </si>
+  <si>
+    <t>TMP3S2a1:TMP3S2a1:1155234</t>
+  </si>
+  <si>
+    <t>TMP3S2a3:TMP3S2a3:1155232</t>
+  </si>
+  <si>
+    <t>TMP3S2a2:TMP3S2a2:1155233</t>
+  </si>
+  <si>
+    <t>TMP4S2a1:TMP4S2a1:1155243</t>
+  </si>
+  <si>
+    <t>TMP4S2b4:TMP4S2b4:1155236</t>
+  </si>
+  <si>
+    <t>TMP4S2a4:TMP4S2a4:1155237</t>
+  </si>
+  <si>
+    <t>TMP4S2a2:TMP4S2a2:1155242</t>
+  </si>
+  <si>
+    <t>TMP4S2b2:TMP4S2b2:1155239</t>
+  </si>
+  <si>
+    <t>TMP4S2b1:TMP4S2b1:1155240</t>
+  </si>
+  <si>
+    <t>TMP4S2a3:TMP4S2a3:1155241</t>
+  </si>
+  <si>
+    <t>TMP4S2b3:TMP4S2b3:1155238</t>
+  </si>
+  <si>
+    <t>TMP5S2a4:TMP5S2a4:1155245</t>
+  </si>
+  <si>
+    <t>TMP5S2b4:TMP5S2b4:1155246</t>
+  </si>
+  <si>
+    <t>TMP5S2a3:TMP5S2a3:1155247</t>
+  </si>
+  <si>
+    <t>TMP5S2b3:TMP5S2b3:1155248</t>
+  </si>
+  <si>
+    <t>TMP5S2a1:TMP5S2a1:1155252</t>
+  </si>
+  <si>
+    <t>TMP5S2a2:TMP5S2a2:1155249</t>
+  </si>
+  <si>
+    <t>TMP5S2b2:TMP5S2b2:1155250</t>
+  </si>
+  <si>
+    <t>TMP5S2b1:TMP5S2b1:1155251</t>
+  </si>
+  <si>
+    <t>TMP6S2a2:TMP6S2a2:1155256</t>
+  </si>
+  <si>
+    <t>TMP6S2a3:TMP6S2a3:1155254</t>
+  </si>
+  <si>
+    <t>TMP6S2a1:TMP6S2a1:1155257</t>
+  </si>
+  <si>
+    <t>TMP6S2b4:TMP6S2b4:1155259</t>
+  </si>
+  <si>
+    <t>TMP6S2b3:TMP6S2b3:1155260</t>
+  </si>
+  <si>
+    <t>TMP6S2b2:TMP6S2b2:1155261</t>
+  </si>
+  <si>
+    <t>TMP6S2b1:TMP6S2b1:1155262</t>
+  </si>
+  <si>
+    <t>TMP6S2a4:TMP6S2a4:1155255</t>
+  </si>
+  <si>
+    <t>TMP7S2b3:TMP7S2b3:1155264</t>
+  </si>
+  <si>
+    <t>TMP7S2c3:TMP7S2c3:1155274</t>
+  </si>
+  <si>
+    <t>TMP7S2a3:TMP7S2a3:1155267</t>
+  </si>
+  <si>
+    <t>TMP7S2a2:TMP7S2a2:1155268</t>
+  </si>
+  <si>
+    <t>TMP7S2a1:TMP7S2a1:1155269</t>
+  </si>
+  <si>
+    <t>TMP7S2d1:TMP7S2d1:1155271</t>
+  </si>
+  <si>
+    <t>TMP7S2d2:TMP7S2d2:1155272</t>
+  </si>
+  <si>
+    <t>TMP7S2d3:TMP7S2d3:1155273</t>
+  </si>
+  <si>
+    <t>TMP7S2b1:TMP7S2b1:1155266</t>
+  </si>
+  <si>
+    <t>TMP7S2b2:TMP7S2b2:1155265</t>
   </si>
   <si>
     <t>BSS.Shallow_FT:150 x 150MM:1018227</t>
@@ -279,19 +285,13 @@
     <t>BSS.Shallow_FW:BSS.Shallow_FW:1038276</t>
   </si>
   <si>
-    <t>TMP7S2c2:TMP7S2c2:1155251</t>
-  </si>
-  <si>
-    <t>TMP7S2c1:TMP7S2c1:1155252</t>
+    <t>TMP7S2c2:TMP7S2c2:1155275</t>
+  </si>
+  <si>
+    <t>TMP7S2c1:TMP7S2c1:1155276</t>
   </si>
   <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>6</t>
   </si>
   <si>
     <t>blank</t>
@@ -372,8 +372,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,13 +436,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -480,7 +488,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -514,6 +522,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -548,9 +557,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -723,14 +733,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:XFD73"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -774,7 +786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>188</v>
       </c>
@@ -800,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -812,7 +824,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>167</v>
       </c>
@@ -838,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -850,7 +862,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>168</v>
       </c>
@@ -876,7 +888,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -888,7 +900,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>169</v>
       </c>
@@ -914,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -926,7 +938,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>170</v>
       </c>
@@ -952,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -964,7 +976,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>171</v>
       </c>
@@ -990,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1002,7 +1014,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>172</v>
       </c>
@@ -1028,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1040,7 +1052,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>173</v>
       </c>
@@ -1066,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1078,7 +1090,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>174</v>
       </c>
@@ -1089,7 +1101,7 @@
         <v>23</v>
       </c>
       <c r="D10">
-        <v>-490</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1104,7 +1116,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1116,7 +1128,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>175</v>
       </c>
@@ -1142,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1154,7 +1166,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>166</v>
       </c>
@@ -1180,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1192,7 +1204,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>176</v>
       </c>
@@ -1218,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1230,7 +1242,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>178</v>
       </c>
@@ -1256,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1268,7 +1280,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>180</v>
       </c>
@@ -1294,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1306,7 +1318,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>181</v>
       </c>
@@ -1332,7 +1344,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1344,7 +1356,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>182</v>
       </c>
@@ -1370,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1382,7 +1394,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>183</v>
       </c>
@@ -1408,7 +1420,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1420,7 +1432,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>184</v>
       </c>
@@ -1446,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1458,7 +1470,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>185</v>
       </c>
@@ -1484,7 +1496,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1496,7 +1508,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>186</v>
       </c>
@@ -1522,7 +1534,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1534,7 +1546,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>187</v>
       </c>
@@ -1560,7 +1572,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1572,7 +1584,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>177</v>
       </c>
@@ -1598,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -1610,7 +1622,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>165</v>
       </c>
@@ -1636,7 +1648,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -1648,7 +1660,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>179</v>
       </c>
@@ -1674,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1686,9 +1698,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
@@ -1697,10 +1709,10 @@
         <v>39</v>
       </c>
       <c r="D26">
+        <v>500</v>
+      </c>
+      <c r="E26">
         <v>0</v>
-      </c>
-      <c r="E26">
-        <v>-500</v>
       </c>
       <c r="F26">
         <v>-775</v>
@@ -1712,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -1724,9 +1736,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
@@ -1735,10 +1747,10 @@
         <v>40</v>
       </c>
       <c r="D27">
+        <v>500</v>
+      </c>
+      <c r="E27">
         <v>0</v>
-      </c>
-      <c r="E27">
-        <v>-500</v>
       </c>
       <c r="F27">
         <v>-175</v>
@@ -1750,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -1762,9 +1774,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -1773,13 +1785,13 @@
         <v>41</v>
       </c>
       <c r="D28">
+        <v>-100</v>
+      </c>
+      <c r="E28">
         <v>0</v>
       </c>
-      <c r="E28">
-        <v>100</v>
-      </c>
       <c r="F28">
-        <v>-775</v>
+        <v>-175</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1788,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -1800,9 +1812,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
@@ -1811,13 +1823,13 @@
         <v>42</v>
       </c>
       <c r="D29">
+        <v>-100</v>
+      </c>
+      <c r="E29">
         <v>0</v>
       </c>
-      <c r="E29">
-        <v>100</v>
-      </c>
       <c r="F29">
-        <v>-175</v>
+        <v>-775</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -1826,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -1838,9 +1850,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
@@ -1855,7 +1867,7 @@
         <v>1200</v>
       </c>
       <c r="F30">
-        <v>425</v>
+        <v>1025</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -1864,7 +1876,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -1876,9 +1888,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
@@ -1887,13 +1899,13 @@
         <v>44</v>
       </c>
       <c r="D31">
-        <v>445</v>
+        <v>-445</v>
       </c>
       <c r="E31">
         <v>1200</v>
       </c>
       <c r="F31">
-        <v>1025</v>
+        <v>425</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -1902,7 +1914,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -1914,9 +1926,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
@@ -1925,13 +1937,13 @@
         <v>45</v>
       </c>
       <c r="D32">
-        <v>445</v>
+        <v>-445</v>
       </c>
       <c r="E32">
         <v>1200</v>
       </c>
       <c r="F32">
-        <v>-175</v>
+        <v>1025</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -1940,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -1952,9 +1964,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
@@ -1963,13 +1975,13 @@
         <v>46</v>
       </c>
       <c r="D33">
-        <v>445</v>
+        <v>-445</v>
       </c>
       <c r="E33">
         <v>1200</v>
       </c>
       <c r="F33">
-        <v>-775</v>
+        <v>-175</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -1978,7 +1990,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -1990,9 +2002,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
@@ -2001,13 +2013,13 @@
         <v>47</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>-445</v>
       </c>
       <c r="E34">
         <v>1200</v>
       </c>
       <c r="F34">
-        <v>-175</v>
+        <v>-775</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -2016,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2028,9 +2040,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="B35" t="s">
         <v>14</v>
@@ -2039,13 +2051,13 @@
         <v>48</v>
       </c>
       <c r="D35">
-        <v>445</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>1200</v>
       </c>
       <c r="F35">
-        <v>425</v>
+        <v>1025</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -2054,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2066,9 +2078,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="B36" t="s">
         <v>14</v>
@@ -2083,7 +2095,7 @@
         <v>1200</v>
       </c>
       <c r="F36">
-        <v>1025</v>
+        <v>-175</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -2092,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2104,9 +2116,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
@@ -2121,7 +2133,7 @@
         <v>1200</v>
       </c>
       <c r="F37">
-        <v>1025</v>
+        <v>425</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -2130,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -2142,9 +2154,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
@@ -2153,13 +2165,13 @@
         <v>51</v>
       </c>
       <c r="D38">
+        <v>300</v>
+      </c>
+      <c r="E38">
         <v>960</v>
       </c>
-      <c r="E38">
-        <v>300</v>
-      </c>
       <c r="F38">
-        <v>-175</v>
+        <v>1025</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -2168,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -2180,9 +2192,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
@@ -2191,10 +2203,10 @@
         <v>52</v>
       </c>
       <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
         <v>960</v>
-      </c>
-      <c r="E39">
-        <v>300</v>
       </c>
       <c r="F39">
         <v>-775</v>
@@ -2206,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -2218,9 +2230,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B40" t="s">
         <v>14</v>
@@ -2229,13 +2241,13 @@
         <v>53</v>
       </c>
       <c r="D40">
+        <v>300</v>
+      </c>
+      <c r="E40">
         <v>960</v>
       </c>
-      <c r="E40">
-        <v>300</v>
-      </c>
       <c r="F40">
-        <v>1025</v>
+        <v>-775</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -2244,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -2256,9 +2268,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B41" t="s">
         <v>14</v>
@@ -2267,10 +2279,10 @@
         <v>54</v>
       </c>
       <c r="D41">
+        <v>300</v>
+      </c>
+      <c r="E41">
         <v>960</v>
-      </c>
-      <c r="E41">
-        <v>300</v>
       </c>
       <c r="F41">
         <v>425</v>
@@ -2282,7 +2294,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -2294,9 +2306,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
@@ -2305,13 +2317,13 @@
         <v>55</v>
       </c>
       <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
         <v>960</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
       <c r="F42">
-        <v>-775</v>
+        <v>425</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -2320,7 +2332,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -2332,9 +2344,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
@@ -2343,10 +2355,10 @@
         <v>56</v>
       </c>
       <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
         <v>960</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
       </c>
       <c r="F43">
         <v>1025</v>
@@ -2358,7 +2370,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -2370,9 +2382,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
@@ -2381,10 +2393,10 @@
         <v>57</v>
       </c>
       <c r="D44">
+        <v>300</v>
+      </c>
+      <c r="E44">
         <v>960</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
       </c>
       <c r="F44">
         <v>-175</v>
@@ -2396,7 +2408,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -2408,9 +2420,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B45" t="s">
         <v>14</v>
@@ -2419,13 +2431,13 @@
         <v>58</v>
       </c>
       <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
         <v>960</v>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
       <c r="F45">
-        <v>425</v>
+        <v>-175</v>
       </c>
       <c r="G45">
         <v>4</v>
@@ -2434,7 +2446,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -2446,9 +2458,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="B46" t="s">
         <v>14</v>
@@ -2457,7 +2469,7 @@
         <v>59</v>
       </c>
       <c r="D46">
-        <v>-900</v>
+        <v>900</v>
       </c>
       <c r="E46">
         <v>1800</v>
@@ -2472,7 +2484,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -2484,9 +2496,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B47" t="s">
         <v>14</v>
@@ -2495,7 +2507,7 @@
         <v>60</v>
       </c>
       <c r="D47">
-        <v>-450</v>
+        <v>900</v>
       </c>
       <c r="E47">
         <v>1800</v>
@@ -2510,7 +2522,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -2522,9 +2534,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="B48" t="s">
         <v>14</v>
@@ -2533,7 +2545,7 @@
         <v>61</v>
       </c>
       <c r="D48">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="E48">
         <v>1800</v>
@@ -2548,7 +2560,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -2560,9 +2572,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B49" t="s">
         <v>14</v>
@@ -2571,7 +2583,7 @@
         <v>62</v>
       </c>
       <c r="D49">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="E49">
         <v>1800</v>
@@ -2586,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -2598,9 +2610,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B50" t="s">
         <v>14</v>
@@ -2609,7 +2621,7 @@
         <v>63</v>
       </c>
       <c r="D50">
-        <v>750</v>
+        <v>-750</v>
       </c>
       <c r="E50">
         <v>1800</v>
@@ -2624,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -2636,9 +2648,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="B51" t="s">
         <v>14</v>
@@ -2647,13 +2659,13 @@
         <v>64</v>
       </c>
       <c r="D51">
-        <v>-900</v>
+        <v>-150</v>
       </c>
       <c r="E51">
         <v>1800</v>
       </c>
       <c r="F51">
-        <v>-25</v>
+        <v>-775</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -2662,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -2674,9 +2686,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B52" t="s">
         <v>14</v>
@@ -2685,7 +2697,7 @@
         <v>65</v>
       </c>
       <c r="D52">
-        <v>750</v>
+        <v>-150</v>
       </c>
       <c r="E52">
         <v>1800</v>
@@ -2700,7 +2712,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -2712,9 +2724,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="B53" t="s">
         <v>14</v>
@@ -2723,13 +2735,13 @@
         <v>66</v>
       </c>
       <c r="D53">
-        <v>-450</v>
+        <v>-750</v>
       </c>
       <c r="E53">
         <v>1800</v>
       </c>
       <c r="F53">
-        <v>-775</v>
+        <v>-25</v>
       </c>
       <c r="G53">
         <v>5</v>
@@ -2738,7 +2750,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -2750,9 +2762,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="B54" t="s">
         <v>14</v>
@@ -2761,10 +2773,10 @@
         <v>67</v>
       </c>
       <c r="D54">
+        <v>300</v>
+      </c>
+      <c r="E54">
         <v>2760</v>
-      </c>
-      <c r="E54">
-        <v>300</v>
       </c>
       <c r="F54">
         <v>450</v>
@@ -2776,7 +2788,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -2788,9 +2800,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="B55" t="s">
         <v>14</v>
@@ -2799,13 +2811,13 @@
         <v>68</v>
       </c>
       <c r="D55">
+        <v>300</v>
+      </c>
+      <c r="E55">
         <v>2760</v>
       </c>
-      <c r="E55">
-        <v>-300</v>
-      </c>
       <c r="F55">
-        <v>1050</v>
+        <v>-750</v>
       </c>
       <c r="G55">
         <v>6</v>
@@ -2814,7 +2826,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -2826,9 +2838,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="B56" t="s">
         <v>14</v>
@@ -2837,13 +2849,13 @@
         <v>69</v>
       </c>
       <c r="D56">
+        <v>300</v>
+      </c>
+      <c r="E56">
         <v>2760</v>
       </c>
-      <c r="E56">
-        <v>-300</v>
-      </c>
       <c r="F56">
-        <v>450</v>
+        <v>1050</v>
       </c>
       <c r="G56">
         <v>6</v>
@@ -2852,7 +2864,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -2864,9 +2876,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="B57" t="s">
         <v>14</v>
@@ -2875,13 +2887,13 @@
         <v>70</v>
       </c>
       <c r="D57">
+        <v>-300</v>
+      </c>
+      <c r="E57">
         <v>2760</v>
       </c>
-      <c r="E57">
-        <v>-300</v>
-      </c>
       <c r="F57">
-        <v>-150</v>
+        <v>-750</v>
       </c>
       <c r="G57">
         <v>6</v>
@@ -2890,7 +2902,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -2902,9 +2914,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="B58" t="s">
         <v>14</v>
@@ -2913,13 +2925,13 @@
         <v>71</v>
       </c>
       <c r="D58">
+        <v>-300</v>
+      </c>
+      <c r="E58">
         <v>2760</v>
       </c>
-      <c r="E58">
-        <v>-300</v>
-      </c>
       <c r="F58">
-        <v>-750</v>
+        <v>-150</v>
       </c>
       <c r="G58">
         <v>6</v>
@@ -2928,7 +2940,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -2940,9 +2952,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="B59" t="s">
         <v>14</v>
@@ -2951,13 +2963,13 @@
         <v>72</v>
       </c>
       <c r="D59">
+        <v>-300</v>
+      </c>
+      <c r="E59">
         <v>2760</v>
       </c>
-      <c r="E59">
-        <v>300</v>
-      </c>
       <c r="F59">
-        <v>1050</v>
+        <v>450</v>
       </c>
       <c r="G59">
         <v>6</v>
@@ -2966,7 +2978,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -2978,9 +2990,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="B60" t="s">
         <v>14</v>
@@ -2989,13 +3001,13 @@
         <v>73</v>
       </c>
       <c r="D60">
+        <v>-300</v>
+      </c>
+      <c r="E60">
         <v>2760</v>
       </c>
-      <c r="E60">
-        <v>300</v>
-      </c>
       <c r="F60">
-        <v>-150</v>
+        <v>1050</v>
       </c>
       <c r="G60">
         <v>6</v>
@@ -3004,7 +3016,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -3016,9 +3028,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="B61" t="s">
         <v>14</v>
@@ -3027,13 +3039,13 @@
         <v>74</v>
       </c>
       <c r="D61">
+        <v>300</v>
+      </c>
+      <c r="E61">
         <v>2760</v>
       </c>
-      <c r="E61">
-        <v>300</v>
-      </c>
       <c r="F61">
-        <v>-750</v>
+        <v>-150</v>
       </c>
       <c r="G61">
         <v>6</v>
@@ -3042,7 +3054,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -3054,9 +3066,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
@@ -3065,7 +3077,7 @@
         <v>75</v>
       </c>
       <c r="D62">
-        <v>2310</v>
+        <v>1410</v>
       </c>
       <c r="E62">
         <v>150</v>
@@ -3080,7 +3092,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -3092,9 +3104,9 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B63" t="s">
         <v>14</v>
@@ -3103,10 +3115,10 @@
         <v>76</v>
       </c>
       <c r="D63">
-        <v>2310</v>
+        <v>720</v>
       </c>
       <c r="E63">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="F63">
         <v>-25</v>
@@ -3118,7 +3130,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -3130,9 +3142,9 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B64" t="s">
         <v>14</v>
@@ -3144,7 +3156,7 @@
         <v>2310</v>
       </c>
       <c r="E64">
-        <v>1200</v>
+        <v>150</v>
       </c>
       <c r="F64">
         <v>-25</v>
@@ -3156,7 +3168,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -3168,9 +3180,9 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B65" t="s">
         <v>14</v>
@@ -3179,10 +3191,10 @@
         <v>78</v>
       </c>
       <c r="D65">
-        <v>120</v>
+        <v>2310</v>
       </c>
       <c r="E65">
-        <v>1050</v>
+        <v>600</v>
       </c>
       <c r="F65">
         <v>-25</v>
@@ -3194,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -3206,9 +3218,9 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B66" t="s">
         <v>14</v>
@@ -3217,10 +3229,10 @@
         <v>79</v>
       </c>
       <c r="D66">
-        <v>720</v>
+        <v>2310</v>
       </c>
       <c r="E66">
-        <v>150</v>
+        <v>1200</v>
       </c>
       <c r="F66">
         <v>-25</v>
@@ -3232,7 +3244,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -3244,9 +3256,9 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
@@ -3258,7 +3270,7 @@
         <v>120</v>
       </c>
       <c r="E67">
-        <v>150</v>
+        <v>1050</v>
       </c>
       <c r="F67">
         <v>-25</v>
@@ -3270,7 +3282,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -3282,9 +3294,9 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B68" t="s">
         <v>14</v>
@@ -3293,7 +3305,7 @@
         <v>81</v>
       </c>
       <c r="D68">
-        <v>1410</v>
+        <v>120</v>
       </c>
       <c r="E68">
         <v>600</v>
@@ -3308,7 +3320,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -3320,9 +3332,9 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B69" t="s">
         <v>14</v>
@@ -3331,7 +3343,7 @@
         <v>82</v>
       </c>
       <c r="D69">
-        <v>1410</v>
+        <v>120</v>
       </c>
       <c r="E69">
         <v>150</v>
@@ -3346,7 +3358,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -3358,9 +3370,9 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B70" t="s">
         <v>14</v>
@@ -3369,10 +3381,10 @@
         <v>83</v>
       </c>
       <c r="D70">
-        <v>120</v>
+        <v>1410</v>
       </c>
       <c r="E70">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="F70">
         <v>-25</v>
@@ -3384,7 +3396,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -3396,9 +3408,9 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B71" t="s">
         <v>14</v>
@@ -3410,7 +3422,7 @@
         <v>1410</v>
       </c>
       <c r="E71">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="F71">
         <v>-25</v>
@@ -3422,7 +3434,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -3434,33 +3446,33 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>36</v>
+        <v>235</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D72">
-        <v>645</v>
+        <v>720</v>
       </c>
       <c r="E72">
-        <v>1112</v>
+        <v>600</v>
       </c>
       <c r="F72">
-        <v>-77</v>
+        <v>-25</v>
       </c>
       <c r="G72" t="s">
         <v>89</v>
       </c>
       <c r="H72">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -3472,33 +3484,33 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>74</v>
+        <v>236</v>
       </c>
       <c r="B73" t="s">
         <v>14</v>
       </c>
       <c r="C73" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D73">
-        <v>1010</v>
+        <v>720</v>
       </c>
       <c r="E73">
-        <v>1535</v>
+        <v>1050</v>
       </c>
       <c r="F73">
-        <v>-77</v>
+        <v>-25</v>
       </c>
       <c r="G73" t="s">
         <v>89</v>
       </c>
       <c r="H73">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -3507,82 +3519,6 @@
         <v>2900</v>
       </c>
       <c r="M73">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="1">
-        <v>235</v>
-      </c>
-      <c r="B74" t="s">
-        <v>14</v>
-      </c>
-      <c r="C74" t="s">
-        <v>87</v>
-      </c>
-      <c r="D74">
-        <v>720</v>
-      </c>
-      <c r="E74">
-        <v>600</v>
-      </c>
-      <c r="F74">
-        <v>-25</v>
-      </c>
-      <c r="G74" t="s">
-        <v>89</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74" t="s">
-        <v>92</v>
-      </c>
-      <c r="J74">
-        <v>1</v>
-      </c>
-      <c r="L74">
-        <v>2900</v>
-      </c>
-      <c r="M74">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="A75" s="1">
-        <v>236</v>
-      </c>
-      <c r="B75" t="s">
-        <v>14</v>
-      </c>
-      <c r="C75" t="s">
-        <v>88</v>
-      </c>
-      <c r="D75">
-        <v>720</v>
-      </c>
-      <c r="E75">
-        <v>1050</v>
-      </c>
-      <c r="F75">
-        <v>-25</v>
-      </c>
-      <c r="G75" t="s">
-        <v>89</v>
-      </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
-      <c r="I75" t="s">
-        <v>92</v>
-      </c>
-      <c r="J75">
-        <v>1</v>
-      </c>
-      <c r="L75">
-        <v>2900</v>
-      </c>
-      <c r="M75">
         <v>1932</v>
       </c>
     </row>
@@ -3592,14 +3528,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3643,18 +3581,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D2">
-        <v>160</v>
+        <v>-160</v>
       </c>
       <c r="E2">
         <v>1202</v>
@@ -3669,7 +3607,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -3681,18 +3619,18 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>139</v>
       </c>
       <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
         <v>93</v>
       </c>
-      <c r="C3" t="s">
-        <v>95</v>
-      </c>
       <c r="D3">
-        <v>714</v>
+        <v>-714</v>
       </c>
       <c r="E3">
         <v>1572</v>
@@ -3707,7 +3645,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -3719,18 +3657,18 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D4">
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="E4">
         <v>1200</v>
@@ -3745,7 +3683,7 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -3757,21 +3695,21 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D5">
+        <v>170</v>
+      </c>
+      <c r="E5">
         <v>960</v>
-      </c>
-      <c r="E5">
-        <v>170</v>
       </c>
       <c r="F5">
         <v>-375</v>
@@ -3783,7 +3721,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -3795,21 +3733,21 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D6">
+        <v>-243</v>
+      </c>
+      <c r="E6">
         <v>937</v>
-      </c>
-      <c r="E6">
-        <v>-243</v>
       </c>
       <c r="F6">
         <v>-800</v>
@@ -3821,7 +3759,7 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -3833,15 +3771,15 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3859,7 +3797,7 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -3871,18 +3809,18 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D8">
-        <v>-800</v>
+        <v>800</v>
       </c>
       <c r="E8">
         <v>1837</v>
@@ -3897,7 +3835,7 @@
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -3909,15 +3847,15 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D9">
         <v>2310</v>
@@ -3935,7 +3873,7 @@
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -3947,24 +3885,24 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>159</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D10">
         <v>645</v>
       </c>
       <c r="E10">
-        <v>1075</v>
+        <v>1112</v>
       </c>
       <c r="F10">
-        <v>-50</v>
+        <v>-77</v>
       </c>
       <c r="G10" t="s">
         <v>89</v>
@@ -3973,7 +3911,7 @@
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -3985,24 +3923,24 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D11">
-        <v>2235</v>
+        <v>1010</v>
       </c>
       <c r="E11">
-        <v>1650</v>
+        <v>1535</v>
       </c>
       <c r="F11">
-        <v>100</v>
+        <v>-77</v>
       </c>
       <c r="G11" t="s">
         <v>89</v>
@@ -4011,7 +3949,7 @@
         <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -4023,24 +3961,24 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D12">
-        <v>2385</v>
+        <v>645</v>
       </c>
       <c r="E12">
-        <v>1710</v>
+        <v>1075</v>
       </c>
       <c r="F12">
-        <v>175</v>
+        <v>-50</v>
       </c>
       <c r="G12" t="s">
         <v>89</v>
@@ -4049,7 +3987,7 @@
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -4061,24 +3999,24 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D13">
-        <v>2660</v>
+        <v>2235</v>
       </c>
       <c r="E13">
-        <v>435</v>
+        <v>1650</v>
       </c>
       <c r="F13">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="G13" t="s">
         <v>89</v>
@@ -4087,7 +4025,7 @@
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -4099,24 +4037,24 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D14">
-        <v>860</v>
+        <v>2385</v>
       </c>
       <c r="E14">
-        <v>1299</v>
+        <v>1710</v>
       </c>
       <c r="F14">
-        <v>2468</v>
+        <v>175</v>
       </c>
       <c r="G14" t="s">
         <v>89</v>
@@ -4125,7 +4063,7 @@
         <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -4137,24 +4075,24 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D15">
-        <v>1060</v>
+        <v>2660</v>
       </c>
       <c r="E15">
-        <v>1580</v>
+        <v>435</v>
       </c>
       <c r="F15">
-        <v>275</v>
+        <v>210</v>
       </c>
       <c r="G15" t="s">
         <v>89</v>
@@ -4163,7 +4101,7 @@
         <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -4175,24 +4113,24 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D16">
-        <v>2310</v>
+        <v>860</v>
       </c>
       <c r="E16">
-        <v>1740</v>
+        <v>1299</v>
       </c>
       <c r="F16">
-        <v>825</v>
+        <v>2468</v>
       </c>
       <c r="G16" t="s">
         <v>89</v>
@@ -4201,7 +4139,7 @@
         <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -4213,24 +4151,24 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D17">
-        <v>1320</v>
+        <v>1060</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1580</v>
       </c>
       <c r="F17">
-        <v>1175</v>
+        <v>275</v>
       </c>
       <c r="G17" t="s">
         <v>89</v>
@@ -4239,7 +4177,7 @@
         <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -4251,21 +4189,21 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D18">
-        <v>1410</v>
+        <v>2310</v>
       </c>
       <c r="E18">
-        <v>1692</v>
+        <v>1740</v>
       </c>
       <c r="F18">
         <v>825</v>
@@ -4277,7 +4215,7 @@
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -4289,24 +4227,24 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D19">
-        <v>1010</v>
+        <v>1320</v>
       </c>
       <c r="E19">
-        <v>1535</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>-25</v>
+        <v>1175</v>
       </c>
       <c r="G19" t="s">
         <v>89</v>
@@ -4315,7 +4253,7 @@
         <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -4327,24 +4265,24 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D20">
-        <v>1285</v>
+        <v>1410</v>
       </c>
       <c r="E20">
-        <v>1592</v>
+        <v>1692</v>
       </c>
       <c r="F20">
-        <v>-24</v>
+        <v>825</v>
       </c>
       <c r="G20" t="s">
         <v>89</v>
@@ -4353,7 +4291,7 @@
         <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -4362,6 +4300,82 @@
         <v>2900</v>
       </c>
       <c r="M20">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>154</v>
+      </c>
+      <c r="B21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21">
+        <v>1010</v>
+      </c>
+      <c r="E21">
+        <v>1535</v>
+      </c>
+      <c r="F21">
+        <v>-25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21">
+        <v>6</v>
+      </c>
+      <c r="I21" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>2900</v>
+      </c>
+      <c r="M21">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>158</v>
+      </c>
+      <c r="B22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22">
+        <v>1285</v>
+      </c>
+      <c r="E22">
+        <v>1592</v>
+      </c>
+      <c r="F22">
+        <v>-24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22" t="s">
+        <v>90</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>2900</v>
+      </c>
+      <c r="M22">
         <v>1932</v>
       </c>
     </row>
@@ -4371,14 +4385,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4422,15 +4436,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D2">
         <v>2560</v>
@@ -4448,7 +4462,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -4460,15 +4474,15 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>94</v>
       </c>
       <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
         <v>113</v>
-      </c>
-      <c r="C3" t="s">
-        <v>115</v>
       </c>
       <c r="D3">
         <v>2200</v>
@@ -4486,7 +4500,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -4498,15 +4512,15 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D4">
         <v>2100</v>
@@ -4524,7 +4538,7 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J4">
         <v>1</v>

--- a/Greyform/Python_Application/exporteddatassss(with TMP)(draft)(tetra).xlsx
+++ b/Greyform/Python_Application/exporteddatassss(with TMP)(draft)(tetra).xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MokZhiZhuan\OneDrive - WINSYS TECHNOLOGY PTE LTD\Documents\GitHub\GreyForm_UI\Greyform\Python_Application\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2817B1E0-5275-40AA-A9AF-47202A32D606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="15" windowWidth="23235" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Stage 2" sheetId="1" r:id="rId1"/>
     <sheet name="Stage 3" sheetId="2" r:id="rId2"/>
     <sheet name="Obstacles" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="119">
   <si>
     <t>Marking type</t>
   </si>
@@ -69,76 +63,82 @@
     <t>Tile</t>
   </si>
   <si>
+    <t>TMP1S2d2:TMP1S2d2:1155209</t>
+  </si>
+  <si>
+    <t>TMP1S2a2:TMP1S2a2:1155194</t>
+  </si>
+  <si>
+    <t>TMP1S2a3:TMP1S2a3:1155193</t>
+  </si>
+  <si>
+    <t>TMP1S2a4:TMP1S2a4:1155192</t>
+  </si>
+  <si>
+    <t>TMP1S2b3:TMP1S2b3:1155198</t>
+  </si>
+  <si>
+    <t>TMP1S2b2:TMP1S2b2:1155199</t>
+  </si>
+  <si>
+    <t>TMP1S2b1:TMP1S2b1:1155200</t>
+  </si>
+  <si>
+    <t>TMP1S2c4:TMP1S2c4:1155202</t>
+  </si>
+  <si>
+    <t>TMP1S2c3:TMP1S2c3:1155203</t>
+  </si>
+  <si>
+    <t>TMP1S2c2:TMP1S2c2:1155204</t>
+  </si>
+  <si>
+    <t>TMP1S2c1:TMP1S2c1:1155205</t>
+  </si>
+  <si>
+    <t>TMP1S2d4:TMP1S2d4:1155207</t>
+  </si>
+  <si>
+    <t>TMP1S2d3:TMP1S2d3:1155208</t>
+  </si>
+  <si>
+    <t>TMP1S2a1:TMP1S2a1:1155195</t>
+  </si>
+  <si>
+    <t>TMP1S2b4:TMP1S2b4:1155197</t>
+  </si>
+  <si>
+    <t>TMP1S2e4:TMP1S2e4:1155212</t>
+  </si>
+  <si>
+    <t>TMP1S2e3:TMP1S2e3:1155213</t>
+  </si>
+  <si>
+    <t>TMP1S2e2:TMP1S2e2:1155214</t>
+  </si>
+  <si>
+    <t>TMP1S2e1:TMP1S2e1:1155215</t>
+  </si>
+  <si>
+    <t>TMP1S2f4:TMP1S2f4:1155217</t>
+  </si>
+  <si>
+    <t>TMP1S2f3:TMP1S2f3:1155218</t>
+  </si>
+  <si>
+    <t>TMP1S2f2:TMP1S2f2:1155219</t>
+  </si>
+  <si>
     <t>TMP1S2f1:TMP1S2f1:1155220</t>
   </si>
   <si>
-    <t>TMP1S2a2:TMP1S2a2:1155194</t>
-  </si>
-  <si>
-    <t>TMP1S2a1:TMP1S2a1:1155195</t>
-  </si>
-  <si>
-    <t>TMP1S2b4:TMP1S2b4:1155197</t>
-  </si>
-  <si>
-    <t>TMP1S2b3:TMP1S2b3:1155198</t>
-  </si>
-  <si>
-    <t>TMP1S2b2:TMP1S2b2:1155199</t>
-  </si>
-  <si>
-    <t>TMP1S2b1:TMP1S2b1:1155200</t>
-  </si>
-  <si>
-    <t>TMP1S2c4:TMP1S2c4:1155202</t>
-  </si>
-  <si>
-    <t>TMP1S2c3:TMP1S2c3:1155203</t>
-  </si>
-  <si>
-    <t>TMP1S2c2:TMP1S2c2:1155204</t>
-  </si>
-  <si>
-    <t>TMP1S2a3:TMP1S2a3:1155193</t>
-  </si>
-  <si>
-    <t>TMP1S2c1:TMP1S2c1:1155205</t>
-  </si>
-  <si>
-    <t>TMP1S2d3:TMP1S2d3:1155208</t>
-  </si>
-  <si>
     <t>TMP1S2d1:TMP1S2d1:1155210</t>
   </si>
   <si>
-    <t>TMP1S2e4:TMP1S2e4:1155212</t>
-  </si>
-  <si>
-    <t>TMP1S2e3:TMP1S2e3:1155213</t>
-  </si>
-  <si>
-    <t>TMP1S2e2:TMP1S2e2:1155214</t>
-  </si>
-  <si>
-    <t>TMP1S2e1:TMP1S2e1:1155215</t>
-  </si>
-  <si>
-    <t>TMP1S2f4:TMP1S2f4:1155217</t>
-  </si>
-  <si>
-    <t>TMP1S2f3:TMP1S2f3:1155218</t>
-  </si>
-  <si>
-    <t>TMP1S2f2:TMP1S2f2:1155219</t>
-  </si>
-  <si>
-    <t>TMP1S2d4:TMP1S2d4:1155207</t>
-  </si>
-  <si>
-    <t>TMP1S2a4:TMP1S2a4:1155192</t>
-  </si>
-  <si>
-    <t>TMP1S2d2:TMP1S2d2:1155209</t>
+    <t>TMP2S2c2:TMP2S2c2:1156962</t>
+  </si>
+  <si>
+    <t>TMP2S2b1:TMP2S2b1:1155223</t>
   </si>
   <si>
     <t>TMP2S2a2:TMP2S2a2:1155224</t>
@@ -147,106 +147,136 @@
     <t>TMP2S2a1:TMP2S2a1:1155225</t>
   </si>
   <si>
-    <t>TMP2S2b1:TMP2S2b1:1155223</t>
-  </si>
-  <si>
     <t>TMP2S2b2:TMP2S2b2:1155222</t>
   </si>
   <si>
+    <t>TMP2S2c1:TMP2S2c1:1156963</t>
+  </si>
+  <si>
+    <t>TMP3S2b2:TMP3S2b2:1155230</t>
+  </si>
+  <si>
+    <t>TMP3S2b3:TMP3S2b3:1155228</t>
+  </si>
+  <si>
+    <t>TMP3S2b1:TMP3S2b1:1155229</t>
+  </si>
+  <si>
     <t>TMP3S2a4:TMP3S2a4:1155231</t>
   </si>
   <si>
-    <t>TMP3S2b2:TMP3S2b2:1155230</t>
-  </si>
-  <si>
-    <t>TMP3S2b1:TMP3S2b1:1155229</t>
-  </si>
-  <si>
-    <t>TMP3S2b3:TMP3S2b3:1155228</t>
+    <t>TMP3S2a3:TMP3S2a3:1155232</t>
+  </si>
+  <si>
+    <t>TMP3S2a2:TMP3S2a2:1155233</t>
+  </si>
+  <si>
+    <t>TMP3S2a1:TMP3S2a1:1155234</t>
   </si>
   <si>
     <t>TMP3S2b4:TMP3S2b4:1155227</t>
   </si>
   <si>
-    <t>TMP3S2a1:TMP3S2a1:1155234</t>
-  </si>
-  <si>
-    <t>TMP3S2a3:TMP3S2a3:1155232</t>
-  </si>
-  <si>
-    <t>TMP3S2a2:TMP3S2a2:1155233</t>
+    <t>TMP4S2b4:TMP4S2b4:1155236</t>
+  </si>
+  <si>
+    <t>TMP4S2b3:TMP4S2b3:1155238</t>
+  </si>
+  <si>
+    <t>TMP4S2b1:TMP4S2b1:1155240</t>
+  </si>
+  <si>
+    <t>TMP4S2a3:TMP4S2a3:1155241</t>
+  </si>
+  <si>
+    <t>TMP4S2a2:TMP4S2a2:1155242</t>
   </si>
   <si>
     <t>TMP4S2a1:TMP4S2a1:1155243</t>
   </si>
   <si>
-    <t>TMP4S2b4:TMP4S2b4:1155236</t>
-  </si>
-  <si>
     <t>TMP4S2a4:TMP4S2a4:1155237</t>
   </si>
   <si>
-    <t>TMP4S2a2:TMP4S2a2:1155242</t>
-  </si>
-  <si>
     <t>TMP4S2b2:TMP4S2b2:1155239</t>
   </si>
   <si>
-    <t>TMP4S2b1:TMP4S2b1:1155240</t>
-  </si>
-  <si>
-    <t>TMP4S2a3:TMP4S2a3:1155241</t>
-  </si>
-  <si>
-    <t>TMP4S2b3:TMP4S2b3:1155238</t>
+    <t>TMP5S2a1:TMP5S2a1:1155252</t>
+  </si>
+  <si>
+    <t>TMP5S2b1:TMP5S2b1:1155251</t>
+  </si>
+  <si>
+    <t>TMP5S2b2:TMP5S2b2:1155250</t>
+  </si>
+  <si>
+    <t>TMP5S2a2:TMP5S2a2:1155249</t>
+  </si>
+  <si>
+    <t>TMP5S2b3:TMP5S2b3:1155248</t>
+  </si>
+  <si>
+    <t>TMP5S2a3:TMP5S2a3:1155247</t>
+  </si>
+  <si>
+    <t>TMP5S2b4:TMP5S2b4:1155246</t>
   </si>
   <si>
     <t>TMP5S2a4:TMP5S2a4:1155245</t>
   </si>
   <si>
-    <t>TMP5S2b4:TMP5S2b4:1155246</t>
-  </si>
-  <si>
-    <t>TMP5S2a3:TMP5S2a3:1155247</t>
-  </si>
-  <si>
-    <t>TMP5S2b3:TMP5S2b3:1155248</t>
-  </si>
-  <si>
-    <t>TMP5S2a1:TMP5S2a1:1155252</t>
-  </si>
-  <si>
-    <t>TMP5S2a2:TMP5S2a2:1155249</t>
-  </si>
-  <si>
-    <t>TMP5S2b2:TMP5S2b2:1155250</t>
-  </si>
-  <si>
-    <t>TMP5S2b1:TMP5S2b1:1155251</t>
+    <t>TMP6S2b3:TMP6S2b3:1155260</t>
   </si>
   <si>
     <t>TMP6S2a2:TMP6S2a2:1155256</t>
   </si>
   <si>
+    <t>TMP6S2a4:TMP6S2a4:1155255</t>
+  </si>
+  <si>
     <t>TMP6S2a3:TMP6S2a3:1155254</t>
   </si>
   <si>
+    <t>TMP6S2b4:TMP6S2b4:1155259</t>
+  </si>
+  <si>
     <t>TMP6S2a1:TMP6S2a1:1155257</t>
   </si>
   <si>
-    <t>TMP6S2b4:TMP6S2b4:1155259</t>
-  </si>
-  <si>
-    <t>TMP6S2b3:TMP6S2b3:1155260</t>
+    <t>TMP6S2b1:TMP6S2b1:1155262</t>
   </si>
   <si>
     <t>TMP6S2b2:TMP6S2b2:1155261</t>
   </si>
   <si>
-    <t>TMP6S2b1:TMP6S2b1:1155262</t>
-  </si>
-  <si>
-    <t>TMP6S2a4:TMP6S2a4:1155255</t>
+    <t>TMP7S2c2:TMP7S2c2:1155275</t>
+  </si>
+  <si>
+    <t>TMP7S2c1:TMP7S2c1:1155276</t>
+  </si>
+  <si>
+    <t>TMP7S2d3:TMP7S2d3:1155273</t>
+  </si>
+  <si>
+    <t>TMP7S2d2:TMP7S2d2:1155272</t>
+  </si>
+  <si>
+    <t>TMP7S2d1:TMP7S2d1:1155271</t>
+  </si>
+  <si>
+    <t>TMP7S2a1:TMP7S2a1:1155269</t>
+  </si>
+  <si>
+    <t>TMP7S2a2:TMP7S2a2:1155268</t>
+  </si>
+  <si>
+    <t>TMP7S2a3:TMP7S2a3:1155267</t>
+  </si>
+  <si>
+    <t>TMP7S2b1:TMP7S2b1:1155266</t>
+  </si>
+  <si>
+    <t>TMP7S2b2:TMP7S2b2:1155265</t>
   </si>
   <si>
     <t>TMP7S2b3:TMP7S2b3:1155264</t>
@@ -255,45 +285,21 @@
     <t>TMP7S2c3:TMP7S2c3:1155274</t>
   </si>
   <si>
-    <t>TMP7S2a3:TMP7S2a3:1155267</t>
-  </si>
-  <si>
-    <t>TMP7S2a2:TMP7S2a2:1155268</t>
-  </si>
-  <si>
-    <t>TMP7S2a1:TMP7S2a1:1155269</t>
-  </si>
-  <si>
-    <t>TMP7S2d1:TMP7S2d1:1155271</t>
-  </si>
-  <si>
-    <t>TMP7S2d2:TMP7S2d2:1155272</t>
-  </si>
-  <si>
-    <t>TMP7S2d3:TMP7S2d3:1155273</t>
-  </si>
-  <si>
-    <t>TMP7S2b1:TMP7S2b1:1155266</t>
-  </si>
-  <si>
-    <t>TMP7S2b2:TMP7S2b2:1155265</t>
+    <t>BSS.Shallow_FW:BSS.Shallow_FW:1038276</t>
   </si>
   <si>
     <t>BSS.Shallow_FT:150 x 150MM:1018227</t>
   </si>
   <si>
-    <t>BSS.Shallow_FW:BSS.Shallow_FW:1038276</t>
-  </si>
-  <si>
-    <t>TMP7S2c2:TMP7S2c2:1155275</t>
-  </si>
-  <si>
-    <t>TMP7S2c1:TMP7S2c1:1155276</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>blank</t>
   </si>
   <si>
@@ -303,58 +309,58 @@
     <t>BSS.HAND SHOWER SET.MASTER BATH:BSS.HAND SHOWER SET.MASTER BATH:1091130</t>
   </si>
   <si>
+    <t>BSS.GESSI.SM.49079:29046000:1090989</t>
+  </si>
+  <si>
     <t>BSS.TECE.CONCEALED CISTERN.9370224:BSS.TECE.CONCEALED CISTERN.9370224:1090923</t>
   </si>
   <si>
-    <t>BSS.GESSI.SM.49079:29046000:1090989</t>
+    <t>M_Coupling - Threaded - MI - Class 150:Standard:1018144</t>
   </si>
   <si>
     <t>BSS.GOMGO.PH.GG-6106:Chrome 000:1090992</t>
   </si>
   <si>
-    <t>M_Coupling - Threaded - MI - Class 150:Standard:1018144</t>
+    <t>BSS.Vesbo Tee Fiting:Standard:1035758</t>
   </si>
   <si>
     <t>BSS.MIRROR CABINET.C5-MASTER BATH:BSS.MIRROR CABINET.C5-MASTER BATH:1090945</t>
   </si>
   <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1035758</t>
+    <t>BSS.FLOOR DRAIN_150:BSS.FLOOR DRAIN_150:1091065</t>
+  </si>
+  <si>
+    <t>BSS.Vesbo Tee Fiting:Standard:1032950</t>
+  </si>
+  <si>
+    <t>BSS.Vesbo Tee Fiting:Standard:1033022</t>
+  </si>
+  <si>
+    <t>BSS.Vesbo Tee Fiting:Standard:1042747</t>
+  </si>
+  <si>
+    <t>M_Coupling - Threaded - MI - Class 150:Standard:1044021</t>
+  </si>
+  <si>
+    <t>BSS.MONIC.BIB TAP.T-4L:BIB TAP:1090961</t>
+  </si>
+  <si>
+    <t>BSS.GESSI,BM.49001:Default:1090988</t>
+  </si>
+  <si>
+    <t>BSS.GOMGO.TR.GG-6108-600:Chrome 000:1090991</t>
+  </si>
+  <si>
+    <t>BSS.TECE.AP.9240402:Flush Plate:1091024</t>
+  </si>
+  <si>
+    <t>BSS.FLOOR DRAIN_100:BSS.FLOOR DRAIN_100:1091045</t>
+  </si>
+  <si>
+    <t>BSS.LAUFEN.WC.820714:820959000 White:1091064</t>
   </si>
   <si>
     <t>BSS.Bottle Trap:BSS.Bottle trap:1018126</t>
-  </si>
-  <si>
-    <t>BSS.FLOOR DRAIN_150:BSS.FLOOR DRAIN_150:1091065</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1032950</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1033022</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1042747</t>
-  </si>
-  <si>
-    <t>M_Coupling - Threaded - MI - Class 150:Standard:1044021</t>
-  </si>
-  <si>
-    <t>BSS.MONIC.BIB TAP.T-4L:BIB TAP:1090961</t>
-  </si>
-  <si>
-    <t>BSS.GESSI,BM.49001:Default:1090988</t>
-  </si>
-  <si>
-    <t>BSS.GOMGO.TR.GG-6108-600:Chrome 000:1090991</t>
-  </si>
-  <si>
-    <t>BSS.TECE.AP.9240402:Flush Plate:1091024</t>
-  </si>
-  <si>
-    <t>BSS.FLOOR DRAIN_100:BSS.FLOOR DRAIN_100:1091045</t>
-  </si>
-  <si>
-    <t>BSS.LAUFEN.WC.820714:820959000 White:1091064</t>
   </si>
   <si>
     <t>Obstacles</t>
@@ -372,8 +378,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,21 +442,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -488,7 +486,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -522,7 +520,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -557,10 +554,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -733,16 +729,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:XFD73"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -786,9 +780,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -797,13 +791,13 @@
         <v>15</v>
       </c>
       <c r="D2">
-        <v>-935</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="F2">
-        <v>1025</v>
+        <v>425</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -812,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -824,7 +818,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>167</v>
       </c>
@@ -835,10 +829,10 @@
         <v>16</v>
       </c>
       <c r="D3">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>-1350</v>
       </c>
       <c r="F3">
         <v>425</v>
@@ -850,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -862,9 +856,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -873,13 +867,13 @@
         <v>17</v>
       </c>
       <c r="D4">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>-1350</v>
       </c>
       <c r="F4">
-        <v>1025</v>
+        <v>-175</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -888,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -900,9 +894,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -911,10 +905,10 @@
         <v>18</v>
       </c>
       <c r="D5">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>-1350</v>
       </c>
       <c r="F5">
         <v>-775</v>
@@ -926,7 +920,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -938,7 +932,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>170</v>
       </c>
@@ -949,10 +943,10 @@
         <v>19</v>
       </c>
       <c r="D6">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-350</v>
       </c>
       <c r="F6">
         <v>-175</v>
@@ -964,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -976,7 +970,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>171</v>
       </c>
@@ -987,10 +981,10 @@
         <v>20</v>
       </c>
       <c r="D7">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>-350</v>
       </c>
       <c r="F7">
         <v>425</v>
@@ -1002,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1014,7 +1008,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>172</v>
       </c>
@@ -1025,10 +1019,10 @@
         <v>21</v>
       </c>
       <c r="D8">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>-350</v>
       </c>
       <c r="F8">
         <v>1025</v>
@@ -1040,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1052,7 +1046,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>173</v>
       </c>
@@ -1063,10 +1057,10 @@
         <v>22</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F9">
         <v>-775</v>
@@ -1078,7 +1072,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1090,7 +1084,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>174</v>
       </c>
@@ -1101,10 +1095,10 @@
         <v>23</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F10">
         <v>-175</v>
@@ -1116,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1128,7 +1122,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>175</v>
       </c>
@@ -1139,10 +1133,10 @@
         <v>24</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F11">
         <v>425</v>
@@ -1154,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1166,9 +1160,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -1177,13 +1171,13 @@
         <v>25</v>
       </c>
       <c r="D12">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F12">
-        <v>-175</v>
+        <v>1025</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1192,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1204,9 +1198,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1215,13 +1209,13 @@
         <v>26</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="F13">
-        <v>1025</v>
+        <v>-775</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1230,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1242,7 +1236,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>178</v>
       </c>
@@ -1253,10 +1247,10 @@
         <v>27</v>
       </c>
       <c r="D14">
-        <v>-470</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="F14">
         <v>-175</v>
@@ -1268,7 +1262,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1280,9 +1274,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -1291,10 +1285,10 @@
         <v>28</v>
       </c>
       <c r="D15">
-        <v>-470</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>-1350</v>
       </c>
       <c r="F15">
         <v>1025</v>
@@ -1306,7 +1300,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1318,9 +1312,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -1329,13 +1323,13 @@
         <v>29</v>
       </c>
       <c r="D16">
-        <v>-490</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>-350</v>
       </c>
       <c r="F16">
-        <v>1025</v>
+        <v>-775</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1344,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1356,9 +1350,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -1367,13 +1361,13 @@
         <v>30</v>
       </c>
       <c r="D17">
-        <v>-490</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="F17">
-        <v>-175</v>
+        <v>1025</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1382,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1394,9 +1388,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -1405,13 +1399,13 @@
         <v>31</v>
       </c>
       <c r="D18">
-        <v>-490</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="F18">
-        <v>425</v>
+        <v>-175</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1420,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1432,9 +1426,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -1443,13 +1437,13 @@
         <v>32</v>
       </c>
       <c r="D19">
-        <v>-490</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="F19">
-        <v>1025</v>
+        <v>425</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1458,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1470,9 +1464,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -1481,13 +1475,13 @@
         <v>33</v>
       </c>
       <c r="D20">
-        <v>-935</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="F20">
-        <v>-775</v>
+        <v>1025</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1496,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1508,9 +1502,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
@@ -1519,13 +1513,13 @@
         <v>34</v>
       </c>
       <c r="D21">
-        <v>-935</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>935</v>
       </c>
       <c r="F21">
-        <v>-175</v>
+        <v>-775</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1534,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1546,9 +1540,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
@@ -1557,13 +1551,13 @@
         <v>35</v>
       </c>
       <c r="D22">
-        <v>-935</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>935</v>
       </c>
       <c r="F22">
-        <v>425</v>
+        <v>-175</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1572,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1584,9 +1578,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
@@ -1595,13 +1589,13 @@
         <v>36</v>
       </c>
       <c r="D23">
-        <v>-470</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>935</v>
       </c>
       <c r="F23">
-        <v>-775</v>
+        <v>425</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1610,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -1622,9 +1616,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -1633,13 +1627,13 @@
         <v>37</v>
       </c>
       <c r="D24">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>935</v>
       </c>
       <c r="F24">
-        <v>-775</v>
+        <v>1025</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1648,7 +1642,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -1660,9 +1654,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -1671,13 +1665,13 @@
         <v>38</v>
       </c>
       <c r="D25">
-        <v>-470</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="F25">
-        <v>425</v>
+        <v>1025</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1686,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1698,9 +1692,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
@@ -1709,13 +1703,13 @@
         <v>39</v>
       </c>
       <c r="D26">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F26">
-        <v>-775</v>
+        <v>425</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -1724,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -1736,9 +1730,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
@@ -1747,10 +1741,10 @@
         <v>40</v>
       </c>
       <c r="D27">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F27">
         <v>-175</v>
@@ -1762,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -1774,9 +1768,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -1785,13 +1779,13 @@
         <v>41</v>
       </c>
       <c r="D28">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F28">
-        <v>-175</v>
+        <v>-775</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1800,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -1812,9 +1806,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
@@ -1823,13 +1817,13 @@
         <v>42</v>
       </c>
       <c r="D29">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F29">
-        <v>-775</v>
+        <v>-175</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -1838,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -1850,9 +1844,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
@@ -1864,33 +1858,33 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="F30">
-        <v>1025</v>
+        <v>-775</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
       <c r="L30">
-        <v>960</v>
+        <v>1340</v>
       </c>
       <c r="M30">
         <v>2655</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
@@ -1899,36 +1893,36 @@
         <v>44</v>
       </c>
       <c r="D31">
-        <v>-445</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>1200</v>
+        <v>150</v>
       </c>
       <c r="F31">
-        <v>425</v>
+        <v>1025</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="L31">
-        <v>960</v>
+        <v>1340</v>
       </c>
       <c r="M31">
         <v>2655</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
@@ -1937,13 +1931,13 @@
         <v>45</v>
       </c>
       <c r="D32">
-        <v>-445</v>
+        <v>1200</v>
       </c>
       <c r="E32">
-        <v>1200</v>
+        <v>445</v>
       </c>
       <c r="F32">
-        <v>1025</v>
+        <v>425</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -1952,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -1964,7 +1958,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>194</v>
       </c>
@@ -1975,10 +1969,10 @@
         <v>46</v>
       </c>
       <c r="D33">
-        <v>-445</v>
+        <v>1200</v>
       </c>
       <c r="E33">
-        <v>1200</v>
+        <v>445</v>
       </c>
       <c r="F33">
         <v>-175</v>
@@ -1990,7 +1984,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -2002,9 +1996,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
@@ -2013,13 +2007,13 @@
         <v>47</v>
       </c>
       <c r="D34">
-        <v>-445</v>
+        <v>1200</v>
       </c>
       <c r="E34">
-        <v>1200</v>
+        <v>445</v>
       </c>
       <c r="F34">
-        <v>-775</v>
+        <v>1025</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -2028,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2040,9 +2034,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B35" t="s">
         <v>14</v>
@@ -2051,10 +2045,10 @@
         <v>48</v>
       </c>
       <c r="D35">
+        <v>1200</v>
+      </c>
+      <c r="E35">
         <v>0</v>
-      </c>
-      <c r="E35">
-        <v>1200</v>
       </c>
       <c r="F35">
         <v>1025</v>
@@ -2066,7 +2060,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2078,7 +2072,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>198</v>
       </c>
@@ -2089,10 +2083,10 @@
         <v>49</v>
       </c>
       <c r="D36">
+        <v>1200</v>
+      </c>
+      <c r="E36">
         <v>0</v>
-      </c>
-      <c r="E36">
-        <v>1200</v>
       </c>
       <c r="F36">
         <v>-175</v>
@@ -2104,7 +2098,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2116,7 +2110,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>199</v>
       </c>
@@ -2127,10 +2121,10 @@
         <v>50</v>
       </c>
       <c r="D37">
+        <v>1200</v>
+      </c>
+      <c r="E37">
         <v>0</v>
-      </c>
-      <c r="E37">
-        <v>1200</v>
       </c>
       <c r="F37">
         <v>425</v>
@@ -2142,7 +2136,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -2154,9 +2148,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
@@ -2165,36 +2159,36 @@
         <v>51</v>
       </c>
       <c r="D38">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="E38">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>1025</v>
       </c>
       <c r="G38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J38">
         <v>1</v>
       </c>
       <c r="L38">
-        <v>600</v>
+        <v>960</v>
       </c>
       <c r="M38">
         <v>2655</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
@@ -2203,36 +2197,36 @@
         <v>52</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E39">
-        <v>960</v>
+        <v>445</v>
       </c>
       <c r="F39">
         <v>-775</v>
       </c>
       <c r="G39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
       <c r="L39">
-        <v>600</v>
+        <v>960</v>
       </c>
       <c r="M39">
         <v>2655</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B40" t="s">
         <v>14</v>
@@ -2241,10 +2235,10 @@
         <v>53</v>
       </c>
       <c r="D40">
-        <v>300</v>
+        <v>960</v>
       </c>
       <c r="E40">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>-775</v>
@@ -2256,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -2268,9 +2262,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B41" t="s">
         <v>14</v>
@@ -2279,13 +2273,13 @@
         <v>54</v>
       </c>
       <c r="D41">
-        <v>300</v>
+        <v>960</v>
       </c>
       <c r="E41">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>425</v>
+        <v>-175</v>
       </c>
       <c r="G41">
         <v>4</v>
@@ -2294,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -2306,9 +2300,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
@@ -2317,13 +2311,13 @@
         <v>55</v>
       </c>
       <c r="D42">
+        <v>960</v>
+      </c>
+      <c r="E42">
         <v>0</v>
       </c>
-      <c r="E42">
-        <v>960</v>
-      </c>
       <c r="F42">
-        <v>425</v>
+        <v>1025</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -2332,7 +2326,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -2344,9 +2338,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
@@ -2355,13 +2349,13 @@
         <v>56</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="E43">
-        <v>960</v>
+        <v>-300</v>
       </c>
       <c r="F43">
-        <v>1025</v>
+        <v>-175</v>
       </c>
       <c r="G43">
         <v>4</v>
@@ -2370,7 +2364,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -2382,9 +2376,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
@@ -2393,13 +2387,13 @@
         <v>57</v>
       </c>
       <c r="D44">
-        <v>300</v>
+        <v>960</v>
       </c>
       <c r="E44">
-        <v>960</v>
+        <v>-300</v>
       </c>
       <c r="F44">
-        <v>-175</v>
+        <v>425</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -2408,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -2420,9 +2414,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13">
       <c r="A45" s="1">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B45" t="s">
         <v>14</v>
@@ -2431,13 +2425,13 @@
         <v>58</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="E45">
-        <v>960</v>
+        <v>-300</v>
       </c>
       <c r="F45">
-        <v>-175</v>
+        <v>1025</v>
       </c>
       <c r="G45">
         <v>4</v>
@@ -2446,7 +2440,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -2458,9 +2452,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13">
       <c r="A46" s="1">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B46" t="s">
         <v>14</v>
@@ -2469,36 +2463,36 @@
         <v>59</v>
       </c>
       <c r="D46">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="E46">
-        <v>1800</v>
+        <v>-300</v>
       </c>
       <c r="F46">
         <v>-775</v>
       </c>
       <c r="G46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J46">
         <v>1</v>
       </c>
       <c r="L46">
-        <v>1940</v>
+        <v>600</v>
       </c>
       <c r="M46">
         <v>2655</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13">
       <c r="A47" s="1">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B47" t="s">
         <v>14</v>
@@ -2507,36 +2501,36 @@
         <v>60</v>
       </c>
       <c r="D47">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="E47">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>-25</v>
+        <v>425</v>
       </c>
       <c r="G47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J47">
         <v>1</v>
       </c>
       <c r="L47">
-        <v>1940</v>
+        <v>600</v>
       </c>
       <c r="M47">
         <v>2655</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13">
       <c r="A48" s="1">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B48" t="s">
         <v>14</v>
@@ -2545,10 +2539,10 @@
         <v>61</v>
       </c>
       <c r="D48">
-        <v>450</v>
+        <v>1800</v>
       </c>
       <c r="E48">
-        <v>1800</v>
+        <v>750</v>
       </c>
       <c r="F48">
         <v>-775</v>
@@ -2560,7 +2554,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -2572,9 +2566,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49" s="1">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B49" t="s">
         <v>14</v>
@@ -2583,10 +2577,10 @@
         <v>62</v>
       </c>
       <c r="D49">
-        <v>450</v>
+        <v>1800</v>
       </c>
       <c r="E49">
-        <v>1800</v>
+        <v>750</v>
       </c>
       <c r="F49">
         <v>-25</v>
@@ -2598,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -2610,9 +2604,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50" s="1">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B50" t="s">
         <v>14</v>
@@ -2621,13 +2615,13 @@
         <v>63</v>
       </c>
       <c r="D50">
-        <v>-750</v>
+        <v>1800</v>
       </c>
       <c r="E50">
-        <v>1800</v>
+        <v>150</v>
       </c>
       <c r="F50">
-        <v>-775</v>
+        <v>-25</v>
       </c>
       <c r="G50">
         <v>5</v>
@@ -2636,7 +2630,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -2648,7 +2642,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="A51" s="1">
         <v>213</v>
       </c>
@@ -2659,10 +2653,10 @@
         <v>64</v>
       </c>
       <c r="D51">
-        <v>-150</v>
+        <v>1800</v>
       </c>
       <c r="E51">
-        <v>1800</v>
+        <v>150</v>
       </c>
       <c r="F51">
         <v>-775</v>
@@ -2674,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -2686,9 +2680,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52" s="1">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B52" t="s">
         <v>14</v>
@@ -2697,10 +2691,10 @@
         <v>65</v>
       </c>
       <c r="D52">
-        <v>-150</v>
+        <v>1800</v>
       </c>
       <c r="E52">
-        <v>1800</v>
+        <v>-450</v>
       </c>
       <c r="F52">
         <v>-25</v>
@@ -2712,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -2724,9 +2718,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="A53" s="1">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B53" t="s">
         <v>14</v>
@@ -2735,13 +2729,13 @@
         <v>66</v>
       </c>
       <c r="D53">
-        <v>-750</v>
+        <v>1800</v>
       </c>
       <c r="E53">
-        <v>1800</v>
+        <v>-450</v>
       </c>
       <c r="F53">
-        <v>-25</v>
+        <v>-775</v>
       </c>
       <c r="G53">
         <v>5</v>
@@ -2750,7 +2744,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -2762,9 +2756,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54" s="1">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B54" t="s">
         <v>14</v>
@@ -2773,36 +2767,36 @@
         <v>67</v>
       </c>
       <c r="D54">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="E54">
-        <v>2760</v>
+        <v>-900</v>
       </c>
       <c r="F54">
-        <v>450</v>
+        <v>-25</v>
       </c>
       <c r="G54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J54">
         <v>1</v>
       </c>
       <c r="L54">
-        <v>1932</v>
+        <v>1940</v>
       </c>
       <c r="M54">
         <v>2655</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55" s="1">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B55" t="s">
         <v>14</v>
@@ -2811,36 +2805,36 @@
         <v>68</v>
       </c>
       <c r="D55">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="E55">
-        <v>2760</v>
+        <v>-900</v>
       </c>
       <c r="F55">
-        <v>-750</v>
+        <v>-775</v>
       </c>
       <c r="G55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J55">
         <v>1</v>
       </c>
       <c r="L55">
-        <v>1932</v>
+        <v>1940</v>
       </c>
       <c r="M55">
         <v>2655</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56" s="1">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B56" t="s">
         <v>14</v>
@@ -2849,13 +2843,13 @@
         <v>69</v>
       </c>
       <c r="D56">
+        <v>2760</v>
+      </c>
+      <c r="E56">
         <v>300</v>
       </c>
-      <c r="E56">
-        <v>2760</v>
-      </c>
       <c r="F56">
-        <v>1050</v>
+        <v>-150</v>
       </c>
       <c r="G56">
         <v>6</v>
@@ -2864,7 +2858,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -2876,9 +2870,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57" s="1">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B57" t="s">
         <v>14</v>
@@ -2887,13 +2881,13 @@
         <v>70</v>
       </c>
       <c r="D57">
+        <v>2760</v>
+      </c>
+      <c r="E57">
         <v>-300</v>
       </c>
-      <c r="E57">
-        <v>2760</v>
-      </c>
       <c r="F57">
-        <v>-750</v>
+        <v>450</v>
       </c>
       <c r="G57">
         <v>6</v>
@@ -2902,7 +2896,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -2914,9 +2908,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="A58" s="1">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B58" t="s">
         <v>14</v>
@@ -2925,10 +2919,10 @@
         <v>71</v>
       </c>
       <c r="D58">
+        <v>2760</v>
+      </c>
+      <c r="E58">
         <v>-300</v>
-      </c>
-      <c r="E58">
-        <v>2760</v>
       </c>
       <c r="F58">
         <v>-150</v>
@@ -2940,7 +2934,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -2952,9 +2946,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59" s="1">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B59" t="s">
         <v>14</v>
@@ -2963,13 +2957,13 @@
         <v>72</v>
       </c>
       <c r="D59">
+        <v>2760</v>
+      </c>
+      <c r="E59">
         <v>-300</v>
       </c>
-      <c r="E59">
-        <v>2760</v>
-      </c>
       <c r="F59">
-        <v>450</v>
+        <v>-750</v>
       </c>
       <c r="G59">
         <v>6</v>
@@ -2978,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -2990,9 +2984,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60" s="1">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B60" t="s">
         <v>14</v>
@@ -3001,13 +2995,13 @@
         <v>73</v>
       </c>
       <c r="D60">
-        <v>-300</v>
+        <v>2760</v>
       </c>
       <c r="E60">
-        <v>2760</v>
+        <v>300</v>
       </c>
       <c r="F60">
-        <v>1050</v>
+        <v>-750</v>
       </c>
       <c r="G60">
         <v>6</v>
@@ -3016,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -3028,9 +3022,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13">
       <c r="A61" s="1">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B61" t="s">
         <v>14</v>
@@ -3039,13 +3033,13 @@
         <v>74</v>
       </c>
       <c r="D61">
-        <v>300</v>
+        <v>2760</v>
       </c>
       <c r="E61">
-        <v>2760</v>
+        <v>-300</v>
       </c>
       <c r="F61">
-        <v>-150</v>
+        <v>1050</v>
       </c>
       <c r="G61">
         <v>6</v>
@@ -3054,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -3066,9 +3060,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13">
       <c r="A62" s="1">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
@@ -3077,36 +3071,36 @@
         <v>75</v>
       </c>
       <c r="D62">
-        <v>1410</v>
+        <v>2760</v>
       </c>
       <c r="E62">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="F62">
-        <v>-25</v>
-      </c>
-      <c r="G62" t="s">
-        <v>89</v>
+        <v>1050</v>
+      </c>
+      <c r="G62">
+        <v>6</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J62">
         <v>1</v>
       </c>
       <c r="L62">
-        <v>2900</v>
+        <v>1932</v>
       </c>
       <c r="M62">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B63" t="s">
         <v>14</v>
@@ -3115,36 +3109,36 @@
         <v>76</v>
       </c>
       <c r="D63">
-        <v>720</v>
+        <v>2760</v>
       </c>
       <c r="E63">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="F63">
-        <v>-25</v>
-      </c>
-      <c r="G63" t="s">
-        <v>89</v>
+        <v>450</v>
+      </c>
+      <c r="G63">
+        <v>6</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J63">
         <v>1</v>
       </c>
       <c r="L63">
-        <v>2900</v>
+        <v>1932</v>
       </c>
       <c r="M63">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B64" t="s">
         <v>14</v>
@@ -3153,22 +3147,22 @@
         <v>77</v>
       </c>
       <c r="D64">
-        <v>2310</v>
+        <v>720</v>
       </c>
       <c r="E64">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="F64">
         <v>-25</v>
       </c>
       <c r="G64" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -3180,9 +3174,9 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13">
       <c r="A65" s="1">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B65" t="s">
         <v>14</v>
@@ -3191,22 +3185,22 @@
         <v>78</v>
       </c>
       <c r="D65">
-        <v>2310</v>
+        <v>720</v>
       </c>
       <c r="E65">
-        <v>600</v>
+        <v>1050</v>
       </c>
       <c r="F65">
         <v>-25</v>
       </c>
       <c r="G65" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -3218,9 +3212,9 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13">
       <c r="A66" s="1">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B66" t="s">
         <v>14</v>
@@ -3229,22 +3223,22 @@
         <v>79</v>
       </c>
       <c r="D66">
-        <v>2310</v>
+        <v>120</v>
       </c>
       <c r="E66">
-        <v>1200</v>
+        <v>150</v>
       </c>
       <c r="F66">
         <v>-25</v>
       </c>
       <c r="G66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H66">
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -3256,9 +3250,9 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13">
       <c r="A67" s="1">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
@@ -3270,19 +3264,19 @@
         <v>120</v>
       </c>
       <c r="E67">
-        <v>1050</v>
+        <v>600</v>
       </c>
       <c r="F67">
         <v>-25</v>
       </c>
       <c r="G67" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -3294,9 +3288,9 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13">
       <c r="A68" s="1">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B68" t="s">
         <v>14</v>
@@ -3308,19 +3302,19 @@
         <v>120</v>
       </c>
       <c r="E68">
-        <v>600</v>
+        <v>1050</v>
       </c>
       <c r="F68">
         <v>-25</v>
       </c>
       <c r="G68" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -3332,9 +3326,9 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13">
       <c r="A69" s="1">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B69" t="s">
         <v>14</v>
@@ -3343,22 +3337,22 @@
         <v>82</v>
       </c>
       <c r="D69">
-        <v>120</v>
+        <v>2310</v>
       </c>
       <c r="E69">
-        <v>150</v>
+        <v>1200</v>
       </c>
       <c r="F69">
         <v>-25</v>
       </c>
       <c r="G69" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -3370,9 +3364,9 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13">
       <c r="A70" s="1">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B70" t="s">
         <v>14</v>
@@ -3381,22 +3375,22 @@
         <v>83</v>
       </c>
       <c r="D70">
-        <v>1410</v>
+        <v>2310</v>
       </c>
       <c r="E70">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="F70">
         <v>-25</v>
       </c>
       <c r="G70" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -3408,9 +3402,9 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13">
       <c r="A71" s="1">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B71" t="s">
         <v>14</v>
@@ -3419,22 +3413,22 @@
         <v>84</v>
       </c>
       <c r="D71">
-        <v>1410</v>
+        <v>2310</v>
       </c>
       <c r="E71">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="F71">
         <v>-25</v>
       </c>
       <c r="G71" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -3446,33 +3440,33 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13">
       <c r="A72" s="1">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D72">
-        <v>720</v>
+        <v>1410</v>
       </c>
       <c r="E72">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="F72">
         <v>-25</v>
       </c>
       <c r="G72" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -3484,41 +3478,193 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13">
       <c r="A73" s="1">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B73" t="s">
         <v>14</v>
       </c>
       <c r="C73" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D73">
-        <v>720</v>
+        <v>1410</v>
       </c>
       <c r="E73">
-        <v>1050</v>
+        <v>600</v>
       </c>
       <c r="F73">
         <v>-25</v>
       </c>
       <c r="G73" t="s">
+        <v>91</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73" t="s">
+        <v>94</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>2900</v>
+      </c>
+      <c r="M73">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="1">
+        <v>225</v>
+      </c>
+      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" t="s">
+        <v>87</v>
+      </c>
+      <c r="D74">
+        <v>1410</v>
+      </c>
+      <c r="E74">
+        <v>150</v>
+      </c>
+      <c r="F74">
+        <v>-25</v>
+      </c>
+      <c r="G74" t="s">
+        <v>91</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>94</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>2900</v>
+      </c>
+      <c r="M74">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="1">
+        <v>234</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" t="s">
+        <v>88</v>
+      </c>
+      <c r="D75">
+        <v>720</v>
+      </c>
+      <c r="E75">
+        <v>150</v>
+      </c>
+      <c r="F75">
+        <v>-25</v>
+      </c>
+      <c r="G75" t="s">
+        <v>91</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75" t="s">
+        <v>94</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>2900</v>
+      </c>
+      <c r="M75">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" t="s">
         <v>89</v>
       </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-      <c r="I73" t="s">
+      <c r="D76">
+        <v>1010</v>
+      </c>
+      <c r="E76">
+        <v>1535</v>
+      </c>
+      <c r="F76">
+        <v>-77</v>
+      </c>
+      <c r="G76" t="s">
+        <v>91</v>
+      </c>
+      <c r="H76">
+        <v>6</v>
+      </c>
+      <c r="I76" t="s">
+        <v>94</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>2900</v>
+      </c>
+      <c r="M76">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="1">
+        <v>36</v>
+      </c>
+      <c r="B77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" t="s">
         <v>90</v>
       </c>
-      <c r="J73">
-        <v>1</v>
-      </c>
-      <c r="L73">
-        <v>2900</v>
-      </c>
-      <c r="M73">
+      <c r="D77">
+        <v>645</v>
+      </c>
+      <c r="E77">
+        <v>1112</v>
+      </c>
+      <c r="F77">
+        <v>-77</v>
+      </c>
+      <c r="G77" t="s">
+        <v>91</v>
+      </c>
+      <c r="H77">
+        <v>6</v>
+      </c>
+      <c r="I77" t="s">
+        <v>94</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>2900</v>
+      </c>
+      <c r="M77">
         <v>1932</v>
       </c>
     </row>
@@ -3528,16 +3674,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3581,21 +3725,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D2">
-        <v>-160</v>
+        <v>1202</v>
       </c>
       <c r="E2">
-        <v>1202</v>
+        <v>160</v>
       </c>
       <c r="F2">
         <v>-181</v>
@@ -3607,7 +3751,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -3619,24 +3763,24 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D3">
-        <v>-714</v>
+        <v>1200</v>
       </c>
       <c r="E3">
-        <v>1572</v>
+        <v>210</v>
       </c>
       <c r="F3">
-        <v>-715</v>
+        <v>-50</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -3645,7 +3789,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -3657,24 +3801,24 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D4">
-        <v>-210</v>
+        <v>1572</v>
       </c>
       <c r="E4">
-        <v>1200</v>
+        <v>714</v>
       </c>
       <c r="F4">
-        <v>-50</v>
+        <v>-715</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -3683,7 +3827,7 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -3695,24 +3839,24 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>149</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D5">
-        <v>170</v>
+        <v>937</v>
       </c>
       <c r="E5">
-        <v>960</v>
+        <v>243</v>
       </c>
       <c r="F5">
-        <v>-375</v>
+        <v>-800</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -3721,7 +3865,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -3733,24 +3877,24 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D6">
-        <v>-243</v>
+        <v>960</v>
       </c>
       <c r="E6">
-        <v>937</v>
+        <v>-170</v>
       </c>
       <c r="F6">
-        <v>-800</v>
+        <v>-375</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -3759,7 +3903,7 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -3771,24 +3915,24 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1837</v>
       </c>
       <c r="E7">
-        <v>1800</v>
+        <v>-800</v>
       </c>
       <c r="F7">
-        <v>125</v>
+        <v>-365</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -3797,7 +3941,7 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -3809,24 +3953,24 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D8">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="E8">
-        <v>1837</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>-365</v>
+        <v>125</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -3835,7 +3979,7 @@
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -3847,33 +3991,33 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9">
+        <v>645</v>
+      </c>
+      <c r="E9">
+        <v>1075</v>
+      </c>
+      <c r="F9">
+        <v>-50</v>
+      </c>
+      <c r="G9" t="s">
         <v>91</v>
-      </c>
-      <c r="C9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9">
-        <v>2310</v>
-      </c>
-      <c r="E9">
-        <v>1505</v>
-      </c>
-      <c r="F9">
-        <v>547</v>
-      </c>
-      <c r="G9" t="s">
-        <v>89</v>
       </c>
       <c r="H9">
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -3885,33 +4029,33 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10">
+        <v>2235</v>
+      </c>
+      <c r="E10">
+        <v>1650</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
         <v>91</v>
-      </c>
-      <c r="C10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10">
-        <v>645</v>
-      </c>
-      <c r="E10">
-        <v>1112</v>
-      </c>
-      <c r="F10">
-        <v>-77</v>
-      </c>
-      <c r="G10" t="s">
-        <v>89</v>
       </c>
       <c r="H10">
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -3923,33 +4067,33 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11">
+        <v>2385</v>
+      </c>
+      <c r="E11">
+        <v>1710</v>
+      </c>
+      <c r="F11">
+        <v>175</v>
+      </c>
+      <c r="G11" t="s">
         <v>91</v>
-      </c>
-      <c r="C11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11">
-        <v>1010</v>
-      </c>
-      <c r="E11">
-        <v>1535</v>
-      </c>
-      <c r="F11">
-        <v>-77</v>
-      </c>
-      <c r="G11" t="s">
-        <v>89</v>
       </c>
       <c r="H11">
         <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -3961,33 +4105,33 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12">
+        <v>2660</v>
+      </c>
+      <c r="E12">
+        <v>435</v>
+      </c>
+      <c r="F12">
+        <v>210</v>
+      </c>
+      <c r="G12" t="s">
         <v>91</v>
-      </c>
-      <c r="C12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12">
-        <v>645</v>
-      </c>
-      <c r="E12">
-        <v>1075</v>
-      </c>
-      <c r="F12">
-        <v>-50</v>
-      </c>
-      <c r="G12" t="s">
-        <v>89</v>
       </c>
       <c r="H12">
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -3999,33 +4143,33 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13">
+        <v>860</v>
+      </c>
+      <c r="E13">
+        <v>1299</v>
+      </c>
+      <c r="F13">
+        <v>2468</v>
+      </c>
+      <c r="G13" t="s">
         <v>91</v>
-      </c>
-      <c r="C13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13">
-        <v>2235</v>
-      </c>
-      <c r="E13">
-        <v>1650</v>
-      </c>
-      <c r="F13">
-        <v>100</v>
-      </c>
-      <c r="G13" t="s">
-        <v>89</v>
       </c>
       <c r="H13">
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -4037,33 +4181,33 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14">
+        <v>1060</v>
+      </c>
+      <c r="E14">
+        <v>1580</v>
+      </c>
+      <c r="F14">
+        <v>275</v>
+      </c>
+      <c r="G14" t="s">
         <v>91</v>
-      </c>
-      <c r="C14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14">
-        <v>2385</v>
-      </c>
-      <c r="E14">
-        <v>1710</v>
-      </c>
-      <c r="F14">
-        <v>175</v>
-      </c>
-      <c r="G14" t="s">
-        <v>89</v>
       </c>
       <c r="H14">
         <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -4075,33 +4219,33 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15">
+        <v>2310</v>
+      </c>
+      <c r="E15">
+        <v>1740</v>
+      </c>
+      <c r="F15">
+        <v>825</v>
+      </c>
+      <c r="G15" t="s">
         <v>91</v>
-      </c>
-      <c r="C15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15">
-        <v>2660</v>
-      </c>
-      <c r="E15">
-        <v>435</v>
-      </c>
-      <c r="F15">
-        <v>210</v>
-      </c>
-      <c r="G15" t="s">
-        <v>89</v>
       </c>
       <c r="H15">
         <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -4113,33 +4257,33 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16">
+        <v>1320</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1175</v>
+      </c>
+      <c r="G16" t="s">
         <v>91</v>
-      </c>
-      <c r="C16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16">
-        <v>860</v>
-      </c>
-      <c r="E16">
-        <v>1299</v>
-      </c>
-      <c r="F16">
-        <v>2468</v>
-      </c>
-      <c r="G16" t="s">
-        <v>89</v>
       </c>
       <c r="H16">
         <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -4151,33 +4295,33 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17">
+        <v>1410</v>
+      </c>
+      <c r="E17">
+        <v>1692</v>
+      </c>
+      <c r="F17">
+        <v>825</v>
+      </c>
+      <c r="G17" t="s">
         <v>91</v>
-      </c>
-      <c r="C17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17">
-        <v>1060</v>
-      </c>
-      <c r="E17">
-        <v>1580</v>
-      </c>
-      <c r="F17">
-        <v>275</v>
-      </c>
-      <c r="G17" t="s">
-        <v>89</v>
       </c>
       <c r="H17">
         <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -4189,33 +4333,33 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18">
+        <v>1010</v>
+      </c>
+      <c r="E18">
+        <v>1535</v>
+      </c>
+      <c r="F18">
+        <v>-25</v>
+      </c>
+      <c r="G18" t="s">
         <v>91</v>
-      </c>
-      <c r="C18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18">
-        <v>2310</v>
-      </c>
-      <c r="E18">
-        <v>1740</v>
-      </c>
-      <c r="F18">
-        <v>825</v>
-      </c>
-      <c r="G18" t="s">
-        <v>89</v>
       </c>
       <c r="H18">
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -4227,33 +4371,33 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19">
+        <v>1285</v>
+      </c>
+      <c r="E19">
+        <v>1592</v>
+      </c>
+      <c r="F19">
+        <v>-24</v>
+      </c>
+      <c r="G19" t="s">
         <v>91</v>
-      </c>
-      <c r="C19" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19">
-        <v>1320</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1175</v>
-      </c>
-      <c r="G19" t="s">
-        <v>89</v>
       </c>
       <c r="H19">
         <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -4265,33 +4409,33 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20">
+        <v>2310</v>
+      </c>
+      <c r="E20">
+        <v>1505</v>
+      </c>
+      <c r="F20">
+        <v>547</v>
+      </c>
+      <c r="G20" t="s">
         <v>91</v>
-      </c>
-      <c r="C20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20">
-        <v>1410</v>
-      </c>
-      <c r="E20">
-        <v>1692</v>
-      </c>
-      <c r="F20">
-        <v>825</v>
-      </c>
-      <c r="G20" t="s">
-        <v>89</v>
       </c>
       <c r="H20">
         <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -4300,82 +4444,6 @@
         <v>2900</v>
       </c>
       <c r="M20">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>154</v>
-      </c>
-      <c r="B21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21">
-        <v>1010</v>
-      </c>
-      <c r="E21">
-        <v>1535</v>
-      </c>
-      <c r="F21">
-        <v>-25</v>
-      </c>
-      <c r="G21" t="s">
-        <v>89</v>
-      </c>
-      <c r="H21">
-        <v>6</v>
-      </c>
-      <c r="I21" t="s">
-        <v>90</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>2900</v>
-      </c>
-      <c r="M21">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>158</v>
-      </c>
-      <c r="B22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22">
-        <v>1285</v>
-      </c>
-      <c r="E22">
-        <v>1592</v>
-      </c>
-      <c r="F22">
-        <v>-24</v>
-      </c>
-      <c r="G22" t="s">
-        <v>89</v>
-      </c>
-      <c r="H22">
-        <v>6</v>
-      </c>
-      <c r="I22" t="s">
-        <v>90</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>2900</v>
-      </c>
-      <c r="M22">
         <v>1932</v>
       </c>
     </row>
@@ -4385,14 +4453,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4436,15 +4504,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D2">
         <v>2560</v>
@@ -4456,13 +4524,13 @@
         <v>210</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H2">
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -4474,15 +4542,15 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D3">
         <v>2200</v>
@@ -4494,13 +4562,13 @@
         <v>100</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H3">
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -4512,15 +4580,15 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D4">
         <v>2100</v>
@@ -4532,13 +4600,13 @@
         <v>175</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H4">
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J4">
         <v>1</v>

--- a/Greyform/Python_Application/exporteddatassss(with TMP)(draft)(tetra).xlsx
+++ b/Greyform/Python_Application/exporteddatassss(with TMP)(draft)(tetra).xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MokZhiZhuan\OneDrive - WINSYS TECHNOLOGY PTE LTD\Documents\GitHub\GreyForm_UI\Greyform\Python_Application\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE73871-DE75-46E8-AB3D-CE4799D17E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="390" yWindow="15" windowWidth="23235" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage 2" sheetId="1" r:id="rId1"/>
     <sheet name="Stage 3" sheetId="2" r:id="rId2"/>
     <sheet name="Obstacles" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="117">
   <si>
     <t>Marking type</t>
   </si>
@@ -292,12 +298,6 @@
   </si>
   <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>6</t>
   </si>
   <si>
     <t>blank</t>
@@ -378,8 +378,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,13 +442,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -486,7 +494,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -520,6 +528,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -554,9 +563,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -729,14 +739,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -780,7 +796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>179</v>
       </c>
@@ -791,7 +807,7 @@
         <v>15</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E2">
         <v>470</v>
@@ -806,7 +822,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -818,7 +834,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>167</v>
       </c>
@@ -829,7 +845,7 @@
         <v>16</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E3">
         <v>-1350</v>
@@ -844,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -856,7 +872,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>166</v>
       </c>
@@ -867,7 +883,7 @@
         <v>17</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E4">
         <v>-1350</v>
@@ -882,7 +898,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -894,7 +910,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>165</v>
       </c>
@@ -905,7 +921,7 @@
         <v>18</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E5">
         <v>-1350</v>
@@ -920,7 +936,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -932,7 +948,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>170</v>
       </c>
@@ -943,7 +959,7 @@
         <v>19</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E6">
         <v>-350</v>
@@ -958,7 +974,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -970,7 +986,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>171</v>
       </c>
@@ -981,7 +997,7 @@
         <v>20</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E7">
         <v>-350</v>
@@ -996,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1008,7 +1024,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>172</v>
       </c>
@@ -1019,7 +1035,7 @@
         <v>21</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E8">
         <v>-350</v>
@@ -1034,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1046,7 +1062,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>173</v>
       </c>
@@ -1057,7 +1073,7 @@
         <v>22</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E9">
         <v>-30</v>
@@ -1072,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1084,7 +1100,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>174</v>
       </c>
@@ -1095,7 +1111,7 @@
         <v>23</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E10">
         <v>-30</v>
@@ -1110,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,7 +1138,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>175</v>
       </c>
@@ -1133,7 +1149,7 @@
         <v>24</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E11">
         <v>-30</v>
@@ -1148,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1160,7 +1176,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>176</v>
       </c>
@@ -1171,7 +1187,7 @@
         <v>25</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E12">
         <v>-30</v>
@@ -1186,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1198,7 +1214,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>177</v>
       </c>
@@ -1209,7 +1225,7 @@
         <v>26</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E13">
         <v>470</v>
@@ -1224,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1236,7 +1252,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>178</v>
       </c>
@@ -1247,7 +1263,7 @@
         <v>27</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E14">
         <v>470</v>
@@ -1262,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1274,7 +1290,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>168</v>
       </c>
@@ -1285,7 +1301,7 @@
         <v>28</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E15">
         <v>-1350</v>
@@ -1300,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1312,7 +1328,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>169</v>
       </c>
@@ -1323,7 +1339,7 @@
         <v>29</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E16">
         <v>-350</v>
@@ -1338,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1350,7 +1366,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>181</v>
       </c>
@@ -1361,7 +1377,7 @@
         <v>30</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E17">
         <v>490</v>
@@ -1376,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1388,7 +1404,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>182</v>
       </c>
@@ -1399,7 +1415,7 @@
         <v>31</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E18">
         <v>490</v>
@@ -1414,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1426,7 +1442,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>183</v>
       </c>
@@ -1437,7 +1453,7 @@
         <v>32</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E19">
         <v>490</v>
@@ -1452,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1464,7 +1480,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>184</v>
       </c>
@@ -1475,7 +1491,7 @@
         <v>33</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E20">
         <v>490</v>
@@ -1490,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1502,7 +1518,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>185</v>
       </c>
@@ -1513,7 +1529,7 @@
         <v>34</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E21">
         <v>935</v>
@@ -1528,7 +1544,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1540,7 +1556,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>186</v>
       </c>
@@ -1551,7 +1567,7 @@
         <v>35</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E22">
         <v>935</v>
@@ -1566,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1578,7 +1594,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>187</v>
       </c>
@@ -1589,7 +1605,7 @@
         <v>36</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E23">
         <v>935</v>
@@ -1604,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -1616,7 +1632,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>188</v>
       </c>
@@ -1627,7 +1643,7 @@
         <v>37</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E24">
         <v>935</v>
@@ -1642,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -1654,7 +1670,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>180</v>
       </c>
@@ -1665,7 +1681,7 @@
         <v>38</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E25">
         <v>470</v>
@@ -1680,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1692,7 +1708,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>237</v>
       </c>
@@ -1703,7 +1719,7 @@
         <v>39</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>-2760</v>
       </c>
       <c r="E26">
         <v>150</v>
@@ -1718,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -1730,7 +1746,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>190</v>
       </c>
@@ -1741,7 +1757,7 @@
         <v>40</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>-2760</v>
       </c>
       <c r="E27">
         <v>100</v>
@@ -1756,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -1768,7 +1784,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>191</v>
       </c>
@@ -1779,7 +1795,7 @@
         <v>41</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>-2760</v>
       </c>
       <c r="E28">
         <v>-500</v>
@@ -1794,7 +1810,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -1806,7 +1822,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>192</v>
       </c>
@@ -1817,7 +1833,7 @@
         <v>42</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>-2760</v>
       </c>
       <c r="E29">
         <v>-500</v>
@@ -1832,7 +1848,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -1844,7 +1860,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>189</v>
       </c>
@@ -1855,7 +1871,7 @@
         <v>43</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>-2760</v>
       </c>
       <c r="E30">
         <v>100</v>
@@ -1870,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -1882,7 +1898,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>238</v>
       </c>
@@ -1893,7 +1909,7 @@
         <v>44</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>-2760</v>
       </c>
       <c r="E31">
         <v>150</v>
@@ -1908,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -1920,7 +1936,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>196</v>
       </c>
@@ -1931,7 +1947,7 @@
         <v>45</v>
       </c>
       <c r="D32">
-        <v>1200</v>
+        <v>-600</v>
       </c>
       <c r="E32">
         <v>445</v>
@@ -1946,7 +1962,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -1958,7 +1974,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>194</v>
       </c>
@@ -1969,7 +1985,7 @@
         <v>46</v>
       </c>
       <c r="D33">
-        <v>1200</v>
+        <v>-600</v>
       </c>
       <c r="E33">
         <v>445</v>
@@ -1984,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -1996,7 +2012,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>195</v>
       </c>
@@ -2007,7 +2023,7 @@
         <v>47</v>
       </c>
       <c r="D34">
-        <v>1200</v>
+        <v>-600</v>
       </c>
       <c r="E34">
         <v>445</v>
@@ -2022,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2034,7 +2050,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>197</v>
       </c>
@@ -2045,7 +2061,7 @@
         <v>48</v>
       </c>
       <c r="D35">
-        <v>1200</v>
+        <v>-600</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2060,7 +2076,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2072,7 +2088,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>198</v>
       </c>
@@ -2083,7 +2099,7 @@
         <v>49</v>
       </c>
       <c r="D36">
-        <v>1200</v>
+        <v>-600</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2098,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2110,7 +2126,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>199</v>
       </c>
@@ -2121,7 +2137,7 @@
         <v>50</v>
       </c>
       <c r="D37">
-        <v>1200</v>
+        <v>-600</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2136,7 +2152,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -2148,7 +2164,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>200</v>
       </c>
@@ -2159,7 +2175,7 @@
         <v>51</v>
       </c>
       <c r="D38">
-        <v>1200</v>
+        <v>-600</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2174,7 +2190,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -2186,7 +2202,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>193</v>
       </c>
@@ -2197,7 +2213,7 @@
         <v>52</v>
       </c>
       <c r="D39">
-        <v>1200</v>
+        <v>-600</v>
       </c>
       <c r="E39">
         <v>445</v>
@@ -2212,7 +2228,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -2224,7 +2240,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>201</v>
       </c>
@@ -2235,7 +2251,7 @@
         <v>53</v>
       </c>
       <c r="D40">
-        <v>960</v>
+        <v>-1800</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2250,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -2262,7 +2278,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>203</v>
       </c>
@@ -2273,7 +2289,7 @@
         <v>54</v>
       </c>
       <c r="D41">
-        <v>960</v>
+        <v>-1800</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2288,7 +2304,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -2300,7 +2316,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>205</v>
       </c>
@@ -2311,7 +2327,7 @@
         <v>55</v>
       </c>
       <c r="D42">
-        <v>960</v>
+        <v>-1800</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2326,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -2338,7 +2354,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>206</v>
       </c>
@@ -2349,7 +2365,7 @@
         <v>56</v>
       </c>
       <c r="D43">
-        <v>960</v>
+        <v>-1800</v>
       </c>
       <c r="E43">
         <v>-300</v>
@@ -2364,7 +2380,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -2376,7 +2392,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>207</v>
       </c>
@@ -2387,7 +2403,7 @@
         <v>57</v>
       </c>
       <c r="D44">
-        <v>960</v>
+        <v>-1800</v>
       </c>
       <c r="E44">
         <v>-300</v>
@@ -2402,7 +2418,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -2414,7 +2430,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>208</v>
       </c>
@@ -2425,7 +2441,7 @@
         <v>58</v>
       </c>
       <c r="D45">
-        <v>960</v>
+        <v>-1800</v>
       </c>
       <c r="E45">
         <v>-300</v>
@@ -2440,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -2452,7 +2468,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>202</v>
       </c>
@@ -2463,7 +2479,7 @@
         <v>59</v>
       </c>
       <c r="D46">
-        <v>960</v>
+        <v>-1800</v>
       </c>
       <c r="E46">
         <v>-300</v>
@@ -2478,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -2490,7 +2506,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>204</v>
       </c>
@@ -2501,7 +2517,7 @@
         <v>60</v>
       </c>
       <c r="D47">
-        <v>960</v>
+        <v>-1800</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2516,7 +2532,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -2528,7 +2544,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>216</v>
       </c>
@@ -2539,7 +2555,7 @@
         <v>61</v>
       </c>
       <c r="D48">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>750</v>
@@ -2554,7 +2570,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -2566,7 +2582,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>215</v>
       </c>
@@ -2577,7 +2593,7 @@
         <v>62</v>
       </c>
       <c r="D49">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>750</v>
@@ -2592,7 +2608,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -2604,7 +2620,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>214</v>
       </c>
@@ -2615,7 +2631,7 @@
         <v>63</v>
       </c>
       <c r="D50">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>150</v>
@@ -2630,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -2642,7 +2658,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>213</v>
       </c>
@@ -2653,7 +2669,7 @@
         <v>64</v>
       </c>
       <c r="D51">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>150</v>
@@ -2668,7 +2684,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -2680,7 +2696,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>212</v>
       </c>
@@ -2691,7 +2707,7 @@
         <v>65</v>
       </c>
       <c r="D52">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>-450</v>
@@ -2706,7 +2722,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -2718,7 +2734,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>211</v>
       </c>
@@ -2729,7 +2745,7 @@
         <v>66</v>
       </c>
       <c r="D53">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>-450</v>
@@ -2744,7 +2760,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -2756,7 +2772,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>210</v>
       </c>
@@ -2767,7 +2783,7 @@
         <v>67</v>
       </c>
       <c r="D54">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>-900</v>
@@ -2782,7 +2798,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -2794,7 +2810,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>209</v>
       </c>
@@ -2805,7 +2821,7 @@
         <v>68</v>
       </c>
       <c r="D55">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>-900</v>
@@ -2820,7 +2836,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -2832,7 +2848,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>222</v>
       </c>
@@ -2843,7 +2859,7 @@
         <v>69</v>
       </c>
       <c r="D56">
-        <v>2760</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>300</v>
@@ -2858,7 +2874,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -2870,7 +2886,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>219</v>
       </c>
@@ -2881,7 +2897,7 @@
         <v>70</v>
       </c>
       <c r="D57">
-        <v>2760</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>-300</v>
@@ -2896,7 +2912,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -2908,7 +2924,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>218</v>
       </c>
@@ -2919,7 +2935,7 @@
         <v>71</v>
       </c>
       <c r="D58">
-        <v>2760</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>-300</v>
@@ -2934,7 +2950,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -2946,7 +2962,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>217</v>
       </c>
@@ -2957,7 +2973,7 @@
         <v>72</v>
       </c>
       <c r="D59">
-        <v>2760</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>-300</v>
@@ -2972,7 +2988,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -2984,7 +3000,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>221</v>
       </c>
@@ -2995,7 +3011,7 @@
         <v>73</v>
       </c>
       <c r="D60">
-        <v>2760</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>300</v>
@@ -3010,7 +3026,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -3022,7 +3038,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>220</v>
       </c>
@@ -3033,7 +3049,7 @@
         <v>74</v>
       </c>
       <c r="D61">
-        <v>2760</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>-300</v>
@@ -3048,7 +3064,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -3060,7 +3076,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>224</v>
       </c>
@@ -3071,7 +3087,7 @@
         <v>75</v>
       </c>
       <c r="D62">
-        <v>2760</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>300</v>
@@ -3086,7 +3102,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -3098,7 +3114,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>223</v>
       </c>
@@ -3109,7 +3125,7 @@
         <v>76</v>
       </c>
       <c r="D63">
-        <v>2760</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>300</v>
@@ -3124,7 +3140,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -3136,7 +3152,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>235</v>
       </c>
@@ -3162,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -3174,7 +3190,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>236</v>
       </c>
@@ -3200,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -3212,7 +3228,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>233</v>
       </c>
@@ -3238,7 +3254,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -3250,7 +3266,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>232</v>
       </c>
@@ -3276,7 +3292,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -3288,7 +3304,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>231</v>
       </c>
@@ -3314,7 +3330,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -3326,7 +3342,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>230</v>
       </c>
@@ -3352,7 +3368,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -3364,7 +3380,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>229</v>
       </c>
@@ -3390,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -3402,7 +3418,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>228</v>
       </c>
@@ -3428,7 +3444,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -3440,7 +3456,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>227</v>
       </c>
@@ -3466,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -3478,7 +3494,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>226</v>
       </c>
@@ -3504,7 +3520,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -3516,7 +3532,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>225</v>
       </c>
@@ -3542,7 +3558,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -3554,7 +3570,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>234</v>
       </c>
@@ -3580,7 +3596,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -3592,7 +3608,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3618,7 +3634,7 @@
         <v>6</v>
       </c>
       <c r="I76" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -3630,7 +3646,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>36</v>
       </c>
@@ -3656,7 +3672,7 @@
         <v>6</v>
       </c>
       <c r="I77" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -3674,14 +3690,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3725,18 +3741,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D2">
-        <v>1202</v>
+        <v>-598</v>
       </c>
       <c r="E2">
         <v>160</v>
@@ -3751,7 +3767,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -3763,18 +3779,18 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>146</v>
       </c>
       <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
         <v>95</v>
       </c>
-      <c r="C3" t="s">
-        <v>97</v>
-      </c>
       <c r="D3">
-        <v>1200</v>
+        <v>-600</v>
       </c>
       <c r="E3">
         <v>210</v>
@@ -3789,7 +3805,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -3801,18 +3817,18 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>139</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D4">
-        <v>1572</v>
+        <v>-228</v>
       </c>
       <c r="E4">
         <v>714</v>
@@ -3827,7 +3843,7 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -3839,18 +3855,18 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D5">
-        <v>937</v>
+        <v>-1823</v>
       </c>
       <c r="E5">
         <v>243</v>
@@ -3865,7 +3881,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -3877,18 +3893,18 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D6">
-        <v>960</v>
+        <v>-1800</v>
       </c>
       <c r="E6">
         <v>-170</v>
@@ -3903,7 +3919,7 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -3915,18 +3931,18 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D7">
-        <v>1837</v>
+        <v>37</v>
       </c>
       <c r="E7">
         <v>-800</v>
@@ -3941,7 +3957,7 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -3953,18 +3969,18 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D8">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3979,7 +3995,7 @@
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -3991,15 +4007,15 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>159</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D9">
         <v>645</v>
@@ -4017,7 +4033,7 @@
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -4029,15 +4045,15 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D10">
         <v>2235</v>
@@ -4055,7 +4071,7 @@
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -4067,15 +4083,15 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D11">
         <v>2385</v>
@@ -4093,7 +4109,7 @@
         <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -4105,15 +4121,15 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D12">
         <v>2660</v>
@@ -4131,7 +4147,7 @@
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -4143,15 +4159,15 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>118</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D13">
         <v>860</v>
@@ -4169,7 +4185,7 @@
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -4181,15 +4197,15 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>144</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D14">
         <v>1060</v>
@@ -4207,7 +4223,7 @@
         <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -4219,15 +4235,15 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>145</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D15">
         <v>2310</v>
@@ -4245,7 +4261,7 @@
         <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -4257,15 +4273,15 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>148</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D16">
         <v>1320</v>
@@ -4283,7 +4299,7 @@
         <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -4295,15 +4311,15 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>153</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D17">
         <v>1410</v>
@@ -4321,7 +4337,7 @@
         <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -4333,15 +4349,15 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>154</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D18">
         <v>1010</v>
@@ -4359,7 +4375,7 @@
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -4371,15 +4387,15 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>158</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D19">
         <v>1285</v>
@@ -4397,7 +4413,7 @@
         <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -4409,15 +4425,15 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D20">
         <v>2310</v>
@@ -4435,7 +4451,7 @@
         <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -4453,14 +4469,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4504,15 +4520,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D2">
         <v>2560</v>
@@ -4530,7 +4546,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -4542,15 +4558,15 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>94</v>
       </c>
       <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
         <v>115</v>
-      </c>
-      <c r="C3" t="s">
-        <v>117</v>
       </c>
       <c r="D3">
         <v>2200</v>
@@ -4568,7 +4584,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -4580,15 +4596,15 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D4">
         <v>2100</v>
@@ -4606,7 +4622,7 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J4">
         <v>1</v>

--- a/Greyform/Python_Application/exporteddatassss(with TMP)(draft)(tetra).xlsx
+++ b/Greyform/Python_Application/exporteddatassss(with TMP)(draft)(tetra).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MokZhiZhuan\OneDrive - WINSYS TECHNOLOGY PTE LTD\Documents\GitHub\GreyForm_UI\Greyform\Python_Application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE73871-DE75-46E8-AB3D-CE4799D17E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E0A2B8-05A5-4D71-8801-7FBF2EDAC3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="15" windowWidth="23235" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage 2" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="112">
   <si>
     <t>Marking type</t>
   </si>
@@ -315,9 +315,6 @@
     <t>BSS.TECE.CONCEALED CISTERN.9370224:BSS.TECE.CONCEALED CISTERN.9370224:1090923</t>
   </si>
   <si>
-    <t>M_Coupling - Threaded - MI - Class 150:Standard:1018144</t>
-  </si>
-  <si>
     <t>BSS.GOMGO.PH.GG-6106:Chrome 000:1090992</t>
   </si>
   <si>
@@ -361,18 +358,6 @@
   </si>
   <si>
     <t>BSS.Bottle Trap:BSS.Bottle trap:1018126</t>
-  </si>
-  <si>
-    <t>Obstacles</t>
-  </si>
-  <si>
-    <t>BSS.Gate Valve:20 mm:1018294</t>
-  </si>
-  <si>
-    <t>BSS.Gate Valve:32 mm:1040816</t>
-  </si>
-  <si>
-    <t>BSS.Gate Valve:32 mm:1040885</t>
   </si>
 </sst>
 </file>
@@ -740,15 +725,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O77"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:XFD77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="39.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -807,7 +791,7 @@
         <v>15</v>
       </c>
       <c r="D2">
-        <v>-1800</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>470</v>
@@ -845,7 +829,7 @@
         <v>16</v>
       </c>
       <c r="D3">
-        <v>-1800</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>-1350</v>
@@ -883,7 +867,7 @@
         <v>17</v>
       </c>
       <c r="D4">
-        <v>-1800</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>-1350</v>
@@ -921,7 +905,7 @@
         <v>18</v>
       </c>
       <c r="D5">
-        <v>-1800</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>-1350</v>
@@ -959,7 +943,7 @@
         <v>19</v>
       </c>
       <c r="D6">
-        <v>-1800</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>-350</v>
@@ -997,7 +981,7 @@
         <v>20</v>
       </c>
       <c r="D7">
-        <v>-1800</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>-350</v>
@@ -1035,7 +1019,7 @@
         <v>21</v>
       </c>
       <c r="D8">
-        <v>-1800</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>-350</v>
@@ -1073,7 +1057,7 @@
         <v>22</v>
       </c>
       <c r="D9">
-        <v>-1800</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>-30</v>
@@ -1111,7 +1095,7 @@
         <v>23</v>
       </c>
       <c r="D10">
-        <v>-1800</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>-30</v>
@@ -1149,7 +1133,7 @@
         <v>24</v>
       </c>
       <c r="D11">
-        <v>-1800</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>-30</v>
@@ -1187,7 +1171,7 @@
         <v>25</v>
       </c>
       <c r="D12">
-        <v>-1800</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>-30</v>
@@ -1225,7 +1209,7 @@
         <v>26</v>
       </c>
       <c r="D13">
-        <v>-1800</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>470</v>
@@ -1263,7 +1247,7 @@
         <v>27</v>
       </c>
       <c r="D14">
-        <v>-1800</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>470</v>
@@ -1301,7 +1285,7 @@
         <v>28</v>
       </c>
       <c r="D15">
-        <v>-1800</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>-1350</v>
@@ -1339,7 +1323,7 @@
         <v>29</v>
       </c>
       <c r="D16">
-        <v>-1800</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>-350</v>
@@ -1377,7 +1361,7 @@
         <v>30</v>
       </c>
       <c r="D17">
-        <v>-1800</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>490</v>
@@ -1415,7 +1399,7 @@
         <v>31</v>
       </c>
       <c r="D18">
-        <v>-1800</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>490</v>
@@ -1453,7 +1437,7 @@
         <v>32</v>
       </c>
       <c r="D19">
-        <v>-1800</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>490</v>
@@ -1491,7 +1475,7 @@
         <v>33</v>
       </c>
       <c r="D20">
-        <v>-1800</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>490</v>
@@ -1529,7 +1513,7 @@
         <v>34</v>
       </c>
       <c r="D21">
-        <v>-1800</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>935</v>
@@ -1567,7 +1551,7 @@
         <v>35</v>
       </c>
       <c r="D22">
-        <v>-1800</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>935</v>
@@ -1605,7 +1589,7 @@
         <v>36</v>
       </c>
       <c r="D23">
-        <v>-1800</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>935</v>
@@ -1643,7 +1627,7 @@
         <v>37</v>
       </c>
       <c r="D24">
-        <v>-1800</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>935</v>
@@ -1681,7 +1665,7 @@
         <v>38</v>
       </c>
       <c r="D25">
-        <v>-1800</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>470</v>
@@ -1947,7 +1931,7 @@
         <v>45</v>
       </c>
       <c r="D32">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>445</v>
@@ -1985,7 +1969,7 @@
         <v>46</v>
       </c>
       <c r="D33">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>445</v>
@@ -2023,7 +2007,7 @@
         <v>47</v>
       </c>
       <c r="D34">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>445</v>
@@ -2061,7 +2045,7 @@
         <v>48</v>
       </c>
       <c r="D35">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2099,7 +2083,7 @@
         <v>49</v>
       </c>
       <c r="D36">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2137,7 +2121,7 @@
         <v>50</v>
       </c>
       <c r="D37">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2175,7 +2159,7 @@
         <v>51</v>
       </c>
       <c r="D38">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2213,7 +2197,7 @@
         <v>52</v>
       </c>
       <c r="D39">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>445</v>
@@ -3605,82 +3589,6 @@
         <v>2900</v>
       </c>
       <c r="M75">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>14</v>
-      </c>
-      <c r="C76" t="s">
-        <v>89</v>
-      </c>
-      <c r="D76">
-        <v>1010</v>
-      </c>
-      <c r="E76">
-        <v>1535</v>
-      </c>
-      <c r="F76">
-        <v>-77</v>
-      </c>
-      <c r="G76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H76">
-        <v>6</v>
-      </c>
-      <c r="I76" t="s">
-        <v>92</v>
-      </c>
-      <c r="J76">
-        <v>1</v>
-      </c>
-      <c r="L76">
-        <v>2900</v>
-      </c>
-      <c r="M76">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>36</v>
-      </c>
-      <c r="B77" t="s">
-        <v>14</v>
-      </c>
-      <c r="C77" t="s">
-        <v>90</v>
-      </c>
-      <c r="D77">
-        <v>645</v>
-      </c>
-      <c r="E77">
-        <v>1112</v>
-      </c>
-      <c r="F77">
-        <v>-77</v>
-      </c>
-      <c r="G77" t="s">
-        <v>91</v>
-      </c>
-      <c r="H77">
-        <v>6</v>
-      </c>
-      <c r="I77" t="s">
-        <v>92</v>
-      </c>
-      <c r="J77">
-        <v>1</v>
-      </c>
-      <c r="L77">
-        <v>2900</v>
-      </c>
-      <c r="M77">
         <v>1932</v>
       </c>
     </row>
@@ -3691,11 +3599,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -3752,7 +3666,7 @@
         <v>94</v>
       </c>
       <c r="D2">
-        <v>-598</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>160</v>
@@ -3790,7 +3704,7 @@
         <v>95</v>
       </c>
       <c r="D3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>210</v>
@@ -3828,7 +3742,7 @@
         <v>96</v>
       </c>
       <c r="D4">
-        <v>-228</v>
+        <v>372</v>
       </c>
       <c r="E4">
         <v>714</v>
@@ -3857,7 +3771,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
         <v>93</v>
@@ -3866,13 +3780,13 @@
         <v>97</v>
       </c>
       <c r="D5">
-        <v>-1823</v>
+        <v>-1800</v>
       </c>
       <c r="E5">
-        <v>243</v>
+        <v>-170</v>
       </c>
       <c r="F5">
-        <v>-800</v>
+        <v>-375</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -3895,7 +3809,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
         <v>93</v>
@@ -3904,16 +3818,16 @@
         <v>98</v>
       </c>
       <c r="D6">
-        <v>-1800</v>
+        <v>37</v>
       </c>
       <c r="E6">
-        <v>-170</v>
+        <v>-800</v>
       </c>
       <c r="F6">
-        <v>-375</v>
+        <v>-365</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>6</v>
@@ -3925,7 +3839,7 @@
         <v>1</v>
       </c>
       <c r="L6">
-        <v>600</v>
+        <v>1940</v>
       </c>
       <c r="M6">
         <v>2655</v>
@@ -3933,7 +3847,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
         <v>93</v>
@@ -3942,13 +3856,13 @@
         <v>99</v>
       </c>
       <c r="D7">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>-365</v>
+        <v>125</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -3971,7 +3885,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s">
         <v>93</v>
@@ -3980,16 +3894,16 @@
         <v>100</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>645</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1075</v>
       </c>
       <c r="F8">
-        <v>125</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
+        <v>-50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>91</v>
       </c>
       <c r="H8">
         <v>6</v>
@@ -4001,15 +3915,15 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1940</v>
+        <v>2900</v>
       </c>
       <c r="M8">
-        <v>2655</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>159</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
         <v>93</v>
@@ -4018,13 +3932,13 @@
         <v>101</v>
       </c>
       <c r="D9">
-        <v>645</v>
+        <v>2235</v>
       </c>
       <c r="E9">
-        <v>1075</v>
+        <v>1650</v>
       </c>
       <c r="F9">
-        <v>-50</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
         <v>91</v>
@@ -4047,7 +3961,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
         <v>93</v>
@@ -4056,13 +3970,13 @@
         <v>102</v>
       </c>
       <c r="D10">
-        <v>2235</v>
+        <v>2385</v>
       </c>
       <c r="E10">
-        <v>1650</v>
+        <v>1710</v>
       </c>
       <c r="F10">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="G10" t="s">
         <v>91</v>
@@ -4085,7 +3999,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
         <v>93</v>
@@ -4094,13 +4008,13 @@
         <v>103</v>
       </c>
       <c r="D11">
-        <v>2385</v>
+        <v>2660</v>
       </c>
       <c r="E11">
-        <v>1710</v>
+        <v>435</v>
       </c>
       <c r="F11">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="G11" t="s">
         <v>91</v>
@@ -4123,7 +4037,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
         <v>93</v>
@@ -4132,13 +4046,13 @@
         <v>104</v>
       </c>
       <c r="D12">
-        <v>2660</v>
+        <v>860</v>
       </c>
       <c r="E12">
-        <v>435</v>
+        <v>1299</v>
       </c>
       <c r="F12">
-        <v>210</v>
+        <v>2468</v>
       </c>
       <c r="G12" t="s">
         <v>91</v>
@@ -4161,7 +4075,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s">
         <v>93</v>
@@ -4170,13 +4084,13 @@
         <v>105</v>
       </c>
       <c r="D13">
-        <v>860</v>
+        <v>1060</v>
       </c>
       <c r="E13">
-        <v>1299</v>
+        <v>1580</v>
       </c>
       <c r="F13">
-        <v>2468</v>
+        <v>275</v>
       </c>
       <c r="G13" t="s">
         <v>91</v>
@@ -4199,7 +4113,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s">
         <v>93</v>
@@ -4208,13 +4122,13 @@
         <v>106</v>
       </c>
       <c r="D14">
-        <v>1060</v>
+        <v>2310</v>
       </c>
       <c r="E14">
-        <v>1580</v>
+        <v>1740</v>
       </c>
       <c r="F14">
-        <v>275</v>
+        <v>825</v>
       </c>
       <c r="G14" t="s">
         <v>91</v>
@@ -4237,7 +4151,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s">
         <v>93</v>
@@ -4246,13 +4160,13 @@
         <v>107</v>
       </c>
       <c r="D15">
-        <v>2310</v>
+        <v>1320</v>
       </c>
       <c r="E15">
-        <v>1740</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>825</v>
+        <v>1175</v>
       </c>
       <c r="G15" t="s">
         <v>91</v>
@@ -4275,7 +4189,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s">
         <v>93</v>
@@ -4284,13 +4198,13 @@
         <v>108</v>
       </c>
       <c r="D16">
-        <v>1320</v>
+        <v>1410</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1692</v>
       </c>
       <c r="F16">
-        <v>1175</v>
+        <v>825</v>
       </c>
       <c r="G16" t="s">
         <v>91</v>
@@ -4313,7 +4227,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s">
         <v>93</v>
@@ -4322,13 +4236,13 @@
         <v>109</v>
       </c>
       <c r="D17">
-        <v>1410</v>
+        <v>1010</v>
       </c>
       <c r="E17">
-        <v>1692</v>
+        <v>1535</v>
       </c>
       <c r="F17">
-        <v>825</v>
+        <v>-25</v>
       </c>
       <c r="G17" t="s">
         <v>91</v>
@@ -4351,7 +4265,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s">
         <v>93</v>
@@ -4360,13 +4274,13 @@
         <v>110</v>
       </c>
       <c r="D18">
-        <v>1010</v>
+        <v>1285</v>
       </c>
       <c r="E18">
-        <v>1535</v>
+        <v>1592</v>
       </c>
       <c r="F18">
-        <v>-25</v>
+        <v>-24</v>
       </c>
       <c r="G18" t="s">
         <v>91</v>
@@ -4389,7 +4303,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
         <v>93</v>
@@ -4398,13 +4312,13 @@
         <v>111</v>
       </c>
       <c r="D19">
-        <v>1285</v>
+        <v>2310</v>
       </c>
       <c r="E19">
-        <v>1592</v>
+        <v>1505</v>
       </c>
       <c r="F19">
-        <v>-24</v>
+        <v>547</v>
       </c>
       <c r="G19" t="s">
         <v>91</v>
@@ -4427,22 +4341,22 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
         <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="D20">
-        <v>2310</v>
+        <v>1010</v>
       </c>
       <c r="E20">
-        <v>1505</v>
+        <v>1535</v>
       </c>
       <c r="F20">
-        <v>547</v>
+        <v>-77</v>
       </c>
       <c r="G20" t="s">
         <v>91</v>
@@ -4460,6 +4374,44 @@
         <v>2900</v>
       </c>
       <c r="M20">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21">
+        <v>645</v>
+      </c>
+      <c r="E21">
+        <v>1112</v>
+      </c>
+      <c r="F21">
+        <v>-77</v>
+      </c>
+      <c r="G21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21">
+        <v>6</v>
+      </c>
+      <c r="I21" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>2900</v>
+      </c>
+      <c r="M21">
         <v>1932</v>
       </c>
     </row>
@@ -4470,13 +4422,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="B1:O1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4518,120 +4472,6 @@
       </c>
       <c r="O1" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>50</v>
-      </c>
-      <c r="B2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2">
-        <v>2560</v>
-      </c>
-      <c r="E2">
-        <v>615</v>
-      </c>
-      <c r="F2">
-        <v>210</v>
-      </c>
-      <c r="G2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>2900</v>
-      </c>
-      <c r="M2">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>94</v>
-      </c>
-      <c r="B3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3">
-        <v>2200</v>
-      </c>
-      <c r="E3">
-        <v>215</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="G3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>2900</v>
-      </c>
-      <c r="M3">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>95</v>
-      </c>
-      <c r="B4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4">
-        <v>2100</v>
-      </c>
-      <c r="E4">
-        <v>115</v>
-      </c>
-      <c r="F4">
-        <v>175</v>
-      </c>
-      <c r="G4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
-      <c r="I4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>2900</v>
-      </c>
-      <c r="M4">
-        <v>1932</v>
       </c>
     </row>
   </sheetData>

--- a/Greyform/Python_Application/exporteddatassss(with TMP)(draft)(tetra).xlsx
+++ b/Greyform/Python_Application/exporteddatassss(with TMP)(draft)(tetra).xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MokZhiZhuan\OneDrive - WINSYS TECHNOLOGY PTE LTD\Documents\GitHub\GreyForm_UI\Greyform\Python_Application\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E0A2B8-05A5-4D71-8801-7FBF2EDAC3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Stage 2" sheetId="1" r:id="rId1"/>
     <sheet name="Stage 3" sheetId="2" r:id="rId2"/>
     <sheet name="Obstacles" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="119">
   <si>
     <t>Marking type</t>
   </si>
@@ -300,6 +294,12 @@
     <t>F</t>
   </si>
   <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>blank</t>
   </si>
   <si>
@@ -315,6 +315,9 @@
     <t>BSS.TECE.CONCEALED CISTERN.9370224:BSS.TECE.CONCEALED CISTERN.9370224:1090923</t>
   </si>
   <si>
+    <t>M_Coupling - Threaded - MI - Class 150:Standard:1018144</t>
+  </si>
+  <si>
     <t>BSS.GOMGO.PH.GG-6106:Chrome 000:1090992</t>
   </si>
   <si>
@@ -358,13 +361,25 @@
   </si>
   <si>
     <t>BSS.Bottle Trap:BSS.Bottle trap:1018126</t>
+  </si>
+  <si>
+    <t>Obstacles</t>
+  </si>
+  <si>
+    <t>BSS.Gate Valve:20 mm:1018294</t>
+  </si>
+  <si>
+    <t>BSS.Gate Valve:32 mm:1040816</t>
+  </si>
+  <si>
+    <t>BSS.Gate Valve:32 mm:1040885</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,21 +442,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -479,7 +486,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -513,7 +520,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -548,10 +554,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -724,19 +729,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:XFD77"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -780,7 +780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>179</v>
       </c>
@@ -806,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -818,7 +818,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>167</v>
       </c>
@@ -844,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -856,7 +856,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>166</v>
       </c>
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -894,7 +894,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>165</v>
       </c>
@@ -920,7 +920,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -932,7 +932,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>170</v>
       </c>
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -970,7 +970,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>171</v>
       </c>
@@ -996,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1008,7 +1008,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>172</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1046,7 +1046,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>173</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1084,7 +1084,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>174</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,7 +1122,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>175</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1160,7 +1160,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>176</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1198,7 +1198,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>177</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1236,7 +1236,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>178</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1274,7 +1274,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>168</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1312,7 +1312,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>169</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1350,7 +1350,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>181</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1388,7 +1388,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>182</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1426,7 +1426,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>183</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1464,7 +1464,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>184</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1502,7 +1502,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>185</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1540,7 +1540,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>186</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1578,7 +1578,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>187</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -1616,7 +1616,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>188</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -1654,7 +1654,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>180</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1692,7 +1692,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>237</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -1730,7 +1730,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>190</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -1768,7 +1768,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>191</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -1806,7 +1806,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>192</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -1844,7 +1844,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>189</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -1882,7 +1882,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>238</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -1920,7 +1920,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>196</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>45</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E32">
         <v>445</v>
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -1958,7 +1958,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>194</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>46</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E33">
         <v>445</v>
@@ -1984,7 +1984,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -1996,7 +1996,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>195</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>47</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E34">
         <v>445</v>
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2034,7 +2034,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>197</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>48</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2060,7 +2060,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2072,7 +2072,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>198</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>49</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2110,7 +2110,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>199</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>50</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2136,7 +2136,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -2148,7 +2148,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
         <v>200</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>51</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -2186,7 +2186,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
         <v>193</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>52</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E39">
         <v>445</v>
@@ -2212,7 +2212,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -2224,7 +2224,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
         <v>201</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -2262,7 +2262,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
         <v>203</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -2300,7 +2300,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
         <v>205</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -2338,7 +2338,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
         <v>206</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -2376,7 +2376,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
         <v>207</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -2414,7 +2414,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13">
       <c r="A45" s="1">
         <v>208</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -2452,7 +2452,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13">
       <c r="A46" s="1">
         <v>202</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -2490,7 +2490,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13">
       <c r="A47" s="1">
         <v>204</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -2528,7 +2528,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13">
       <c r="A48" s="1">
         <v>216</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>61</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E48">
         <v>750</v>
@@ -2554,7 +2554,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -2566,7 +2566,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49" s="1">
         <v>215</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>62</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E49">
         <v>750</v>
@@ -2592,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -2604,7 +2604,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50" s="1">
         <v>214</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>63</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E50">
         <v>150</v>
@@ -2630,7 +2630,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -2642,7 +2642,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="A51" s="1">
         <v>213</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>64</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E51">
         <v>150</v>
@@ -2668,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -2680,7 +2680,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52" s="1">
         <v>212</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>65</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E52">
         <v>-450</v>
@@ -2706,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -2718,7 +2718,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="A53" s="1">
         <v>211</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>66</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E53">
         <v>-450</v>
@@ -2744,7 +2744,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -2756,7 +2756,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54" s="1">
         <v>210</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>67</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E54">
         <v>-900</v>
@@ -2782,7 +2782,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -2794,7 +2794,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55" s="1">
         <v>209</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>68</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E55">
         <v>-900</v>
@@ -2820,7 +2820,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -2832,7 +2832,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56" s="1">
         <v>222</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -2870,7 +2870,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57" s="1">
         <v>219</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -2908,7 +2908,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="A58" s="1">
         <v>218</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -2946,7 +2946,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59" s="1">
         <v>217</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -2984,7 +2984,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60" s="1">
         <v>221</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -3022,7 +3022,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13">
       <c r="A61" s="1">
         <v>220</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -3060,7 +3060,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13">
       <c r="A62" s="1">
         <v>224</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -3098,7 +3098,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13">
       <c r="A63" s="1">
         <v>223</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -3136,7 +3136,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13">
       <c r="A64" s="1">
         <v>235</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -3174,7 +3174,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13">
       <c r="A65" s="1">
         <v>236</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -3212,7 +3212,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13">
       <c r="A66" s="1">
         <v>233</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -3250,7 +3250,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13">
       <c r="A67" s="1">
         <v>232</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -3288,7 +3288,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13">
       <c r="A68" s="1">
         <v>231</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -3326,7 +3326,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13">
       <c r="A69" s="1">
         <v>230</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -3364,7 +3364,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13">
       <c r="A70" s="1">
         <v>229</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -3402,7 +3402,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13">
       <c r="A71" s="1">
         <v>228</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -3440,7 +3440,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13">
       <c r="A72" s="1">
         <v>227</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -3478,7 +3478,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13">
       <c r="A73" s="1">
         <v>226</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -3516,7 +3516,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13">
       <c r="A74" s="1">
         <v>225</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -3554,7 +3554,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13">
       <c r="A75" s="1">
         <v>234</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -3589,6 +3589,82 @@
         <v>2900</v>
       </c>
       <c r="M75">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" t="s">
+        <v>89</v>
+      </c>
+      <c r="D76">
+        <v>1010</v>
+      </c>
+      <c r="E76">
+        <v>1535</v>
+      </c>
+      <c r="F76">
+        <v>-77</v>
+      </c>
+      <c r="G76" t="s">
+        <v>91</v>
+      </c>
+      <c r="H76">
+        <v>6</v>
+      </c>
+      <c r="I76" t="s">
+        <v>94</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>2900</v>
+      </c>
+      <c r="M76">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="1">
+        <v>36</v>
+      </c>
+      <c r="B77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" t="s">
+        <v>90</v>
+      </c>
+      <c r="D77">
+        <v>645</v>
+      </c>
+      <c r="E77">
+        <v>1112</v>
+      </c>
+      <c r="F77">
+        <v>-77</v>
+      </c>
+      <c r="G77" t="s">
+        <v>91</v>
+      </c>
+      <c r="H77">
+        <v>6</v>
+      </c>
+      <c r="I77" t="s">
+        <v>94</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>2900</v>
+      </c>
+      <c r="M77">
         <v>1932</v>
       </c>
     </row>
@@ -3598,20 +3674,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3655,18 +3725,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1202</v>
       </c>
       <c r="E2">
         <v>160</v>
@@ -3681,7 +3751,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -3693,18 +3763,18 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E3">
         <v>210</v>
@@ -3719,7 +3789,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -3731,18 +3801,18 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>139</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D4">
-        <v>372</v>
+        <v>1572</v>
       </c>
       <c r="E4">
         <v>714</v>
@@ -3757,7 +3827,7 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -3769,24 +3839,24 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>149</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D5">
-        <v>-1800</v>
+        <v>-1823</v>
       </c>
       <c r="E5">
-        <v>-170</v>
+        <v>243</v>
       </c>
       <c r="F5">
-        <v>-375</v>
+        <v>-800</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -3795,7 +3865,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -3807,62 +3877,62 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D6">
-        <v>37</v>
+        <v>-1800</v>
       </c>
       <c r="E6">
-        <v>-800</v>
+        <v>-170</v>
       </c>
       <c r="F6">
-        <v>-365</v>
+        <v>-375</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1940</v>
+        <v>600</v>
       </c>
       <c r="M6">
         <v>2655</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1837</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="F7">
-        <v>125</v>
+        <v>-365</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -3871,7 +3941,7 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -3883,62 +3953,62 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D8">
-        <v>645</v>
+        <v>1800</v>
       </c>
       <c r="E8">
-        <v>1075</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>-50</v>
-      </c>
-      <c r="G8" t="s">
-        <v>91</v>
+        <v>125</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
       </c>
       <c r="H8">
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>2900</v>
+        <v>1940</v>
       </c>
       <c r="M8">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D9">
-        <v>2235</v>
+        <v>645</v>
       </c>
       <c r="E9">
-        <v>1650</v>
+        <v>1075</v>
       </c>
       <c r="F9">
-        <v>100</v>
+        <v>-50</v>
       </c>
       <c r="G9" t="s">
         <v>91</v>
@@ -3947,7 +4017,7 @@
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -3959,24 +4029,24 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D10">
-        <v>2385</v>
+        <v>2235</v>
       </c>
       <c r="E10">
-        <v>1710</v>
+        <v>1650</v>
       </c>
       <c r="F10">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
         <v>91</v>
@@ -3985,7 +4055,7 @@
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -3997,24 +4067,24 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D11">
-        <v>2660</v>
+        <v>2385</v>
       </c>
       <c r="E11">
-        <v>435</v>
+        <v>1710</v>
       </c>
       <c r="F11">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="G11" t="s">
         <v>91</v>
@@ -4023,7 +4093,7 @@
         <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -4035,24 +4105,24 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D12">
-        <v>860</v>
+        <v>2660</v>
       </c>
       <c r="E12">
-        <v>1299</v>
+        <v>435</v>
       </c>
       <c r="F12">
-        <v>2468</v>
+        <v>210</v>
       </c>
       <c r="G12" t="s">
         <v>91</v>
@@ -4061,7 +4131,7 @@
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -4073,24 +4143,24 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D13">
-        <v>1060</v>
+        <v>860</v>
       </c>
       <c r="E13">
-        <v>1580</v>
+        <v>1299</v>
       </c>
       <c r="F13">
-        <v>275</v>
+        <v>2468</v>
       </c>
       <c r="G13" t="s">
         <v>91</v>
@@ -4099,7 +4169,7 @@
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -4111,24 +4181,24 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D14">
-        <v>2310</v>
+        <v>1060</v>
       </c>
       <c r="E14">
-        <v>1740</v>
+        <v>1580</v>
       </c>
       <c r="F14">
-        <v>825</v>
+        <v>275</v>
       </c>
       <c r="G14" t="s">
         <v>91</v>
@@ -4137,7 +4207,7 @@
         <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -4149,24 +4219,24 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D15">
-        <v>1320</v>
+        <v>2310</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1740</v>
       </c>
       <c r="F15">
-        <v>1175</v>
+        <v>825</v>
       </c>
       <c r="G15" t="s">
         <v>91</v>
@@ -4175,7 +4245,7 @@
         <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -4187,24 +4257,24 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D16">
-        <v>1410</v>
+        <v>1320</v>
       </c>
       <c r="E16">
-        <v>1692</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>825</v>
+        <v>1175</v>
       </c>
       <c r="G16" t="s">
         <v>91</v>
@@ -4213,7 +4283,7 @@
         <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -4225,24 +4295,24 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D17">
-        <v>1010</v>
+        <v>1410</v>
       </c>
       <c r="E17">
-        <v>1535</v>
+        <v>1692</v>
       </c>
       <c r="F17">
-        <v>-25</v>
+        <v>825</v>
       </c>
       <c r="G17" t="s">
         <v>91</v>
@@ -4251,7 +4321,7 @@
         <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -4263,24 +4333,24 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D18">
-        <v>1285</v>
+        <v>1010</v>
       </c>
       <c r="E18">
-        <v>1592</v>
+        <v>1535</v>
       </c>
       <c r="F18">
-        <v>-24</v>
+        <v>-25</v>
       </c>
       <c r="G18" t="s">
         <v>91</v>
@@ -4289,7 +4359,7 @@
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -4301,24 +4371,24 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D19">
-        <v>2310</v>
+        <v>1285</v>
       </c>
       <c r="E19">
-        <v>1505</v>
+        <v>1592</v>
       </c>
       <c r="F19">
-        <v>547</v>
+        <v>-24</v>
       </c>
       <c r="G19" t="s">
         <v>91</v>
@@ -4327,7 +4397,7 @@
         <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -4339,24 +4409,24 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="D20">
-        <v>1010</v>
+        <v>2310</v>
       </c>
       <c r="E20">
-        <v>1535</v>
+        <v>1505</v>
       </c>
       <c r="F20">
-        <v>-77</v>
+        <v>547</v>
       </c>
       <c r="G20" t="s">
         <v>91</v>
@@ -4365,7 +4435,7 @@
         <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -4374,44 +4444,6 @@
         <v>2900</v>
       </c>
       <c r="M20">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21">
-        <v>645</v>
-      </c>
-      <c r="E21">
-        <v>1112</v>
-      </c>
-      <c r="F21">
-        <v>-77</v>
-      </c>
-      <c r="G21" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21">
-        <v>6</v>
-      </c>
-      <c r="I21" t="s">
-        <v>92</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>2900</v>
-      </c>
-      <c r="M21">
         <v>1932</v>
       </c>
     </row>
@@ -4421,16 +4453,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:O1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4472,6 +4502,120 @@
       </c>
       <c r="O1" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2">
+        <v>2560</v>
+      </c>
+      <c r="E2">
+        <v>615</v>
+      </c>
+      <c r="F2">
+        <v>210</v>
+      </c>
+      <c r="G2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>2900</v>
+      </c>
+      <c r="M2">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3">
+        <v>2200</v>
+      </c>
+      <c r="E3">
+        <v>215</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>2900</v>
+      </c>
+      <c r="M3">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4">
+        <v>2100</v>
+      </c>
+      <c r="E4">
+        <v>115</v>
+      </c>
+      <c r="F4">
+        <v>175</v>
+      </c>
+      <c r="G4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>2900</v>
+      </c>
+      <c r="M4">
+        <v>1932</v>
       </c>
     </row>
   </sheetData>

--- a/Greyform/Python_Application/exporteddatassss(with TMP)(draft)(tetra).xlsx
+++ b/Greyform/Python_Application/exporteddatassss(with TMP)(draft)(tetra).xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MokZhiZhuan\OneDrive - WINSYS TECHNOLOGY PTE LTD\Documents\GitHub\GreyForm_UI\Greyform\Python_Application\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E79175-3549-43FE-9B54-C265E56B0A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="390" yWindow="15" windowWidth="23235" windowHeight="15465" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage 2" sheetId="1" r:id="rId1"/>
     <sheet name="Stage 3" sheetId="2" r:id="rId2"/>
     <sheet name="Obstacles" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="111">
   <si>
     <t>Marking type</t>
   </si>
@@ -294,27 +300,15 @@
     <t>F</t>
   </si>
   <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>blank</t>
   </si>
   <si>
     <t>Fitting</t>
   </si>
   <si>
-    <t>BSS.HAND SHOWER SET.MASTER BATH:BSS.HAND SHOWER SET.MASTER BATH:1091130</t>
-  </si>
-  <si>
     <t>BSS.GESSI.SM.49079:29046000:1090989</t>
   </si>
   <si>
-    <t>BSS.TECE.CONCEALED CISTERN.9370224:BSS.TECE.CONCEALED CISTERN.9370224:1090923</t>
-  </si>
-  <si>
     <t>M_Coupling - Threaded - MI - Class 150:Standard:1018144</t>
   </si>
   <si>
@@ -361,25 +355,13 @@
   </si>
   <si>
     <t>BSS.Bottle Trap:BSS.Bottle trap:1018126</t>
-  </si>
-  <si>
-    <t>Obstacles</t>
-  </si>
-  <si>
-    <t>BSS.Gate Valve:20 mm:1018294</t>
-  </si>
-  <si>
-    <t>BSS.Gate Valve:32 mm:1040816</t>
-  </si>
-  <si>
-    <t>BSS.Gate Valve:32 mm:1040885</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,13 +424,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -486,7 +476,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -520,6 +510,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -554,9 +545,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -729,14 +721,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O81" sqref="O81"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -780,7 +774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>179</v>
       </c>
@@ -806,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -818,7 +812,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>167</v>
       </c>
@@ -844,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -856,7 +850,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>166</v>
       </c>
@@ -882,7 +876,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -894,7 +888,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>165</v>
       </c>
@@ -920,7 +914,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -932,7 +926,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>170</v>
       </c>
@@ -958,7 +952,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -970,7 +964,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>171</v>
       </c>
@@ -996,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1008,7 +1002,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>172</v>
       </c>
@@ -1034,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1046,7 +1040,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>173</v>
       </c>
@@ -1072,7 +1066,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1084,7 +1078,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>174</v>
       </c>
@@ -1110,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,7 +1116,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>175</v>
       </c>
@@ -1148,7 +1142,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1160,7 +1154,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>176</v>
       </c>
@@ -1186,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1198,7 +1192,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>177</v>
       </c>
@@ -1224,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1236,7 +1230,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>178</v>
       </c>
@@ -1262,7 +1256,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1274,7 +1268,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>168</v>
       </c>
@@ -1300,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1312,7 +1306,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>169</v>
       </c>
@@ -1338,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1350,7 +1344,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>181</v>
       </c>
@@ -1376,7 +1370,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1388,7 +1382,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>182</v>
       </c>
@@ -1414,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1426,7 +1420,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>183</v>
       </c>
@@ -1452,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1464,7 +1458,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>184</v>
       </c>
@@ -1490,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1502,7 +1496,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>185</v>
       </c>
@@ -1528,7 +1522,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1540,7 +1534,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>186</v>
       </c>
@@ -1566,7 +1560,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1578,7 +1572,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>187</v>
       </c>
@@ -1604,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -1616,7 +1610,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>188</v>
       </c>
@@ -1642,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -1654,7 +1648,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>180</v>
       </c>
@@ -1680,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1692,7 +1686,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>237</v>
       </c>
@@ -1718,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -1730,7 +1724,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>190</v>
       </c>
@@ -1756,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -1768,7 +1762,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>191</v>
       </c>
@@ -1794,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -1806,7 +1800,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>192</v>
       </c>
@@ -1832,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -1844,7 +1838,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>189</v>
       </c>
@@ -1870,7 +1864,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -1882,7 +1876,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>238</v>
       </c>
@@ -1908,7 +1902,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -1920,7 +1914,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>196</v>
       </c>
@@ -1946,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -1958,7 +1952,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>194</v>
       </c>
@@ -1984,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -1996,7 +1990,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>195</v>
       </c>
@@ -2022,7 +2016,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2034,7 +2028,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>197</v>
       </c>
@@ -2060,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2072,7 +2066,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>198</v>
       </c>
@@ -2098,7 +2092,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2110,7 +2104,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>199</v>
       </c>
@@ -2136,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -2148,7 +2142,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>200</v>
       </c>
@@ -2174,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -2186,7 +2180,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>193</v>
       </c>
@@ -2212,7 +2206,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -2224,7 +2218,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>201</v>
       </c>
@@ -2235,7 +2229,7 @@
         <v>53</v>
       </c>
       <c r="D40">
-        <v>-1800</v>
+        <v>960</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2250,7 +2244,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -2262,7 +2256,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>203</v>
       </c>
@@ -2273,7 +2267,7 @@
         <v>54</v>
       </c>
       <c r="D41">
-        <v>-1800</v>
+        <v>960</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2288,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -2300,7 +2294,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>205</v>
       </c>
@@ -2311,7 +2305,7 @@
         <v>55</v>
       </c>
       <c r="D42">
-        <v>-1800</v>
+        <v>960</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2326,7 +2320,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -2338,7 +2332,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>206</v>
       </c>
@@ -2349,7 +2343,7 @@
         <v>56</v>
       </c>
       <c r="D43">
-        <v>-1800</v>
+        <v>960</v>
       </c>
       <c r="E43">
         <v>-300</v>
@@ -2364,7 +2358,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -2376,7 +2370,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>207</v>
       </c>
@@ -2387,7 +2381,7 @@
         <v>57</v>
       </c>
       <c r="D44">
-        <v>-1800</v>
+        <v>960</v>
       </c>
       <c r="E44">
         <v>-300</v>
@@ -2402,7 +2396,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -2414,7 +2408,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>208</v>
       </c>
@@ -2425,7 +2419,7 @@
         <v>58</v>
       </c>
       <c r="D45">
-        <v>-1800</v>
+        <v>960</v>
       </c>
       <c r="E45">
         <v>-300</v>
@@ -2440,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -2452,7 +2446,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>202</v>
       </c>
@@ -2463,7 +2457,7 @@
         <v>59</v>
       </c>
       <c r="D46">
-        <v>-1800</v>
+        <v>960</v>
       </c>
       <c r="E46">
         <v>-300</v>
@@ -2478,7 +2472,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -2490,7 +2484,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>204</v>
       </c>
@@ -2501,7 +2495,7 @@
         <v>60</v>
       </c>
       <c r="D47">
-        <v>-1800</v>
+        <v>960</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2516,7 +2510,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -2528,7 +2522,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>216</v>
       </c>
@@ -2539,7 +2533,7 @@
         <v>61</v>
       </c>
       <c r="D48">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="E48">
         <v>750</v>
@@ -2554,7 +2548,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -2566,7 +2560,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>215</v>
       </c>
@@ -2577,7 +2571,7 @@
         <v>62</v>
       </c>
       <c r="D49">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="E49">
         <v>750</v>
@@ -2592,7 +2586,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -2604,7 +2598,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>214</v>
       </c>
@@ -2615,7 +2609,7 @@
         <v>63</v>
       </c>
       <c r="D50">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="E50">
         <v>150</v>
@@ -2630,7 +2624,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -2642,7 +2636,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>213</v>
       </c>
@@ -2653,7 +2647,7 @@
         <v>64</v>
       </c>
       <c r="D51">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="E51">
         <v>150</v>
@@ -2668,7 +2662,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -2680,7 +2674,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>212</v>
       </c>
@@ -2691,7 +2685,7 @@
         <v>65</v>
       </c>
       <c r="D52">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="E52">
         <v>-450</v>
@@ -2706,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -2718,7 +2712,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>211</v>
       </c>
@@ -2729,7 +2723,7 @@
         <v>66</v>
       </c>
       <c r="D53">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="E53">
         <v>-450</v>
@@ -2744,7 +2738,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -2756,7 +2750,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>210</v>
       </c>
@@ -2767,7 +2761,7 @@
         <v>67</v>
       </c>
       <c r="D54">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="E54">
         <v>-900</v>
@@ -2782,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -2794,7 +2788,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>209</v>
       </c>
@@ -2805,7 +2799,7 @@
         <v>68</v>
       </c>
       <c r="D55">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="E55">
         <v>-900</v>
@@ -2820,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -2832,7 +2826,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>222</v>
       </c>
@@ -2843,7 +2837,7 @@
         <v>69</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E56">
         <v>300</v>
@@ -2858,7 +2852,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -2870,7 +2864,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>219</v>
       </c>
@@ -2881,7 +2875,7 @@
         <v>70</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E57">
         <v>-300</v>
@@ -2896,7 +2890,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -2908,7 +2902,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>218</v>
       </c>
@@ -2919,7 +2913,7 @@
         <v>71</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E58">
         <v>-300</v>
@@ -2934,7 +2928,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -2946,7 +2940,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>217</v>
       </c>
@@ -2957,7 +2951,7 @@
         <v>72</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E59">
         <v>-300</v>
@@ -2972,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -2984,7 +2978,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>221</v>
       </c>
@@ -2995,7 +2989,7 @@
         <v>73</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E60">
         <v>300</v>
@@ -3010,7 +3004,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -3022,7 +3016,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>220</v>
       </c>
@@ -3033,7 +3027,7 @@
         <v>74</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E61">
         <v>-300</v>
@@ -3048,7 +3042,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -3060,7 +3054,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>224</v>
       </c>
@@ -3071,7 +3065,7 @@
         <v>75</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E62">
         <v>300</v>
@@ -3086,7 +3080,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -3098,7 +3092,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>223</v>
       </c>
@@ -3109,7 +3103,7 @@
         <v>76</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E63">
         <v>300</v>
@@ -3124,7 +3118,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -3136,7 +3130,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>235</v>
       </c>
@@ -3162,7 +3156,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -3174,7 +3168,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>236</v>
       </c>
@@ -3200,7 +3194,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -3212,7 +3206,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>233</v>
       </c>
@@ -3238,7 +3232,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -3250,7 +3244,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>232</v>
       </c>
@@ -3276,7 +3270,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -3288,7 +3282,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>231</v>
       </c>
@@ -3314,7 +3308,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -3326,7 +3320,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>230</v>
       </c>
@@ -3352,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -3364,7 +3358,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>229</v>
       </c>
@@ -3390,7 +3384,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -3402,7 +3396,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>228</v>
       </c>
@@ -3428,7 +3422,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -3440,7 +3434,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>227</v>
       </c>
@@ -3466,7 +3460,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -3478,7 +3472,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>226</v>
       </c>
@@ -3504,7 +3498,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -3516,7 +3510,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>225</v>
       </c>
@@ -3542,7 +3536,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -3554,7 +3548,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>234</v>
       </c>
@@ -3580,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -3589,82 +3583,6 @@
         <v>2900</v>
       </c>
       <c r="M75">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>14</v>
-      </c>
-      <c r="C76" t="s">
-        <v>89</v>
-      </c>
-      <c r="D76">
-        <v>1010</v>
-      </c>
-      <c r="E76">
-        <v>1535</v>
-      </c>
-      <c r="F76">
-        <v>-77</v>
-      </c>
-      <c r="G76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H76">
-        <v>6</v>
-      </c>
-      <c r="I76" t="s">
-        <v>94</v>
-      </c>
-      <c r="J76">
-        <v>1</v>
-      </c>
-      <c r="L76">
-        <v>2900</v>
-      </c>
-      <c r="M76">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="A77" s="1">
-        <v>36</v>
-      </c>
-      <c r="B77" t="s">
-        <v>14</v>
-      </c>
-      <c r="C77" t="s">
-        <v>90</v>
-      </c>
-      <c r="D77">
-        <v>645</v>
-      </c>
-      <c r="E77">
-        <v>1112</v>
-      </c>
-      <c r="F77">
-        <v>-77</v>
-      </c>
-      <c r="G77" t="s">
-        <v>91</v>
-      </c>
-      <c r="H77">
-        <v>6</v>
-      </c>
-      <c r="I77" t="s">
-        <v>94</v>
-      </c>
-      <c r="J77">
-        <v>1</v>
-      </c>
-      <c r="L77">
-        <v>2900</v>
-      </c>
-      <c r="M77">
         <v>1932</v>
       </c>
     </row>
@@ -3674,14 +3592,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3725,24 +3645,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D2">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E2">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="F2">
-        <v>-181</v>
+        <v>-50</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -3751,7 +3671,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -3763,252 +3683,252 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>146</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
         <v>95</v>
       </c>
-      <c r="C3" t="s">
-        <v>97</v>
-      </c>
       <c r="D3">
-        <v>1200</v>
+        <v>937</v>
       </c>
       <c r="E3">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="F3">
-        <v>-50</v>
+        <v>-800</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="L3">
+        <v>600</v>
+      </c>
+      <c r="M3">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>149</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4">
         <v>960</v>
       </c>
-      <c r="M3">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
-        <v>139</v>
-      </c>
-      <c r="B4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4">
-        <v>1572</v>
-      </c>
       <c r="E4">
-        <v>714</v>
+        <v>-170</v>
       </c>
       <c r="F4">
-        <v>-715</v>
+        <v>-375</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>960</v>
+        <v>600</v>
       </c>
       <c r="M4">
         <v>2655</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D5">
-        <v>-1823</v>
+        <v>637</v>
       </c>
       <c r="E5">
-        <v>243</v>
+        <v>-800</v>
       </c>
       <c r="F5">
-        <v>-800</v>
+        <v>-365</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="L5">
+        <v>1940</v>
+      </c>
+      <c r="M5">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>143</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6">
         <v>600</v>
       </c>
-      <c r="M5">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
-        <v>149</v>
-      </c>
-      <c r="B6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <v>-1800</v>
-      </c>
       <c r="E6">
-        <v>-170</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>-375</v>
+        <v>125</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>600</v>
+        <v>1940</v>
       </c>
       <c r="M6">
         <v>2655</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D7">
-        <v>1837</v>
+        <v>645</v>
       </c>
       <c r="E7">
-        <v>-800</v>
+        <v>1075</v>
       </c>
       <c r="F7">
-        <v>-365</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
+        <v>-50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>91</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1940</v>
+        <v>2900</v>
       </c>
       <c r="M7">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>143</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D8">
-        <v>1800</v>
+        <v>2235</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="F8">
-        <v>125</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>91</v>
       </c>
       <c r="H8">
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1940</v>
+        <v>2900</v>
       </c>
       <c r="M8">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>159</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D9">
-        <v>645</v>
+        <v>2385</v>
       </c>
       <c r="E9">
-        <v>1075</v>
+        <v>1710</v>
       </c>
       <c r="F9">
-        <v>-50</v>
+        <v>175</v>
       </c>
       <c r="G9" t="s">
         <v>91</v>
@@ -4017,7 +3937,7 @@
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -4029,24 +3949,24 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D10">
-        <v>2235</v>
+        <v>2660</v>
       </c>
       <c r="E10">
-        <v>1650</v>
+        <v>435</v>
       </c>
       <c r="F10">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="G10" t="s">
         <v>91</v>
@@ -4055,7 +3975,7 @@
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -4067,24 +3987,24 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D11">
-        <v>2385</v>
+        <v>860</v>
       </c>
       <c r="E11">
-        <v>1710</v>
+        <v>1299</v>
       </c>
       <c r="F11">
-        <v>175</v>
+        <v>2468</v>
       </c>
       <c r="G11" t="s">
         <v>91</v>
@@ -4093,7 +4013,7 @@
         <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -4105,24 +4025,24 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D12">
-        <v>2660</v>
+        <v>1060</v>
       </c>
       <c r="E12">
-        <v>435</v>
+        <v>1580</v>
       </c>
       <c r="F12">
-        <v>210</v>
+        <v>275</v>
       </c>
       <c r="G12" t="s">
         <v>91</v>
@@ -4131,7 +4051,7 @@
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -4143,24 +4063,24 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D13">
-        <v>860</v>
+        <v>2310</v>
       </c>
       <c r="E13">
-        <v>1299</v>
+        <v>1740</v>
       </c>
       <c r="F13">
-        <v>2468</v>
+        <v>825</v>
       </c>
       <c r="G13" t="s">
         <v>91</v>
@@ -4169,7 +4089,7 @@
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -4181,24 +4101,24 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D14">
-        <v>1060</v>
+        <v>1320</v>
       </c>
       <c r="E14">
-        <v>1580</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>275</v>
+        <v>1175</v>
       </c>
       <c r="G14" t="s">
         <v>91</v>
@@ -4207,7 +4127,7 @@
         <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -4219,21 +4139,21 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D15">
-        <v>2310</v>
+        <v>1410</v>
       </c>
       <c r="E15">
-        <v>1740</v>
+        <v>1692</v>
       </c>
       <c r="F15">
         <v>825</v>
@@ -4245,7 +4165,7 @@
         <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -4257,24 +4177,24 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D16">
-        <v>1320</v>
+        <v>1010</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1535</v>
       </c>
       <c r="F16">
-        <v>1175</v>
+        <v>-25</v>
       </c>
       <c r="G16" t="s">
         <v>91</v>
@@ -4283,7 +4203,7 @@
         <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -4295,24 +4215,24 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D17">
-        <v>1410</v>
+        <v>1285</v>
       </c>
       <c r="E17">
-        <v>1692</v>
+        <v>1592</v>
       </c>
       <c r="F17">
-        <v>825</v>
+        <v>-24</v>
       </c>
       <c r="G17" t="s">
         <v>91</v>
@@ -4321,7 +4241,7 @@
         <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -4333,24 +4253,24 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D18">
-        <v>1010</v>
+        <v>2310</v>
       </c>
       <c r="E18">
-        <v>1535</v>
+        <v>1505</v>
       </c>
       <c r="F18">
-        <v>-25</v>
+        <v>547</v>
       </c>
       <c r="G18" t="s">
         <v>91</v>
@@ -4359,7 +4279,7 @@
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -4371,24 +4291,24 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="D19">
-        <v>1285</v>
+        <v>1010</v>
       </c>
       <c r="E19">
-        <v>1592</v>
+        <v>1535</v>
       </c>
       <c r="F19">
-        <v>-24</v>
+        <v>-77</v>
       </c>
       <c r="G19" t="s">
         <v>91</v>
@@ -4397,7 +4317,7 @@
         <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -4409,24 +4329,24 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="D20">
-        <v>2310</v>
+        <v>645</v>
       </c>
       <c r="E20">
-        <v>1505</v>
+        <v>1112</v>
       </c>
       <c r="F20">
-        <v>547</v>
+        <v>-77</v>
       </c>
       <c r="G20" t="s">
         <v>91</v>
@@ -4435,7 +4355,7 @@
         <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -4453,14 +4373,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:O1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4502,120 +4424,6 @@
       </c>
       <c r="O1" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1">
-        <v>50</v>
-      </c>
-      <c r="B2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2">
-        <v>2560</v>
-      </c>
-      <c r="E2">
-        <v>615</v>
-      </c>
-      <c r="F2">
-        <v>210</v>
-      </c>
-      <c r="G2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>2900</v>
-      </c>
-      <c r="M2">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
-        <v>94</v>
-      </c>
-      <c r="B3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3">
-        <v>2200</v>
-      </c>
-      <c r="E3">
-        <v>215</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="G3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>2900</v>
-      </c>
-      <c r="M3">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
-        <v>95</v>
-      </c>
-      <c r="B4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4">
-        <v>2100</v>
-      </c>
-      <c r="E4">
-        <v>115</v>
-      </c>
-      <c r="F4">
-        <v>175</v>
-      </c>
-      <c r="G4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
-      <c r="I4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>2900</v>
-      </c>
-      <c r="M4">
-        <v>1932</v>
       </c>
     </row>
   </sheetData>

--- a/Greyform/Python_Application/exporteddatassss(with TMP)(draft)(tetra).xlsx
+++ b/Greyform/Python_Application/exporteddatassss(with TMP)(draft)(tetra).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MokZhiZhuan\OneDrive - WINSYS TECHNOLOGY PTE LTD\Documents\GitHub\GreyForm_UI\Greyform\Python_Application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E79175-3549-43FE-9B54-C265E56B0A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83ADEE1-E04E-4FA2-AF65-6BA215891647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="15" windowWidth="23235" windowHeight="15465" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="15" windowWidth="23235" windowHeight="15465" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage 2" sheetId="1" r:id="rId1"/>
@@ -724,11 +724,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="O81" sqref="O81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -3595,11 +3608,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -4376,11 +4402,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:O1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">

--- a/Greyform/Python_Application/exporteddatassss(with TMP)(draft)(tetra).xlsx
+++ b/Greyform/Python_Application/exporteddatassss(with TMP)(draft)(tetra).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MokZhiZhuan\OneDrive - WINSYS TECHNOLOGY PTE LTD\Documents\GitHub\GreyForm_UI\Greyform\Python_Application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83ADEE1-E04E-4FA2-AF65-6BA215891647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA1DC60-64C0-4B11-A71F-8AFD1976F0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="15" windowWidth="23235" windowHeight="15465" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="15" windowWidth="23235" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage 2" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="110">
   <si>
     <t>Marking type</t>
   </si>
@@ -72,6 +72,24 @@
     <t>TMP1S2d2:TMP1S2d2:1155209</t>
   </si>
   <si>
+    <t>TMP1S2c4:TMP1S2c4:1155202</t>
+  </si>
+  <si>
+    <t>TMP1S2b1:TMP1S2b1:1155200</t>
+  </si>
+  <si>
+    <t>TMP1S2b2:TMP1S2b2:1155199</t>
+  </si>
+  <si>
+    <t>TMP1S2b3:TMP1S2b3:1155198</t>
+  </si>
+  <si>
+    <t>TMP1S2b4:TMP1S2b4:1155197</t>
+  </si>
+  <si>
+    <t>TMP1S2a1:TMP1S2a1:1155195</t>
+  </si>
+  <si>
     <t>TMP1S2a2:TMP1S2a2:1155194</t>
   </si>
   <si>
@@ -81,16 +99,13 @@
     <t>TMP1S2a4:TMP1S2a4:1155192</t>
   </si>
   <si>
-    <t>TMP1S2b3:TMP1S2b3:1155198</t>
-  </si>
-  <si>
-    <t>TMP1S2b2:TMP1S2b2:1155199</t>
-  </si>
-  <si>
-    <t>TMP1S2b1:TMP1S2b1:1155200</t>
-  </si>
-  <si>
-    <t>TMP1S2c4:TMP1S2c4:1155202</t>
+    <t>TMP1S2c1:TMP1S2c1:1155205</t>
+  </si>
+  <si>
+    <t>TMP1S2d4:TMP1S2d4:1155207</t>
+  </si>
+  <si>
+    <t>TMP1S2d3:TMP1S2d3:1155208</t>
   </si>
   <si>
     <t>TMP1S2c3:TMP1S2c3:1155203</t>
@@ -99,21 +114,6 @@
     <t>TMP1S2c2:TMP1S2c2:1155204</t>
   </si>
   <si>
-    <t>TMP1S2c1:TMP1S2c1:1155205</t>
-  </si>
-  <si>
-    <t>TMP1S2d4:TMP1S2d4:1155207</t>
-  </si>
-  <si>
-    <t>TMP1S2d3:TMP1S2d3:1155208</t>
-  </si>
-  <si>
-    <t>TMP1S2a1:TMP1S2a1:1155195</t>
-  </si>
-  <si>
-    <t>TMP1S2b4:TMP1S2b4:1155197</t>
-  </si>
-  <si>
     <t>TMP1S2e4:TMP1S2e4:1155212</t>
   </si>
   <si>
@@ -141,124 +141,127 @@
     <t>TMP1S2d1:TMP1S2d1:1155210</t>
   </si>
   <si>
+    <t>TMP2S2b2:TMP2S2b2:1155222</t>
+  </si>
+  <si>
+    <t>TMP2S2b1:TMP2S2b1:1155223</t>
+  </si>
+  <si>
+    <t>TMP2S2a2:TMP2S2a2:1155224</t>
+  </si>
+  <si>
     <t>TMP2S2c2:TMP2S2c2:1156962</t>
   </si>
   <si>
-    <t>TMP2S2b1:TMP2S2b1:1155223</t>
-  </si>
-  <si>
-    <t>TMP2S2a2:TMP2S2a2:1155224</t>
-  </si>
-  <si>
     <t>TMP2S2a1:TMP2S2a1:1155225</t>
   </si>
   <si>
-    <t>TMP2S2b2:TMP2S2b2:1155222</t>
-  </si>
-  <si>
     <t>TMP2S2c1:TMP2S2c1:1156963</t>
   </si>
   <si>
+    <t>TMP3S2a1:TMP3S2a1:1155234</t>
+  </si>
+  <si>
+    <t>TMP3S2b1:TMP3S2b1:1155229</t>
+  </si>
+  <si>
     <t>TMP3S2b2:TMP3S2b2:1155230</t>
   </si>
   <si>
+    <t>TMP3S2a4:TMP3S2a4:1155231</t>
+  </si>
+  <si>
+    <t>TMP3S2a3:TMP3S2a3:1155232</t>
+  </si>
+  <si>
+    <t>TMP3S2a2:TMP3S2a2:1155233</t>
+  </si>
+  <si>
     <t>TMP3S2b3:TMP3S2b3:1155228</t>
   </si>
   <si>
-    <t>TMP3S2b1:TMP3S2b1:1155229</t>
-  </si>
-  <si>
-    <t>TMP3S2a4:TMP3S2a4:1155231</t>
-  </si>
-  <si>
-    <t>TMP3S2a3:TMP3S2a3:1155232</t>
-  </si>
-  <si>
-    <t>TMP3S2a2:TMP3S2a2:1155233</t>
-  </si>
-  <si>
-    <t>TMP3S2a1:TMP3S2a1:1155234</t>
-  </si>
-  <si>
     <t>TMP3S2b4:TMP3S2b4:1155227</t>
   </si>
   <si>
     <t>TMP4S2b4:TMP4S2b4:1155236</t>
   </si>
   <si>
+    <t>TMP4S2b2:TMP4S2b2:1155239</t>
+  </si>
+  <si>
+    <t>TMP4S2b1:TMP4S2b1:1155240</t>
+  </si>
+  <si>
+    <t>TMP4S2a3:TMP4S2a3:1155241</t>
+  </si>
+  <si>
+    <t>TMP4S2a1:TMP4S2a1:1155243</t>
+  </si>
+  <si>
     <t>TMP4S2b3:TMP4S2b3:1155238</t>
   </si>
   <si>
-    <t>TMP4S2b1:TMP4S2b1:1155240</t>
-  </si>
-  <si>
-    <t>TMP4S2a3:TMP4S2a3:1155241</t>
+    <t>TMP4S2a4:TMP4S2a4:1155237</t>
   </si>
   <si>
     <t>TMP4S2a2:TMP4S2a2:1155242</t>
   </si>
   <si>
-    <t>TMP4S2a1:TMP4S2a1:1155243</t>
-  </si>
-  <si>
-    <t>TMP4S2a4:TMP4S2a4:1155237</t>
-  </si>
-  <si>
-    <t>TMP4S2b2:TMP4S2b2:1155239</t>
+    <t>TMP5S2a4:TMP5S2a4:1155245</t>
+  </si>
+  <si>
+    <t>TMP5S2b3:TMP5S2b3:1155248</t>
+  </si>
+  <si>
+    <t>TMP5S2a2:TMP5S2a2:1155249</t>
+  </si>
+  <si>
+    <t>TMP5S2b2:TMP5S2b2:1155250</t>
+  </si>
+  <si>
+    <t>TMP5S2b1:TMP5S2b1:1155251</t>
   </si>
   <si>
     <t>TMP5S2a1:TMP5S2a1:1155252</t>
   </si>
   <si>
-    <t>TMP5S2b1:TMP5S2b1:1155251</t>
-  </si>
-  <si>
-    <t>TMP5S2b2:TMP5S2b2:1155250</t>
-  </si>
-  <si>
-    <t>TMP5S2a2:TMP5S2a2:1155249</t>
-  </si>
-  <si>
-    <t>TMP5S2b3:TMP5S2b3:1155248</t>
+    <t>TMP5S2b4:TMP5S2b4:1155246</t>
   </si>
   <si>
     <t>TMP5S2a3:TMP5S2a3:1155247</t>
   </si>
   <si>
-    <t>TMP5S2b4:TMP5S2b4:1155246</t>
-  </si>
-  <si>
-    <t>TMP5S2a4:TMP5S2a4:1155245</t>
+    <t>TMP6S2a2:TMP6S2a2:1155256</t>
+  </si>
+  <si>
+    <t>TMP6S2a1:TMP6S2a1:1155257</t>
+  </si>
+  <si>
+    <t>TMP6S2b4:TMP6S2b4:1155259</t>
   </si>
   <si>
     <t>TMP6S2b3:TMP6S2b3:1155260</t>
   </si>
   <si>
-    <t>TMP6S2a2:TMP6S2a2:1155256</t>
-  </si>
-  <si>
     <t>TMP6S2a4:TMP6S2a4:1155255</t>
   </si>
   <si>
     <t>TMP6S2a3:TMP6S2a3:1155254</t>
   </si>
   <si>
-    <t>TMP6S2b4:TMP6S2b4:1155259</t>
-  </si>
-  <si>
-    <t>TMP6S2a1:TMP6S2a1:1155257</t>
-  </si>
-  <si>
     <t>TMP6S2b1:TMP6S2b1:1155262</t>
   </si>
   <si>
     <t>TMP6S2b2:TMP6S2b2:1155261</t>
   </si>
   <si>
+    <t>TMP7S2c1:TMP7S2c1:1155276</t>
+  </si>
+  <si>
     <t>TMP7S2c2:TMP7S2c2:1155275</t>
   </si>
   <si>
-    <t>TMP7S2c1:TMP7S2c1:1155276</t>
+    <t>TMP7S2c3:TMP7S2c3:1155274</t>
   </si>
   <si>
     <t>TMP7S2d3:TMP7S2d3:1155273</t>
@@ -279,61 +282,55 @@
     <t>TMP7S2a3:TMP7S2a3:1155267</t>
   </si>
   <si>
+    <t>TMP7S2b2:TMP7S2b2:1155265</t>
+  </si>
+  <si>
     <t>TMP7S2b1:TMP7S2b1:1155266</t>
   </si>
   <si>
-    <t>TMP7S2b2:TMP7S2b2:1155265</t>
-  </si>
-  <si>
     <t>TMP7S2b3:TMP7S2b3:1155264</t>
   </si>
   <si>
-    <t>TMP7S2c3:TMP7S2c3:1155274</t>
+    <t>F</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>Fitting</t>
+  </si>
+  <si>
+    <t>BSS.GESSI.SM.49079:29046000:1090989</t>
+  </si>
+  <si>
+    <t>BSS.HAND SHOWER SET.MASTER BATH:BSS.HAND SHOWER SET.MASTER BATH:1091130</t>
+  </si>
+  <si>
+    <t>BSS.GOMGO.PH.GG-6106:Chrome 000:1090992</t>
+  </si>
+  <si>
+    <t>BSS.MIRROR CABINET.C5-MASTER BATH:BSS.MIRROR CABINET.C5-MASTER BATH:1090945</t>
+  </si>
+  <si>
+    <t>BSS.Vesbo Tee Fiting:Standard:1035758</t>
+  </si>
+  <si>
+    <t>BSS.FLOOR DRAIN_150:BSS.FLOOR DRAIN_150:1091065</t>
+  </si>
+  <si>
+    <t>BSS.Shallow_FT:150 x 150MM:1018227</t>
+  </si>
+  <si>
+    <t>BSS.Vesbo Tee Fiting:Standard:1032950</t>
+  </si>
+  <si>
+    <t>BSS.Vesbo Tee Fiting:Standard:1033022</t>
   </si>
   <si>
     <t>BSS.Shallow_FW:BSS.Shallow_FW:1038276</t>
   </si>
   <si>
-    <t>BSS.Shallow_FT:150 x 150MM:1018227</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>blank</t>
-  </si>
-  <si>
-    <t>Fitting</t>
-  </si>
-  <si>
-    <t>BSS.GESSI.SM.49079:29046000:1090989</t>
-  </si>
-  <si>
-    <t>M_Coupling - Threaded - MI - Class 150:Standard:1018144</t>
-  </si>
-  <si>
-    <t>BSS.GOMGO.PH.GG-6106:Chrome 000:1090992</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1035758</t>
-  </si>
-  <si>
-    <t>BSS.MIRROR CABINET.C5-MASTER BATH:BSS.MIRROR CABINET.C5-MASTER BATH:1090945</t>
-  </si>
-  <si>
-    <t>BSS.FLOOR DRAIN_150:BSS.FLOOR DRAIN_150:1091065</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1032950</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1033022</t>
-  </si>
-  <si>
     <t>BSS.Vesbo Tee Fiting:Standard:1042747</t>
-  </si>
-  <si>
-    <t>M_Coupling - Threaded - MI - Class 150:Standard:1044021</t>
   </si>
   <si>
     <t>BSS.MONIC.BIB TAP.T-4L:BIB TAP:1090961</t>
@@ -724,23 +721,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O81" sqref="O81"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -813,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -827,7 +813,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -839,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>-1350</v>
+        <v>-30</v>
       </c>
       <c r="F3">
-        <v>425</v>
+        <v>-775</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -851,7 +837,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -865,7 +851,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -877,10 +863,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-1350</v>
+        <v>-350</v>
       </c>
       <c r="F4">
-        <v>-175</v>
+        <v>1025</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -889,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -903,7 +889,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -915,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1350</v>
+        <v>-350</v>
       </c>
       <c r="F5">
-        <v>-775</v>
+        <v>425</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -927,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -965,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -979,7 +965,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -994,7 +980,7 @@
         <v>-350</v>
       </c>
       <c r="F7">
-        <v>425</v>
+        <v>-775</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1003,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1017,7 +1003,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -1029,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>-350</v>
+        <v>-1350</v>
       </c>
       <c r="F8">
         <v>1025</v>
@@ -1041,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1055,7 +1041,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -1067,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>-30</v>
+        <v>-1350</v>
       </c>
       <c r="F9">
-        <v>-775</v>
+        <v>425</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1079,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1093,7 +1079,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -1105,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>-30</v>
+        <v>-1350</v>
       </c>
       <c r="F10">
         <v>-175</v>
@@ -1117,7 +1103,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1131,7 +1117,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1143,10 +1129,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>-30</v>
+        <v>-1350</v>
       </c>
       <c r="F11">
-        <v>425</v>
+        <v>-775</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1155,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1193,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1231,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1269,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1283,7 +1269,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -1295,10 +1281,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>-1350</v>
+        <v>-30</v>
       </c>
       <c r="F15">
-        <v>1025</v>
+        <v>-175</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1307,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1321,7 +1307,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -1333,10 +1319,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>-350</v>
+        <v>-30</v>
       </c>
       <c r="F16">
-        <v>-775</v>
+        <v>425</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1345,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1383,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1421,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1459,7 +1445,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1497,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1535,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1573,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1611,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -1649,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -1687,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1701,7 +1687,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
@@ -1713,10 +1699,10 @@
         <v>-2760</v>
       </c>
       <c r="E26">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F26">
-        <v>425</v>
+        <v>-775</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -1725,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -1763,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -1801,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -1815,7 +1801,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>192</v>
+        <v>237</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
@@ -1827,10 +1813,10 @@
         <v>-2760</v>
       </c>
       <c r="E29">
-        <v>-500</v>
+        <v>150</v>
       </c>
       <c r="F29">
-        <v>-175</v>
+        <v>425</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -1839,7 +1825,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -1853,7 +1839,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
@@ -1865,10 +1851,10 @@
         <v>-2760</v>
       </c>
       <c r="E30">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="F30">
-        <v>-775</v>
+        <v>-175</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1877,7 +1863,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -1915,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -1929,7 +1915,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
@@ -1941,10 +1927,10 @@
         <v>1200</v>
       </c>
       <c r="E32">
-        <v>445</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>425</v>
+        <v>1025</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -1953,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -1967,7 +1953,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
@@ -1982,7 +1968,7 @@
         <v>445</v>
       </c>
       <c r="F33">
-        <v>-175</v>
+        <v>1025</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -1991,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -2005,7 +1991,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
@@ -2020,7 +2006,7 @@
         <v>445</v>
       </c>
       <c r="F34">
-        <v>1025</v>
+        <v>425</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -2029,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2067,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2105,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2143,7 +2129,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -2157,7 +2143,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
@@ -2169,10 +2155,10 @@
         <v>1200</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="F38">
-        <v>1025</v>
+        <v>-175</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -2181,7 +2167,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -2219,7 +2205,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -2257,7 +2243,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -2271,7 +2257,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B41" t="s">
         <v>14</v>
@@ -2286,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>-175</v>
+        <v>425</v>
       </c>
       <c r="G41">
         <v>4</v>
@@ -2295,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -2333,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -2371,7 +2357,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -2385,7 +2371,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
@@ -2400,7 +2386,7 @@
         <v>-300</v>
       </c>
       <c r="F44">
-        <v>425</v>
+        <v>1025</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -2409,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -2423,7 +2409,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B45" t="s">
         <v>14</v>
@@ -2435,10 +2421,10 @@
         <v>960</v>
       </c>
       <c r="E45">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>1025</v>
+        <v>-175</v>
       </c>
       <c r="G45">
         <v>4</v>
@@ -2447,7 +2433,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -2485,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -2499,7 +2485,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B47" t="s">
         <v>14</v>
@@ -2511,7 +2497,7 @@
         <v>960</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F47">
         <v>425</v>
@@ -2523,7 +2509,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -2537,7 +2523,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B48" t="s">
         <v>14</v>
@@ -2549,7 +2535,7 @@
         <v>600</v>
       </c>
       <c r="E48">
-        <v>750</v>
+        <v>-900</v>
       </c>
       <c r="F48">
         <v>-775</v>
@@ -2561,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -2575,7 +2561,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B49" t="s">
         <v>14</v>
@@ -2587,7 +2573,7 @@
         <v>600</v>
       </c>
       <c r="E49">
-        <v>750</v>
+        <v>-450</v>
       </c>
       <c r="F49">
         <v>-25</v>
@@ -2599,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -2613,7 +2599,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B50" t="s">
         <v>14</v>
@@ -2628,7 +2614,7 @@
         <v>150</v>
       </c>
       <c r="F50">
-        <v>-25</v>
+        <v>-775</v>
       </c>
       <c r="G50">
         <v>5</v>
@@ -2637,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -2651,7 +2637,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B51" t="s">
         <v>14</v>
@@ -2666,7 +2652,7 @@
         <v>150</v>
       </c>
       <c r="F51">
-        <v>-775</v>
+        <v>-25</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -2675,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -2689,7 +2675,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B52" t="s">
         <v>14</v>
@@ -2701,7 +2687,7 @@
         <v>600</v>
       </c>
       <c r="E52">
-        <v>-450</v>
+        <v>750</v>
       </c>
       <c r="F52">
         <v>-25</v>
@@ -2713,7 +2699,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -2727,7 +2713,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B53" t="s">
         <v>14</v>
@@ -2739,7 +2725,7 @@
         <v>600</v>
       </c>
       <c r="E53">
-        <v>-450</v>
+        <v>750</v>
       </c>
       <c r="F53">
         <v>-775</v>
@@ -2751,7 +2737,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -2789,7 +2775,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -2803,7 +2789,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B55" t="s">
         <v>14</v>
@@ -2815,7 +2801,7 @@
         <v>600</v>
       </c>
       <c r="E55">
-        <v>-900</v>
+        <v>-450</v>
       </c>
       <c r="F55">
         <v>-775</v>
@@ -2827,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -2841,7 +2827,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B56" t="s">
         <v>14</v>
@@ -2853,10 +2839,10 @@
         <v>-1800</v>
       </c>
       <c r="E56">
-        <v>300</v>
+        <v>-300</v>
       </c>
       <c r="F56">
-        <v>-150</v>
+        <v>450</v>
       </c>
       <c r="G56">
         <v>6</v>
@@ -2865,7 +2851,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -2879,7 +2865,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B57" t="s">
         <v>14</v>
@@ -2894,7 +2880,7 @@
         <v>-300</v>
       </c>
       <c r="F57">
-        <v>450</v>
+        <v>1050</v>
       </c>
       <c r="G57">
         <v>6</v>
@@ -2903,7 +2889,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -2917,7 +2903,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B58" t="s">
         <v>14</v>
@@ -2929,10 +2915,10 @@
         <v>-1800</v>
       </c>
       <c r="E58">
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="F58">
-        <v>-150</v>
+        <v>-750</v>
       </c>
       <c r="G58">
         <v>6</v>
@@ -2941,7 +2927,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -2955,7 +2941,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B59" t="s">
         <v>14</v>
@@ -2967,10 +2953,10 @@
         <v>-1800</v>
       </c>
       <c r="E59">
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="F59">
-        <v>-750</v>
+        <v>-150</v>
       </c>
       <c r="G59">
         <v>6</v>
@@ -2979,7 +2965,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -2993,7 +2979,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B60" t="s">
         <v>14</v>
@@ -3005,10 +2991,10 @@
         <v>-1800</v>
       </c>
       <c r="E60">
-        <v>300</v>
+        <v>-300</v>
       </c>
       <c r="F60">
-        <v>-750</v>
+        <v>-150</v>
       </c>
       <c r="G60">
         <v>6</v>
@@ -3017,7 +3003,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -3031,7 +3017,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B61" t="s">
         <v>14</v>
@@ -3046,7 +3032,7 @@
         <v>-300</v>
       </c>
       <c r="F61">
-        <v>1050</v>
+        <v>-750</v>
       </c>
       <c r="G61">
         <v>6</v>
@@ -3055,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -3093,7 +3079,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -3131,7 +3117,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -3145,7 +3131,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B64" t="s">
         <v>14</v>
@@ -3157,19 +3143,19 @@
         <v>720</v>
       </c>
       <c r="E64">
-        <v>600</v>
+        <v>1050</v>
       </c>
       <c r="F64">
         <v>-25</v>
       </c>
       <c r="G64" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -3183,7 +3169,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B65" t="s">
         <v>14</v>
@@ -3195,19 +3181,19 @@
         <v>720</v>
       </c>
       <c r="E65">
-        <v>1050</v>
+        <v>600</v>
       </c>
       <c r="F65">
         <v>-25</v>
       </c>
       <c r="G65" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -3221,7 +3207,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B66" t="s">
         <v>14</v>
@@ -3230,7 +3216,7 @@
         <v>79</v>
       </c>
       <c r="D66">
-        <v>120</v>
+        <v>720</v>
       </c>
       <c r="E66">
         <v>150</v>
@@ -3239,13 +3225,13 @@
         <v>-25</v>
       </c>
       <c r="G66" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H66">
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -3259,7 +3245,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
@@ -3271,19 +3257,19 @@
         <v>120</v>
       </c>
       <c r="E67">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="F67">
         <v>-25</v>
       </c>
       <c r="G67" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -3297,7 +3283,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B68" t="s">
         <v>14</v>
@@ -3309,19 +3295,19 @@
         <v>120</v>
       </c>
       <c r="E68">
-        <v>1050</v>
+        <v>600</v>
       </c>
       <c r="F68">
         <v>-25</v>
       </c>
       <c r="G68" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -3335,7 +3321,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B69" t="s">
         <v>14</v>
@@ -3344,22 +3330,22 @@
         <v>82</v>
       </c>
       <c r="D69">
-        <v>2310</v>
+        <v>120</v>
       </c>
       <c r="E69">
-        <v>1200</v>
+        <v>1050</v>
       </c>
       <c r="F69">
         <v>-25</v>
       </c>
       <c r="G69" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -3373,7 +3359,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B70" t="s">
         <v>14</v>
@@ -3385,19 +3371,19 @@
         <v>2310</v>
       </c>
       <c r="E70">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="F70">
         <v>-25</v>
       </c>
       <c r="G70" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -3411,7 +3397,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B71" t="s">
         <v>14</v>
@@ -3423,19 +3409,19 @@
         <v>2310</v>
       </c>
       <c r="E71">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="F71">
         <v>-25</v>
       </c>
       <c r="G71" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -3449,7 +3435,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
@@ -3458,22 +3444,22 @@
         <v>85</v>
       </c>
       <c r="D72">
-        <v>1410</v>
+        <v>2310</v>
       </c>
       <c r="E72">
-        <v>1200</v>
+        <v>150</v>
       </c>
       <c r="F72">
         <v>-25</v>
       </c>
       <c r="G72" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -3505,13 +3491,13 @@
         <v>-25</v>
       </c>
       <c r="G73" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -3525,7 +3511,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B74" t="s">
         <v>14</v>
@@ -3537,19 +3523,19 @@
         <v>1410</v>
       </c>
       <c r="E74">
-        <v>150</v>
+        <v>1200</v>
       </c>
       <c r="F74">
         <v>-25</v>
       </c>
       <c r="G74" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -3563,7 +3549,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B75" t="s">
         <v>14</v>
@@ -3572,7 +3558,7 @@
         <v>88</v>
       </c>
       <c r="D75">
-        <v>720</v>
+        <v>1410</v>
       </c>
       <c r="E75">
         <v>150</v>
@@ -3581,13 +3567,13 @@
         <v>-25</v>
       </c>
       <c r="G75" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -3606,25 +3592,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -3676,10 +3650,10 @@
         <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D2">
         <v>1200</v>
@@ -3697,7 +3671,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -3711,37 +3685,37 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
         <v>93</v>
       </c>
-      <c r="C3" t="s">
-        <v>95</v>
-      </c>
       <c r="D3">
-        <v>937</v>
+        <v>1200</v>
       </c>
       <c r="E3">
-        <v>243</v>
+        <v>160</v>
       </c>
       <c r="F3">
-        <v>-800</v>
+        <v>-181</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>600</v>
+        <v>960</v>
       </c>
       <c r="M3">
         <v>2655</v>
@@ -3752,10 +3726,10 @@
         <v>149</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D4">
         <v>960</v>
@@ -3773,7 +3747,7 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -3787,22 +3761,22 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D5">
-        <v>637</v>
+        <v>600</v>
       </c>
       <c r="E5">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>-365</v>
+        <v>125</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -3811,7 +3785,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -3825,22 +3799,22 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D6">
-        <v>600</v>
+        <v>637</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="F6">
-        <v>125</v>
+        <v>-365</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -3849,7 +3823,7 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -3866,10 +3840,10 @@
         <v>159</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D7">
         <v>645</v>
@@ -3881,13 +3855,13 @@
         <v>-50</v>
       </c>
       <c r="G7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -3901,31 +3875,31 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D8">
-        <v>2235</v>
+        <v>645</v>
       </c>
       <c r="E8">
-        <v>1650</v>
+        <v>1112</v>
       </c>
       <c r="F8">
-        <v>100</v>
+        <v>-77</v>
       </c>
       <c r="G8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H8">
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -3939,31 +3913,31 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D9">
-        <v>2385</v>
+        <v>2235</v>
       </c>
       <c r="E9">
-        <v>1710</v>
+        <v>1650</v>
       </c>
       <c r="F9">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H9">
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -3977,31 +3951,31 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D10">
-        <v>2660</v>
+        <v>2385</v>
       </c>
       <c r="E10">
-        <v>435</v>
+        <v>1710</v>
       </c>
       <c r="F10">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="G10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H10">
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -4015,31 +3989,31 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D11">
-        <v>860</v>
+        <v>1010</v>
       </c>
       <c r="E11">
-        <v>1299</v>
+        <v>1535</v>
       </c>
       <c r="F11">
-        <v>2468</v>
+        <v>-77</v>
       </c>
       <c r="G11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H11">
         <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -4053,31 +4027,31 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D12">
-        <v>1060</v>
+        <v>2660</v>
       </c>
       <c r="E12">
-        <v>1580</v>
+        <v>435</v>
       </c>
       <c r="F12">
-        <v>275</v>
+        <v>210</v>
       </c>
       <c r="G12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H12">
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -4091,31 +4065,31 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D13">
-        <v>2310</v>
+        <v>1060</v>
       </c>
       <c r="E13">
-        <v>1740</v>
+        <v>1580</v>
       </c>
       <c r="F13">
-        <v>825</v>
+        <v>275</v>
       </c>
       <c r="G13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H13">
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -4129,31 +4103,31 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D14">
-        <v>1320</v>
+        <v>2310</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1740</v>
       </c>
       <c r="F14">
-        <v>1175</v>
+        <v>825</v>
       </c>
       <c r="G14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H14">
         <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -4167,31 +4141,31 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D15">
-        <v>1410</v>
+        <v>1320</v>
       </c>
       <c r="E15">
-        <v>1692</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>825</v>
+        <v>1175</v>
       </c>
       <c r="G15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H15">
         <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -4205,31 +4179,31 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D16">
-        <v>1010</v>
+        <v>1410</v>
       </c>
       <c r="E16">
-        <v>1535</v>
+        <v>1692</v>
       </c>
       <c r="F16">
-        <v>-25</v>
+        <v>825</v>
       </c>
       <c r="G16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H16">
         <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -4243,31 +4217,31 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D17">
-        <v>1285</v>
+        <v>1010</v>
       </c>
       <c r="E17">
-        <v>1592</v>
+        <v>1535</v>
       </c>
       <c r="F17">
-        <v>-24</v>
+        <v>-25</v>
       </c>
       <c r="G17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H17">
         <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -4281,31 +4255,31 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D18">
-        <v>2310</v>
+        <v>1285</v>
       </c>
       <c r="E18">
-        <v>1505</v>
+        <v>1592</v>
       </c>
       <c r="F18">
-        <v>547</v>
+        <v>-24</v>
       </c>
       <c r="G18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H18">
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -4319,31 +4293,31 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19">
+        <v>2310</v>
+      </c>
+      <c r="E19">
+        <v>1505</v>
+      </c>
+      <c r="F19">
+        <v>547</v>
+      </c>
+      <c r="G19" t="s">
         <v>89</v>
-      </c>
-      <c r="D19">
-        <v>1010</v>
-      </c>
-      <c r="E19">
-        <v>1535</v>
-      </c>
-      <c r="F19">
-        <v>-77</v>
-      </c>
-      <c r="G19" t="s">
-        <v>91</v>
       </c>
       <c r="H19">
         <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -4352,44 +4326,6 @@
         <v>2900</v>
       </c>
       <c r="M19">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20">
-        <v>645</v>
-      </c>
-      <c r="E20">
-        <v>1112</v>
-      </c>
-      <c r="F20">
-        <v>-77</v>
-      </c>
-      <c r="G20" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20">
-        <v>6</v>
-      </c>
-      <c r="I20" t="s">
-        <v>92</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>2900</v>
-      </c>
-      <c r="M20">
         <v>1932</v>
       </c>
     </row>
@@ -4402,26 +4338,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:O1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">

--- a/Greyform/Python_Application/exporteddatassss(with TMP)(draft)(tetra).xlsx
+++ b/Greyform/Python_Application/exporteddatassss(with TMP)(draft)(tetra).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MokZhiZhuan\OneDrive - WINSYS TECHNOLOGY PTE LTD\Documents\GitHub\GreyForm_UI\Greyform\Python_Application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA1DC60-64C0-4B11-A71F-8AFD1976F0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344793D1-C016-430D-ACB0-45B0C4B90D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="15" windowWidth="23235" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5520" yWindow="210" windowWidth="23235" windowHeight="15465" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage 2" sheetId="1" r:id="rId1"/>
@@ -721,7 +721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0"/>
+    <sheetView topLeftCell="A52" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3594,10 +3594,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Greyform/Python_Application/exporteddatassss(with TMP)(draft)(tetra).xlsx
+++ b/Greyform/Python_Application/exporteddatassss(with TMP)(draft)(tetra).xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MokZhiZhuan\OneDrive - WINSYS TECHNOLOGY PTE LTD\Documents\GitHub\GreyForm_UI\Greyform\Python_Application\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344793D1-C016-430D-ACB0-45B0C4B90D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="210" windowWidth="23235" windowHeight="15465" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Stage 2" sheetId="1" r:id="rId1"/>
     <sheet name="Stage 3" sheetId="2" r:id="rId2"/>
     <sheet name="Obstacles" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="103">
   <si>
     <t>Marking type</t>
   </si>
@@ -30,6 +24,300 @@
     <t>Point number/name</t>
   </si>
   <si>
+    <t>Position X (m)</t>
+  </si>
+  <si>
+    <t>Position Y (m)</t>
+  </si>
+  <si>
+    <t>Position Z (m)</t>
+  </si>
+  <si>
+    <t>Wall Number</t>
+  </si>
+  <si>
+    <t>Shape type</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Quadrant</t>
+  </si>
+  <si>
+    <t>Unnamed : 9</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Orientation</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Tile</t>
+  </si>
+  <si>
+    <t>TMP1S2a4:TMP1S2a4:1155192</t>
+  </si>
+  <si>
+    <t>TMP1S2f1:TMP1S2f1:1155220</t>
+  </si>
+  <si>
+    <t>TMP1S2f2:TMP1S2f2:1155219</t>
+  </si>
+  <si>
+    <t>TMP1S2f3:TMP1S2f3:1155218</t>
+  </si>
+  <si>
+    <t>TMP1S2f4:TMP1S2f4:1155217</t>
+  </si>
+  <si>
+    <t>TMP1S2e1:TMP1S2e1:1155215</t>
+  </si>
+  <si>
+    <t>TMP1S2e2:TMP1S2e2:1155214</t>
+  </si>
+  <si>
+    <t>TMP1S2e3:TMP1S2e3:1155213</t>
+  </si>
+  <si>
+    <t>TMP1S2e4:TMP1S2e4:1155212</t>
+  </si>
+  <si>
+    <t>TMP1S2d1:TMP1S2d1:1155210</t>
+  </si>
+  <si>
+    <t>TMP1S2d2:TMP1S2d2:1155209</t>
+  </si>
+  <si>
+    <t>TMP1S2d3:TMP1S2d3:1155208</t>
+  </si>
+  <si>
+    <t>TMP1S2d4:TMP1S2d4:1155207</t>
+  </si>
+  <si>
+    <t>TMP1S2c1:TMP1S2c1:1155205</t>
+  </si>
+  <si>
+    <t>TMP1S2c2:TMP1S2c2:1155204</t>
+  </si>
+  <si>
+    <t>TMP1S2c3:TMP1S2c3:1155203</t>
+  </si>
+  <si>
+    <t>TMP1S2c4:TMP1S2c4:1155202</t>
+  </si>
+  <si>
+    <t>TMP1S2b1:TMP1S2b1:1155200</t>
+  </si>
+  <si>
+    <t>TMP1S2b2:TMP1S2b2:1155199</t>
+  </si>
+  <si>
+    <t>TMP1S2b3:TMP1S2b3:1155198</t>
+  </si>
+  <si>
+    <t>TMP1S2b4:TMP1S2b4:1155197</t>
+  </si>
+  <si>
+    <t>TMP1S2a1:TMP1S2a1:1155195</t>
+  </si>
+  <si>
+    <t>TMP1S2a2:TMP1S2a2:1155194</t>
+  </si>
+  <si>
+    <t>TMP1S2a3:TMP1S2a3:1155193</t>
+  </si>
+  <si>
+    <t>TMP2S2a1:TMP2S2a1:1155225</t>
+  </si>
+  <si>
+    <t>TMP2S2a2:TMP2S2a2:1155224</t>
+  </si>
+  <si>
+    <t>TMP2S2b2:TMP2S2b2:1155222</t>
+  </si>
+  <si>
+    <t>TMP2S2b1:TMP2S2b1:1155223</t>
+  </si>
+  <si>
+    <t>TMP3S2a1:TMP3S2a1:1155234</t>
+  </si>
+  <si>
+    <t>TMP3S2b4:TMP3S2b4:1155227</t>
+  </si>
+  <si>
+    <t>TMP3S2b3:TMP3S2b3:1155228</t>
+  </si>
+  <si>
+    <t>TMP3S2b1:TMP3S2b1:1155229</t>
+  </si>
+  <si>
+    <t>TMP3S2b2:TMP3S2b2:1155230</t>
+  </si>
+  <si>
+    <t>TMP3S2a4:TMP3S2a4:1155231</t>
+  </si>
+  <si>
+    <t>TMP3S2a3:TMP3S2a3:1155232</t>
+  </si>
+  <si>
+    <t>TMP3S2a2:TMP3S2a2:1155233</t>
+  </si>
+  <si>
+    <t>TMP4S2a3:TMP4S2a3:1155241</t>
+  </si>
+  <si>
+    <t>TMP4S2a4:TMP4S2a4:1155237</t>
+  </si>
+  <si>
+    <t>TMP4S2a2:TMP4S2a2:1155242</t>
+  </si>
+  <si>
+    <t>TMP4S2a1:TMP4S2a1:1155243</t>
+  </si>
+  <si>
+    <t>TMP5S2a1:TMP5S2a1:1155252</t>
+  </si>
+  <si>
+    <t>TMP5S2b1:TMP5S2b1:1155251</t>
+  </si>
+  <si>
+    <t>TMP4S2b2:TMP4S2b2:1155239</t>
+  </si>
+  <si>
+    <t>TMP5S2a2:TMP5S2a2:1155249</t>
+  </si>
+  <si>
+    <t>TMP4S2b4:TMP4S2b4:1155236</t>
+  </si>
+  <si>
+    <t>TMP4S2b3:TMP4S2b3:1155238</t>
+  </si>
+  <si>
+    <t>TMP4S2b1:TMP4S2b1:1155240</t>
+  </si>
+  <si>
+    <t>TMP5S2a4:TMP5S2a4:1155245</t>
+  </si>
+  <si>
+    <t>TMP5S2b4:TMP5S2b4:1155246</t>
+  </si>
+  <si>
+    <t>TMP5S2a3:TMP5S2a3:1155247</t>
+  </si>
+  <si>
+    <t>TMP5S2b2:TMP5S2b2:1155250</t>
+  </si>
+  <si>
+    <t>TMP5S2b3:TMP5S2b3:1155248</t>
+  </si>
+  <si>
+    <t>TMP6S2b1:TMP6S2b1:1155262</t>
+  </si>
+  <si>
+    <t>TMP6S2a3:TMP6S2a3:1155254</t>
+  </si>
+  <si>
+    <t>TMP6S2a4:TMP6S2a4:1155255</t>
+  </si>
+  <si>
+    <t>TMP6S2a2:TMP6S2a2:1155256</t>
+  </si>
+  <si>
+    <t>TMP6S2b3:TMP6S2b3:1155260</t>
+  </si>
+  <si>
+    <t>TMP6S2a1:TMP6S2a1:1155257</t>
+  </si>
+  <si>
+    <t>TMP6S2b4:TMP6S2b4:1155259</t>
+  </si>
+  <si>
+    <t>TMP6S2b2:TMP6S2b2:1155261</t>
+  </si>
+  <si>
+    <t>TMP7S2c1:TMP7S2c1:1155276</t>
+  </si>
+  <si>
+    <t>TMP7S2c2:TMP7S2c2:1155275</t>
+  </si>
+  <si>
+    <t>TMP7S2c3:TMP7S2c3:1155274</t>
+  </si>
+  <si>
+    <t>TMP7S2d2:TMP7S2d2:1155272</t>
+  </si>
+  <si>
+    <t>TMP7S2d1:TMP7S2d1:1155271</t>
+  </si>
+  <si>
+    <t>TMP7S2a1:TMP7S2a1:1155269</t>
+  </si>
+  <si>
+    <t>TMP7S2a3:TMP7S2a3:1155267</t>
+  </si>
+  <si>
+    <t>TMP7S2b1:TMP7S2b1:1155266</t>
+  </si>
+  <si>
+    <t>TMP7S2b2:TMP7S2b2:1155265</t>
+  </si>
+  <si>
+    <t>TMP7S2b3:TMP7S2b3:1155264</t>
+  </si>
+  <si>
+    <t>TMP7S2d3:TMP7S2d3:1155273</t>
+  </si>
+  <si>
+    <t>TMP7S2a2:TMP7S2a2:1155268</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>Fitting</t>
+  </si>
+  <si>
+    <t>BSS.HAND SHOWER SET.MASTER BATH:BSS.HAND SHOWER SET.MASTER BATH:1091130</t>
+  </si>
+  <si>
+    <t>BSS.GESSI.SM.49079:29046000:1090989</t>
+  </si>
+  <si>
+    <t>BSS.MONIC.BIB TAP.T-4L:BIB TAP:1090961</t>
+  </si>
+  <si>
+    <t>BSS.Bottle Trap:BSS.Bottle trap:1018126</t>
+  </si>
+  <si>
+    <t>BSS.TECE.AP.9240402:Flush Plate:1091024</t>
+  </si>
+  <si>
+    <t>BSS.LAUFEN.WC.820714:820959000 White:1091064</t>
+  </si>
+  <si>
+    <t>BSS.GESSI,BM.49001:Default:1090988</t>
+  </si>
+  <si>
+    <t>BSS.MIRROR CABINET.C5-MASTER BATH:BSS.MIRROR CABINET.C5-MASTER BATH:1090945</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>Position X (mm)</t>
   </si>
   <si>
@@ -37,328 +325,13 @@
   </si>
   <si>
     <t>Position Z (mm)</t>
-  </si>
-  <si>
-    <t>Wall Number</t>
-  </si>
-  <si>
-    <t>Shape type</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Quadrant</t>
-  </si>
-  <si>
-    <t>Unnamed : 9</t>
-  </si>
-  <si>
-    <t>Width</t>
-  </si>
-  <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t>Orientation</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Tile</t>
-  </si>
-  <si>
-    <t>TMP1S2d2:TMP1S2d2:1155209</t>
-  </si>
-  <si>
-    <t>TMP1S2c4:TMP1S2c4:1155202</t>
-  </si>
-  <si>
-    <t>TMP1S2b1:TMP1S2b1:1155200</t>
-  </si>
-  <si>
-    <t>TMP1S2b2:TMP1S2b2:1155199</t>
-  </si>
-  <si>
-    <t>TMP1S2b3:TMP1S2b3:1155198</t>
-  </si>
-  <si>
-    <t>TMP1S2b4:TMP1S2b4:1155197</t>
-  </si>
-  <si>
-    <t>TMP1S2a1:TMP1S2a1:1155195</t>
-  </si>
-  <si>
-    <t>TMP1S2a2:TMP1S2a2:1155194</t>
-  </si>
-  <si>
-    <t>TMP1S2a3:TMP1S2a3:1155193</t>
-  </si>
-  <si>
-    <t>TMP1S2a4:TMP1S2a4:1155192</t>
-  </si>
-  <si>
-    <t>TMP1S2c1:TMP1S2c1:1155205</t>
-  </si>
-  <si>
-    <t>TMP1S2d4:TMP1S2d4:1155207</t>
-  </si>
-  <si>
-    <t>TMP1S2d3:TMP1S2d3:1155208</t>
-  </si>
-  <si>
-    <t>TMP1S2c3:TMP1S2c3:1155203</t>
-  </si>
-  <si>
-    <t>TMP1S2c2:TMP1S2c2:1155204</t>
-  </si>
-  <si>
-    <t>TMP1S2e4:TMP1S2e4:1155212</t>
-  </si>
-  <si>
-    <t>TMP1S2e3:TMP1S2e3:1155213</t>
-  </si>
-  <si>
-    <t>TMP1S2e2:TMP1S2e2:1155214</t>
-  </si>
-  <si>
-    <t>TMP1S2e1:TMP1S2e1:1155215</t>
-  </si>
-  <si>
-    <t>TMP1S2f4:TMP1S2f4:1155217</t>
-  </si>
-  <si>
-    <t>TMP1S2f3:TMP1S2f3:1155218</t>
-  </si>
-  <si>
-    <t>TMP1S2f2:TMP1S2f2:1155219</t>
-  </si>
-  <si>
-    <t>TMP1S2f1:TMP1S2f1:1155220</t>
-  </si>
-  <si>
-    <t>TMP1S2d1:TMP1S2d1:1155210</t>
-  </si>
-  <si>
-    <t>TMP2S2b2:TMP2S2b2:1155222</t>
-  </si>
-  <si>
-    <t>TMP2S2b1:TMP2S2b1:1155223</t>
-  </si>
-  <si>
-    <t>TMP2S2a2:TMP2S2a2:1155224</t>
-  </si>
-  <si>
-    <t>TMP2S2c2:TMP2S2c2:1156962</t>
-  </si>
-  <si>
-    <t>TMP2S2a1:TMP2S2a1:1155225</t>
-  </si>
-  <si>
-    <t>TMP2S2c1:TMP2S2c1:1156963</t>
-  </si>
-  <si>
-    <t>TMP3S2a1:TMP3S2a1:1155234</t>
-  </si>
-  <si>
-    <t>TMP3S2b1:TMP3S2b1:1155229</t>
-  </si>
-  <si>
-    <t>TMP3S2b2:TMP3S2b2:1155230</t>
-  </si>
-  <si>
-    <t>TMP3S2a4:TMP3S2a4:1155231</t>
-  </si>
-  <si>
-    <t>TMP3S2a3:TMP3S2a3:1155232</t>
-  </si>
-  <si>
-    <t>TMP3S2a2:TMP3S2a2:1155233</t>
-  </si>
-  <si>
-    <t>TMP3S2b3:TMP3S2b3:1155228</t>
-  </si>
-  <si>
-    <t>TMP3S2b4:TMP3S2b4:1155227</t>
-  </si>
-  <si>
-    <t>TMP4S2b4:TMP4S2b4:1155236</t>
-  </si>
-  <si>
-    <t>TMP4S2b2:TMP4S2b2:1155239</t>
-  </si>
-  <si>
-    <t>TMP4S2b1:TMP4S2b1:1155240</t>
-  </si>
-  <si>
-    <t>TMP4S2a3:TMP4S2a3:1155241</t>
-  </si>
-  <si>
-    <t>TMP4S2a1:TMP4S2a1:1155243</t>
-  </si>
-  <si>
-    <t>TMP4S2b3:TMP4S2b3:1155238</t>
-  </si>
-  <si>
-    <t>TMP4S2a4:TMP4S2a4:1155237</t>
-  </si>
-  <si>
-    <t>TMP4S2a2:TMP4S2a2:1155242</t>
-  </si>
-  <si>
-    <t>TMP5S2a4:TMP5S2a4:1155245</t>
-  </si>
-  <si>
-    <t>TMP5S2b3:TMP5S2b3:1155248</t>
-  </si>
-  <si>
-    <t>TMP5S2a2:TMP5S2a2:1155249</t>
-  </si>
-  <si>
-    <t>TMP5S2b2:TMP5S2b2:1155250</t>
-  </si>
-  <si>
-    <t>TMP5S2b1:TMP5S2b1:1155251</t>
-  </si>
-  <si>
-    <t>TMP5S2a1:TMP5S2a1:1155252</t>
-  </si>
-  <si>
-    <t>TMP5S2b4:TMP5S2b4:1155246</t>
-  </si>
-  <si>
-    <t>TMP5S2a3:TMP5S2a3:1155247</t>
-  </si>
-  <si>
-    <t>TMP6S2a2:TMP6S2a2:1155256</t>
-  </si>
-  <si>
-    <t>TMP6S2a1:TMP6S2a1:1155257</t>
-  </si>
-  <si>
-    <t>TMP6S2b4:TMP6S2b4:1155259</t>
-  </si>
-  <si>
-    <t>TMP6S2b3:TMP6S2b3:1155260</t>
-  </si>
-  <si>
-    <t>TMP6S2a4:TMP6S2a4:1155255</t>
-  </si>
-  <si>
-    <t>TMP6S2a3:TMP6S2a3:1155254</t>
-  </si>
-  <si>
-    <t>TMP6S2b1:TMP6S2b1:1155262</t>
-  </si>
-  <si>
-    <t>TMP6S2b2:TMP6S2b2:1155261</t>
-  </si>
-  <si>
-    <t>TMP7S2c1:TMP7S2c1:1155276</t>
-  </si>
-  <si>
-    <t>TMP7S2c2:TMP7S2c2:1155275</t>
-  </si>
-  <si>
-    <t>TMP7S2c3:TMP7S2c3:1155274</t>
-  </si>
-  <si>
-    <t>TMP7S2d3:TMP7S2d3:1155273</t>
-  </si>
-  <si>
-    <t>TMP7S2d2:TMP7S2d2:1155272</t>
-  </si>
-  <si>
-    <t>TMP7S2d1:TMP7S2d1:1155271</t>
-  </si>
-  <si>
-    <t>TMP7S2a1:TMP7S2a1:1155269</t>
-  </si>
-  <si>
-    <t>TMP7S2a2:TMP7S2a2:1155268</t>
-  </si>
-  <si>
-    <t>TMP7S2a3:TMP7S2a3:1155267</t>
-  </si>
-  <si>
-    <t>TMP7S2b2:TMP7S2b2:1155265</t>
-  </si>
-  <si>
-    <t>TMP7S2b1:TMP7S2b1:1155266</t>
-  </si>
-  <si>
-    <t>TMP7S2b3:TMP7S2b3:1155264</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>blank</t>
-  </si>
-  <si>
-    <t>Fitting</t>
-  </si>
-  <si>
-    <t>BSS.GESSI.SM.49079:29046000:1090989</t>
-  </si>
-  <si>
-    <t>BSS.HAND SHOWER SET.MASTER BATH:BSS.HAND SHOWER SET.MASTER BATH:1091130</t>
-  </si>
-  <si>
-    <t>BSS.GOMGO.PH.GG-6106:Chrome 000:1090992</t>
-  </si>
-  <si>
-    <t>BSS.MIRROR CABINET.C5-MASTER BATH:BSS.MIRROR CABINET.C5-MASTER BATH:1090945</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1035758</t>
-  </si>
-  <si>
-    <t>BSS.FLOOR DRAIN_150:BSS.FLOOR DRAIN_150:1091065</t>
-  </si>
-  <si>
-    <t>BSS.Shallow_FT:150 x 150MM:1018227</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1032950</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1033022</t>
-  </si>
-  <si>
-    <t>BSS.Shallow_FW:BSS.Shallow_FW:1038276</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1042747</t>
-  </si>
-  <si>
-    <t>BSS.MONIC.BIB TAP.T-4L:BIB TAP:1090961</t>
-  </si>
-  <si>
-    <t>BSS.GESSI,BM.49001:Default:1090988</t>
-  </si>
-  <si>
-    <t>BSS.GOMGO.TR.GG-6108-600:Chrome 000:1090991</t>
-  </si>
-  <si>
-    <t>BSS.TECE.AP.9240402:Flush Plate:1091024</t>
-  </si>
-  <si>
-    <t>BSS.FLOOR DRAIN_100:BSS.FLOOR DRAIN_100:1091045</t>
-  </si>
-  <si>
-    <t>BSS.LAUFEN.WC.820714:820959000 White:1091064</t>
-  </si>
-  <si>
-    <t>BSS.Bottle Trap:BSS.Bottle trap:1018126</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,21 +394,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -473,7 +438,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -507,7 +472,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -542,10 +506,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -718,18 +681,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -773,9 +732,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>179</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -787,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>470</v>
+        <v>-1.35</v>
       </c>
       <c r="F2">
-        <v>425</v>
+        <v>-0.775</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -799,21 +758,21 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="M2">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>173</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -825,10 +784,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>-30</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="F3">
-        <v>-775</v>
+        <v>1.025</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -837,21 +796,21 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="M3">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>172</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -863,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-350</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="F4">
-        <v>1025</v>
+        <v>0.425</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -875,21 +834,21 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="M4">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -901,10 +860,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-350</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="F5">
-        <v>425</v>
+        <v>-0.175</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -913,21 +872,21 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="M5">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -939,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>-350</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="F6">
-        <v>-175</v>
+        <v>-0.775</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -951,21 +910,21 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="M6">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -977,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>-350</v>
+        <v>0.49</v>
       </c>
       <c r="F7">
-        <v>-775</v>
+        <v>1.025</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -989,21 +948,21 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="M7">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
-        <v>168</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -1015,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>-1350</v>
+        <v>0.49</v>
       </c>
       <c r="F8">
-        <v>1025</v>
+        <v>0.425</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1027,21 +986,21 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="M8">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -1053,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>-1350</v>
+        <v>0.49</v>
       </c>
       <c r="F9">
-        <v>425</v>
+        <v>-0.175</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1065,21 +1024,21 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="M9">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -1091,10 +1050,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>-1350</v>
+        <v>0.49</v>
       </c>
       <c r="F10">
-        <v>-175</v>
+        <v>1.025</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1103,21 +1062,21 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="M10">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1129,10 +1088,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>-1350</v>
+        <v>0.47</v>
       </c>
       <c r="F11">
-        <v>-775</v>
+        <v>1.025</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1141,21 +1100,21 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="M11">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -1167,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>-30</v>
+        <v>0.47</v>
       </c>
       <c r="F12">
-        <v>1025</v>
+        <v>0.425</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1179,21 +1138,21 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="M12">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
-        <v>177</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1205,10 +1164,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>470</v>
+        <v>0.47</v>
       </c>
       <c r="F13">
-        <v>-775</v>
+        <v>-0.175</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1217,21 +1176,21 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="M13">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -1243,10 +1202,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>470</v>
+        <v>0.47</v>
       </c>
       <c r="F14">
-        <v>-175</v>
+        <v>-0.775</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1255,21 +1214,21 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="M14">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -1281,10 +1240,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>-30</v>
+        <v>-0.03</v>
       </c>
       <c r="F15">
-        <v>-175</v>
+        <v>1.025</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1293,21 +1252,21 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="M15">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -1319,10 +1278,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>-30</v>
+        <v>-0.03</v>
       </c>
       <c r="F16">
-        <v>425</v>
+        <v>0.425</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1331,21 +1290,21 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="M16">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
-        <v>181</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -1357,10 +1316,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>490</v>
+        <v>-0.03</v>
       </c>
       <c r="F17">
-        <v>1025</v>
+        <v>-0.175</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1369,21 +1328,21 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="M17">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>182</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -1395,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>490</v>
+        <v>-0.03</v>
       </c>
       <c r="F18">
-        <v>-175</v>
+        <v>-0.775</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1407,21 +1366,21 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="M18">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
-        <v>183</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -1433,10 +1392,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>490</v>
+        <v>-0.35</v>
       </c>
       <c r="F19">
-        <v>425</v>
+        <v>1.025</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1445,21 +1404,21 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="M19">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>184</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -1471,10 +1430,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>490</v>
+        <v>-0.35</v>
       </c>
       <c r="F20">
-        <v>1025</v>
+        <v>0.425</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1483,21 +1442,21 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="M20">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
-        <v>185</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
@@ -1509,10 +1468,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>935</v>
+        <v>-0.35</v>
       </c>
       <c r="F21">
-        <v>-775</v>
+        <v>-0.175</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1521,21 +1480,21 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="M21">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
@@ -1547,10 +1506,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>935</v>
+        <v>-0.35</v>
       </c>
       <c r="F22">
-        <v>-175</v>
+        <v>-0.775</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1559,21 +1518,21 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="M22">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
-        <v>187</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
@@ -1585,10 +1544,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>935</v>
+        <v>-1.35</v>
       </c>
       <c r="F23">
-        <v>425</v>
+        <v>1.025</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1597,21 +1556,21 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="M23">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -1623,10 +1582,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>935</v>
+        <v>-1.35</v>
       </c>
       <c r="F24">
-        <v>1025</v>
+        <v>0.425</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1635,21 +1594,21 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="L24">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="M24">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -1661,10 +1620,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>470</v>
+        <v>-1.35</v>
       </c>
       <c r="F25">
-        <v>1025</v>
+        <v>-0.175</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1673,21 +1632,21 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="M25">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
-        <v>189</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
@@ -1696,13 +1655,13 @@
         <v>39</v>
       </c>
       <c r="D26">
-        <v>-2760</v>
+        <v>-2.76</v>
       </c>
       <c r="E26">
-        <v>100</v>
+        <v>-0.5</v>
       </c>
       <c r="F26">
-        <v>-775</v>
+        <v>-0.175</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -1711,21 +1670,21 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="L26">
-        <v>1340</v>
+        <v>1.34</v>
       </c>
       <c r="M26">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
-        <v>190</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
@@ -1734,13 +1693,13 @@
         <v>40</v>
       </c>
       <c r="D27">
-        <v>-2760</v>
+        <v>-2.76</v>
       </c>
       <c r="E27">
-        <v>100</v>
+        <v>-0.5</v>
       </c>
       <c r="F27">
-        <v>-175</v>
+        <v>-0.775</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -1749,21 +1708,21 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>1340</v>
+        <v>1.34</v>
       </c>
       <c r="M27">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
-        <v>191</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -1772,13 +1731,13 @@
         <v>41</v>
       </c>
       <c r="D28">
-        <v>-2760</v>
+        <v>-2.76</v>
       </c>
       <c r="E28">
-        <v>-500</v>
+        <v>0.1</v>
       </c>
       <c r="F28">
-        <v>-775</v>
+        <v>-0.775</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1787,21 +1746,21 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
       <c r="L28">
-        <v>1340</v>
+        <v>1.34</v>
       </c>
       <c r="M28">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
-        <v>237</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
@@ -1810,13 +1769,13 @@
         <v>42</v>
       </c>
       <c r="D29">
-        <v>-2760</v>
+        <v>-2.76</v>
       </c>
       <c r="E29">
-        <v>150</v>
+        <v>0.1</v>
       </c>
       <c r="F29">
-        <v>425</v>
+        <v>-0.175</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -1825,21 +1784,21 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
       <c r="L29">
-        <v>1340</v>
+        <v>1.34</v>
       </c>
       <c r="M29">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
-        <v>192</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
@@ -1848,36 +1807,36 @@
         <v>43</v>
       </c>
       <c r="D30">
-        <v>-2760</v>
+        <v>1.2</v>
       </c>
       <c r="E30">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>-175</v>
+        <v>1.025</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
       <c r="L30">
-        <v>1340</v>
+        <v>0.96</v>
       </c>
       <c r="M30">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
-        <v>238</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
@@ -1886,36 +1845,36 @@
         <v>44</v>
       </c>
       <c r="D31">
-        <v>-2760</v>
+        <v>1.2</v>
       </c>
       <c r="E31">
-        <v>150</v>
+        <v>0.445</v>
       </c>
       <c r="F31">
-        <v>1025</v>
+        <v>-0.775</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="L31">
-        <v>1340</v>
+        <v>0.96</v>
       </c>
       <c r="M31">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
-        <v>200</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
@@ -1924,13 +1883,13 @@
         <v>45</v>
       </c>
       <c r="D32">
-        <v>1200</v>
+        <v>1.2</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.445</v>
       </c>
       <c r="F32">
-        <v>1025</v>
+        <v>-0.175</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -1939,21 +1898,21 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
       <c r="L32">
-        <v>960</v>
+        <v>0.96</v>
       </c>
       <c r="M32">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
-        <v>195</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
@@ -1962,13 +1921,13 @@
         <v>46</v>
       </c>
       <c r="D33">
-        <v>1200</v>
+        <v>1.2</v>
       </c>
       <c r="E33">
-        <v>445</v>
+        <v>0.445</v>
       </c>
       <c r="F33">
-        <v>1025</v>
+        <v>1.025</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -1977,21 +1936,21 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
       <c r="L33">
-        <v>960</v>
+        <v>0.96</v>
       </c>
       <c r="M33">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
@@ -2000,13 +1959,13 @@
         <v>47</v>
       </c>
       <c r="D34">
-        <v>1200</v>
+        <v>1.2</v>
       </c>
       <c r="E34">
-        <v>445</v>
+        <v>0.445</v>
       </c>
       <c r="F34">
-        <v>425</v>
+        <v>0.425</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -2015,21 +1974,21 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
       <c r="L34">
-        <v>960</v>
+        <v>0.96</v>
       </c>
       <c r="M34">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
-        <v>197</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
         <v>14</v>
@@ -2038,13 +1997,13 @@
         <v>48</v>
       </c>
       <c r="D35">
-        <v>1200</v>
+        <v>1.2</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1025</v>
+        <v>1.025</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -2053,21 +2012,21 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
       <c r="L35">
-        <v>960</v>
+        <v>0.96</v>
       </c>
       <c r="M35">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
-        <v>198</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
         <v>14</v>
@@ -2076,13 +2035,13 @@
         <v>49</v>
       </c>
       <c r="D36">
-        <v>1200</v>
+        <v>1.2</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>-175</v>
+        <v>-0.175</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -2091,21 +2050,21 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J36">
         <v>1</v>
       </c>
       <c r="L36">
-        <v>960</v>
+        <v>0.96</v>
       </c>
       <c r="M36">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
-        <v>199</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
@@ -2114,13 +2073,13 @@
         <v>50</v>
       </c>
       <c r="D37">
-        <v>1200</v>
+        <v>1.2</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>425</v>
+        <v>0.425</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -2129,21 +2088,21 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
       <c r="L37">
-        <v>960</v>
+        <v>0.96</v>
       </c>
       <c r="M37">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
-        <v>194</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
@@ -2152,36 +2111,36 @@
         <v>51</v>
       </c>
       <c r="D38">
-        <v>1200</v>
+        <v>0.96</v>
       </c>
       <c r="E38">
-        <v>445</v>
+        <v>-0.3</v>
       </c>
       <c r="F38">
-        <v>-175</v>
+        <v>-0.175</v>
       </c>
       <c r="G38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J38">
         <v>1</v>
       </c>
       <c r="L38">
-        <v>960</v>
+        <v>0.592</v>
       </c>
       <c r="M38">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
-        <v>193</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
@@ -2190,36 +2149,36 @@
         <v>52</v>
       </c>
       <c r="D39">
-        <v>1200</v>
+        <v>0.96</v>
       </c>
       <c r="E39">
-        <v>445</v>
+        <v>-0.3</v>
       </c>
       <c r="F39">
-        <v>-775</v>
+        <v>-0.775</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
       <c r="L39">
-        <v>960</v>
+        <v>0.592</v>
       </c>
       <c r="M39">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
-        <v>201</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
         <v>14</v>
@@ -2228,13 +2187,13 @@
         <v>53</v>
       </c>
       <c r="D40">
-        <v>960</v>
+        <v>0.96</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="F40">
-        <v>-775</v>
+        <v>0.425</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -2243,21 +2202,21 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J40">
         <v>1</v>
       </c>
       <c r="L40">
-        <v>600</v>
+        <v>0.592</v>
       </c>
       <c r="M40">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
-        <v>204</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
         <v>14</v>
@@ -2266,13 +2225,13 @@
         <v>54</v>
       </c>
       <c r="D41">
-        <v>960</v>
+        <v>0.96</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="F41">
-        <v>425</v>
+        <v>1.025</v>
       </c>
       <c r="G41">
         <v>4</v>
@@ -2281,21 +2240,21 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J41">
         <v>1</v>
       </c>
       <c r="L41">
-        <v>600</v>
+        <v>0.592</v>
       </c>
       <c r="M41">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
-        <v>205</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
@@ -2304,36 +2263,36 @@
         <v>55</v>
       </c>
       <c r="D42">
-        <v>960</v>
+        <v>0.6</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F42">
-        <v>1025</v>
+        <v>-0.775</v>
       </c>
       <c r="G42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J42">
         <v>1</v>
       </c>
       <c r="L42">
-        <v>600</v>
+        <v>1.94</v>
       </c>
       <c r="M42">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
-        <v>206</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
@@ -2342,36 +2301,36 @@
         <v>56</v>
       </c>
       <c r="D43">
-        <v>960</v>
+        <v>0.6</v>
       </c>
       <c r="E43">
-        <v>-300</v>
+        <v>0.75</v>
       </c>
       <c r="F43">
-        <v>-175</v>
+        <v>-0.025</v>
       </c>
       <c r="G43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
       <c r="L43">
-        <v>600</v>
+        <v>1.94</v>
       </c>
       <c r="M43">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
-        <v>208</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
@@ -2380,36 +2339,36 @@
         <v>57</v>
       </c>
       <c r="D44">
-        <v>960</v>
+        <v>0.3</v>
       </c>
       <c r="E44">
-        <v>-300</v>
+        <v>-0.9</v>
       </c>
       <c r="F44">
-        <v>1025</v>
+        <v>0.425</v>
       </c>
       <c r="G44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J44">
         <v>1</v>
       </c>
       <c r="L44">
-        <v>600</v>
+        <v>1.94</v>
       </c>
       <c r="M44">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
         <v>14</v>
@@ -2418,36 +2377,36 @@
         <v>58</v>
       </c>
       <c r="D45">
-        <v>960</v>
+        <v>0.6</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="F45">
-        <v>-175</v>
+        <v>-0.775</v>
       </c>
       <c r="G45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J45">
         <v>1</v>
       </c>
       <c r="L45">
-        <v>600</v>
+        <v>1.94</v>
       </c>
       <c r="M45">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
         <v>14</v>
@@ -2456,36 +2415,36 @@
         <v>59</v>
       </c>
       <c r="D46">
-        <v>960</v>
+        <v>0.3</v>
       </c>
       <c r="E46">
-        <v>-300</v>
+        <v>-0.9</v>
       </c>
       <c r="F46">
-        <v>-775</v>
+        <v>-0.775</v>
       </c>
       <c r="G46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J46">
         <v>1</v>
       </c>
       <c r="L46">
-        <v>600</v>
+        <v>1.94</v>
       </c>
       <c r="M46">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1">
-        <v>207</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
         <v>14</v>
@@ -2494,36 +2453,36 @@
         <v>60</v>
       </c>
       <c r="D47">
-        <v>960</v>
+        <v>0.3</v>
       </c>
       <c r="E47">
-        <v>-300</v>
+        <v>-0.9</v>
       </c>
       <c r="F47">
-        <v>425</v>
+        <v>-0.175</v>
       </c>
       <c r="G47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J47">
         <v>1</v>
       </c>
       <c r="L47">
-        <v>600</v>
+        <v>1.94</v>
       </c>
       <c r="M47">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1">
-        <v>209</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
         <v>14</v>
@@ -2532,13 +2491,13 @@
         <v>61</v>
       </c>
       <c r="D48">
-        <v>600</v>
+        <v>0.3</v>
       </c>
       <c r="E48">
-        <v>-900</v>
+        <v>-0.9</v>
       </c>
       <c r="F48">
-        <v>-775</v>
+        <v>1.025</v>
       </c>
       <c r="G48">
         <v>5</v>
@@ -2547,21 +2506,21 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
       <c r="L48">
-        <v>1940</v>
+        <v>1.94</v>
       </c>
       <c r="M48">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1">
-        <v>212</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
         <v>14</v>
@@ -2570,13 +2529,13 @@
         <v>62</v>
       </c>
       <c r="D49">
-        <v>600</v>
+        <v>0.6</v>
       </c>
       <c r="E49">
-        <v>-450</v>
+        <v>-0.9</v>
       </c>
       <c r="F49">
-        <v>-25</v>
+        <v>-0.775</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -2585,21 +2544,21 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J49">
         <v>1</v>
       </c>
       <c r="L49">
-        <v>1940</v>
+        <v>1.94</v>
       </c>
       <c r="M49">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1">
-        <v>213</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
         <v>14</v>
@@ -2608,13 +2567,13 @@
         <v>63</v>
       </c>
       <c r="D50">
-        <v>600</v>
+        <v>0.6</v>
       </c>
       <c r="E50">
-        <v>150</v>
+        <v>-0.9</v>
       </c>
       <c r="F50">
-        <v>-775</v>
+        <v>-0.025</v>
       </c>
       <c r="G50">
         <v>5</v>
@@ -2623,21 +2582,21 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J50">
         <v>1</v>
       </c>
       <c r="L50">
-        <v>1940</v>
+        <v>1.94</v>
       </c>
       <c r="M50">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
         <v>14</v>
@@ -2646,13 +2605,13 @@
         <v>64</v>
       </c>
       <c r="D51">
-        <v>600</v>
+        <v>0.6</v>
       </c>
       <c r="E51">
-        <v>150</v>
+        <v>-0.45</v>
       </c>
       <c r="F51">
-        <v>-25</v>
+        <v>-0.775</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -2661,21 +2620,21 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J51">
         <v>1</v>
       </c>
       <c r="L51">
-        <v>1940</v>
+        <v>1.94</v>
       </c>
       <c r="M51">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1">
-        <v>215</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
         <v>14</v>
@@ -2684,13 +2643,13 @@
         <v>65</v>
       </c>
       <c r="D52">
-        <v>600</v>
+        <v>0.6</v>
       </c>
       <c r="E52">
-        <v>750</v>
+        <v>0.15</v>
       </c>
       <c r="F52">
-        <v>-25</v>
+        <v>-0.025</v>
       </c>
       <c r="G52">
         <v>5</v>
@@ -2699,21 +2658,21 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J52">
         <v>1</v>
       </c>
       <c r="L52">
-        <v>1940</v>
+        <v>1.94</v>
       </c>
       <c r="M52">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1">
-        <v>216</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s">
         <v>14</v>
@@ -2722,13 +2681,13 @@
         <v>66</v>
       </c>
       <c r="D53">
-        <v>600</v>
+        <v>0.6</v>
       </c>
       <c r="E53">
-        <v>750</v>
+        <v>-0.45</v>
       </c>
       <c r="F53">
-        <v>-775</v>
+        <v>-0.025</v>
       </c>
       <c r="G53">
         <v>5</v>
@@ -2737,21 +2696,21 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J53">
         <v>1</v>
       </c>
       <c r="L53">
-        <v>1940</v>
+        <v>1.94</v>
       </c>
       <c r="M53">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1">
-        <v>210</v>
+        <v>69</v>
       </c>
       <c r="B54" t="s">
         <v>14</v>
@@ -2760,36 +2719,36 @@
         <v>67</v>
       </c>
       <c r="D54">
-        <v>600</v>
+        <v>1.8</v>
       </c>
       <c r="E54">
-        <v>-900</v>
+        <v>0.3</v>
       </c>
       <c r="F54">
-        <v>-25</v>
+        <v>1.05</v>
       </c>
       <c r="G54">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J54">
         <v>1</v>
       </c>
       <c r="L54">
-        <v>1940</v>
+        <v>1.932</v>
       </c>
       <c r="M54">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1">
-        <v>211</v>
+        <v>62</v>
       </c>
       <c r="B55" t="s">
         <v>14</v>
@@ -2798,36 +2757,36 @@
         <v>68</v>
       </c>
       <c r="D55">
-        <v>600</v>
+        <v>1.8</v>
       </c>
       <c r="E55">
-        <v>-450</v>
+        <v>-0.3</v>
       </c>
       <c r="F55">
-        <v>-775</v>
+        <v>-0.75</v>
       </c>
       <c r="G55">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J55">
         <v>1</v>
       </c>
       <c r="L55">
-        <v>1940</v>
+        <v>1.932</v>
       </c>
       <c r="M55">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1">
-        <v>219</v>
+        <v>63</v>
       </c>
       <c r="B56" t="s">
         <v>14</v>
@@ -2836,13 +2795,13 @@
         <v>69</v>
       </c>
       <c r="D56">
-        <v>-1800</v>
+        <v>1.8</v>
       </c>
       <c r="E56">
-        <v>-300</v>
+        <v>-0.3</v>
       </c>
       <c r="F56">
-        <v>450</v>
+        <v>-0.15</v>
       </c>
       <c r="G56">
         <v>6</v>
@@ -2851,21 +2810,21 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J56">
         <v>1</v>
       </c>
       <c r="L56">
-        <v>1932</v>
+        <v>1.932</v>
       </c>
       <c r="M56">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1">
-        <v>220</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s">
         <v>14</v>
@@ -2874,13 +2833,13 @@
         <v>70</v>
       </c>
       <c r="D57">
-        <v>-1800</v>
+        <v>1.8</v>
       </c>
       <c r="E57">
-        <v>-300</v>
+        <v>-0.3</v>
       </c>
       <c r="F57">
-        <v>1050</v>
+        <v>0.45</v>
       </c>
       <c r="G57">
         <v>6</v>
@@ -2889,21 +2848,21 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J57">
         <v>1</v>
       </c>
       <c r="L57">
-        <v>1932</v>
+        <v>1.932</v>
       </c>
       <c r="M57">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1">
-        <v>221</v>
+        <v>67</v>
       </c>
       <c r="B58" t="s">
         <v>14</v>
@@ -2912,13 +2871,13 @@
         <v>71</v>
       </c>
       <c r="D58">
-        <v>-1800</v>
+        <v>1.8</v>
       </c>
       <c r="E58">
-        <v>300</v>
+        <v>0.3</v>
       </c>
       <c r="F58">
-        <v>-750</v>
+        <v>-0.15</v>
       </c>
       <c r="G58">
         <v>6</v>
@@ -2927,21 +2886,21 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J58">
         <v>1</v>
       </c>
       <c r="L58">
-        <v>1932</v>
+        <v>1.932</v>
       </c>
       <c r="M58">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1">
-        <v>222</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
         <v>14</v>
@@ -2950,13 +2909,13 @@
         <v>72</v>
       </c>
       <c r="D59">
-        <v>-1800</v>
+        <v>1.8</v>
       </c>
       <c r="E59">
-        <v>300</v>
+        <v>-0.3</v>
       </c>
       <c r="F59">
-        <v>-150</v>
+        <v>1.05</v>
       </c>
       <c r="G59">
         <v>6</v>
@@ -2965,21 +2924,21 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J59">
         <v>1</v>
       </c>
       <c r="L59">
-        <v>1932</v>
+        <v>1.932</v>
       </c>
       <c r="M59">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1">
-        <v>218</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s">
         <v>14</v>
@@ -2988,13 +2947,13 @@
         <v>73</v>
       </c>
       <c r="D60">
-        <v>-1800</v>
+        <v>1.8</v>
       </c>
       <c r="E60">
-        <v>-300</v>
+        <v>0.3</v>
       </c>
       <c r="F60">
-        <v>-150</v>
+        <v>-0.75</v>
       </c>
       <c r="G60">
         <v>6</v>
@@ -3003,21 +2962,21 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J60">
         <v>1</v>
       </c>
       <c r="L60">
-        <v>1932</v>
+        <v>1.932</v>
       </c>
       <c r="M60">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1">
-        <v>217</v>
+        <v>68</v>
       </c>
       <c r="B61" t="s">
         <v>14</v>
@@ -3026,13 +2985,13 @@
         <v>74</v>
       </c>
       <c r="D61">
-        <v>-1800</v>
+        <v>1.8</v>
       </c>
       <c r="E61">
-        <v>-300</v>
+        <v>0.3</v>
       </c>
       <c r="F61">
-        <v>-750</v>
+        <v>0.45</v>
       </c>
       <c r="G61">
         <v>6</v>
@@ -3041,21 +3000,21 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J61">
         <v>1</v>
       </c>
       <c r="L61">
-        <v>1932</v>
+        <v>1.932</v>
       </c>
       <c r="M61">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1">
-        <v>224</v>
+        <v>81</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
@@ -3064,36 +3023,36 @@
         <v>75</v>
       </c>
       <c r="D62">
-        <v>-1800</v>
+        <v>0.72</v>
       </c>
       <c r="E62">
-        <v>300</v>
+        <v>1.05</v>
       </c>
       <c r="F62">
-        <v>1050</v>
-      </c>
-      <c r="G62">
-        <v>6</v>
+        <v>-0.025</v>
+      </c>
+      <c r="G62" t="s">
+        <v>87</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J62">
         <v>1</v>
       </c>
       <c r="L62">
-        <v>1932</v>
+        <v>2.9</v>
       </c>
       <c r="M62">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.932</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1">
-        <v>223</v>
+        <v>80</v>
       </c>
       <c r="B63" t="s">
         <v>14</v>
@@ -3102,36 +3061,36 @@
         <v>76</v>
       </c>
       <c r="D63">
-        <v>-1800</v>
+        <v>0.72</v>
       </c>
       <c r="E63">
-        <v>300</v>
+        <v>0.6</v>
       </c>
       <c r="F63">
-        <v>450</v>
-      </c>
-      <c r="G63">
-        <v>6</v>
+        <v>-0.025</v>
+      </c>
+      <c r="G63" t="s">
+        <v>87</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J63">
         <v>1</v>
       </c>
       <c r="L63">
-        <v>1932</v>
+        <v>2.9</v>
       </c>
       <c r="M63">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.932</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="B64" t="s">
         <v>14</v>
@@ -3140,36 +3099,36 @@
         <v>77</v>
       </c>
       <c r="D64">
-        <v>720</v>
+        <v>0.72</v>
       </c>
       <c r="E64">
-        <v>1050</v>
+        <v>0.15</v>
       </c>
       <c r="F64">
-        <v>-25</v>
+        <v>-0.025</v>
       </c>
       <c r="G64" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J64">
         <v>1</v>
       </c>
       <c r="L64">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="M64">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.932</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="B65" t="s">
         <v>14</v>
@@ -3178,36 +3137,36 @@
         <v>78</v>
       </c>
       <c r="D65">
-        <v>720</v>
+        <v>0.12</v>
       </c>
       <c r="E65">
-        <v>600</v>
+        <v>0.6</v>
       </c>
       <c r="F65">
-        <v>-25</v>
+        <v>-0.025</v>
       </c>
       <c r="G65" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J65">
         <v>1</v>
       </c>
       <c r="L65">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="M65">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.932</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1">
-        <v>234</v>
+        <v>76</v>
       </c>
       <c r="B66" t="s">
         <v>14</v>
@@ -3216,36 +3175,36 @@
         <v>79</v>
       </c>
       <c r="D66">
-        <v>720</v>
+        <v>0.12</v>
       </c>
       <c r="E66">
-        <v>150</v>
+        <v>1.05</v>
       </c>
       <c r="F66">
-        <v>-25</v>
+        <v>-0.025</v>
       </c>
       <c r="G66" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H66">
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J66">
         <v>1</v>
       </c>
       <c r="L66">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="M66">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.932</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1">
-        <v>233</v>
+        <v>75</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
@@ -3254,36 +3213,36 @@
         <v>80</v>
       </c>
       <c r="D67">
-        <v>120</v>
+        <v>2.31</v>
       </c>
       <c r="E67">
-        <v>150</v>
+        <v>1.2</v>
       </c>
       <c r="F67">
-        <v>-25</v>
+        <v>-0.025</v>
       </c>
       <c r="G67" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J67">
         <v>1</v>
       </c>
       <c r="L67">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="M67">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.932</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1">
-        <v>232</v>
+        <v>73</v>
       </c>
       <c r="B68" t="s">
         <v>14</v>
@@ -3292,36 +3251,36 @@
         <v>81</v>
       </c>
       <c r="D68">
-        <v>120</v>
+        <v>2.31</v>
       </c>
       <c r="E68">
-        <v>600</v>
+        <v>0.15</v>
       </c>
       <c r="F68">
-        <v>-25</v>
+        <v>-0.025</v>
       </c>
       <c r="G68" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J68">
         <v>1</v>
       </c>
       <c r="L68">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="M68">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.932</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1">
-        <v>231</v>
+        <v>72</v>
       </c>
       <c r="B69" t="s">
         <v>14</v>
@@ -3330,36 +3289,36 @@
         <v>82</v>
       </c>
       <c r="D69">
-        <v>120</v>
+        <v>1.41</v>
       </c>
       <c r="E69">
-        <v>1050</v>
+        <v>1.2</v>
       </c>
       <c r="F69">
-        <v>-25</v>
+        <v>-0.025</v>
       </c>
       <c r="G69" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J69">
         <v>1</v>
       </c>
       <c r="L69">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="M69">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.932</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1">
-        <v>230</v>
+        <v>71</v>
       </c>
       <c r="B70" t="s">
         <v>14</v>
@@ -3368,36 +3327,36 @@
         <v>83</v>
       </c>
       <c r="D70">
-        <v>2310</v>
+        <v>1.41</v>
       </c>
       <c r="E70">
-        <v>1200</v>
+        <v>0.6</v>
       </c>
       <c r="F70">
-        <v>-25</v>
+        <v>-0.025</v>
       </c>
       <c r="G70" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J70">
         <v>1</v>
       </c>
       <c r="L70">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="M70">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.932</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1">
-        <v>229</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>14</v>
@@ -3406,36 +3365,36 @@
         <v>84</v>
       </c>
       <c r="D71">
-        <v>2310</v>
+        <v>1.41</v>
       </c>
       <c r="E71">
-        <v>600</v>
+        <v>0.15</v>
       </c>
       <c r="F71">
-        <v>-25</v>
+        <v>-0.025</v>
       </c>
       <c r="G71" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J71">
         <v>1</v>
       </c>
       <c r="L71">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="M71">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.932</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1">
-        <v>228</v>
+        <v>78</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
@@ -3444,36 +3403,36 @@
         <v>85</v>
       </c>
       <c r="D72">
-        <v>2310</v>
+        <v>0.12</v>
       </c>
       <c r="E72">
-        <v>150</v>
+        <v>0.15</v>
       </c>
       <c r="F72">
-        <v>-25</v>
+        <v>-0.025</v>
       </c>
       <c r="G72" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J72">
         <v>1</v>
       </c>
       <c r="L72">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="M72">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.932</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1">
-        <v>226</v>
+        <v>74</v>
       </c>
       <c r="B73" t="s">
         <v>14</v>
@@ -3482,107 +3441,31 @@
         <v>86</v>
       </c>
       <c r="D73">
-        <v>1410</v>
+        <v>2.31</v>
       </c>
       <c r="E73">
-        <v>600</v>
+        <v>0.6</v>
       </c>
       <c r="F73">
-        <v>-25</v>
+        <v>-0.025</v>
       </c>
       <c r="G73" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J73">
         <v>1</v>
       </c>
       <c r="L73">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="M73">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>227</v>
-      </c>
-      <c r="B74" t="s">
-        <v>14</v>
-      </c>
-      <c r="C74" t="s">
-        <v>87</v>
-      </c>
-      <c r="D74">
-        <v>1410</v>
-      </c>
-      <c r="E74">
-        <v>1200</v>
-      </c>
-      <c r="F74">
-        <v>-25</v>
-      </c>
-      <c r="G74" t="s">
-        <v>89</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74" t="s">
-        <v>90</v>
-      </c>
-      <c r="J74">
-        <v>1</v>
-      </c>
-      <c r="L74">
-        <v>2900</v>
-      </c>
-      <c r="M74">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>225</v>
-      </c>
-      <c r="B75" t="s">
-        <v>14</v>
-      </c>
-      <c r="C75" t="s">
-        <v>88</v>
-      </c>
-      <c r="D75">
-        <v>1410</v>
-      </c>
-      <c r="E75">
-        <v>150</v>
-      </c>
-      <c r="F75">
-        <v>-25</v>
-      </c>
-      <c r="G75" t="s">
-        <v>89</v>
-      </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
-      <c r="I75" t="s">
-        <v>90</v>
-      </c>
-      <c r="J75">
-        <v>1</v>
-      </c>
-      <c r="L75">
-        <v>2900</v>
-      </c>
-      <c r="M75">
-        <v>1932</v>
+        <v>1.932</v>
       </c>
     </row>
   </sheetData>
@@ -3591,19 +3474,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3647,24 +3525,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>146</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
         <v>91</v>
       </c>
-      <c r="C2" t="s">
-        <v>92</v>
-      </c>
       <c r="D2">
-        <v>1200</v>
+        <v>1.202</v>
       </c>
       <c r="E2">
-        <v>210</v>
+        <v>0.16</v>
       </c>
       <c r="F2">
-        <v>-50</v>
+        <v>-0.181</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -3673,36 +3551,36 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0.96</v>
+      </c>
+      <c r="M2">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1">
+        <v>166</v>
+      </c>
+      <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>960</v>
-      </c>
-      <c r="M2">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>164</v>
-      </c>
-      <c r="B3" t="s">
-        <v>91</v>
-      </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3">
-        <v>1200</v>
+        <v>1.2</v>
       </c>
       <c r="E3">
-        <v>160</v>
+        <v>0.21</v>
       </c>
       <c r="F3">
-        <v>-181</v>
+        <v>-0.05</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -3711,74 +3589,74 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.96</v>
+      </c>
+      <c r="M3">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1">
+        <v>228</v>
+      </c>
+      <c r="B4" t="s">
         <v>90</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>960</v>
-      </c>
-      <c r="M3">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>149</v>
-      </c>
-      <c r="B4" t="s">
-        <v>91</v>
-      </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4">
-        <v>960</v>
+        <v>0.38</v>
       </c>
       <c r="E4">
-        <v>-170</v>
+        <v>-0.8</v>
       </c>
       <c r="F4">
-        <v>-375</v>
+        <v>-0.725</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>6</v>
       </c>
       <c r="I4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1.94</v>
+      </c>
+      <c r="M4">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
         <v>90</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>600</v>
-      </c>
-      <c r="M4">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>143</v>
-      </c>
-      <c r="B5" t="s">
-        <v>91</v>
-      </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5">
-        <v>600</v>
+        <v>0.305</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="F5">
-        <v>125</v>
+        <v>-0.453</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -3787,36 +3665,36 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1.94</v>
+      </c>
+      <c r="M5">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1">
+        <v>231</v>
+      </c>
+      <c r="B6" t="s">
         <v>90</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1940</v>
-      </c>
-      <c r="M5">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>70</v>
-      </c>
-      <c r="B6" t="s">
-        <v>91</v>
-      </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6">
-        <v>637</v>
+        <v>0.492</v>
       </c>
       <c r="E6">
-        <v>-800</v>
+        <v>-0.45</v>
       </c>
       <c r="F6">
-        <v>-365</v>
+        <v>-0.175</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -3825,510 +3703,130 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1.94</v>
+      </c>
+      <c r="M6">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1">
+        <v>233</v>
+      </c>
+      <c r="B7" t="s">
         <v>90</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1940</v>
-      </c>
-      <c r="M6">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>159</v>
-      </c>
-      <c r="B7" t="s">
-        <v>91</v>
-      </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7">
-        <v>645</v>
+        <v>0.392</v>
       </c>
       <c r="E7">
-        <v>1075</v>
+        <v>-0.575</v>
       </c>
       <c r="F7">
-        <v>-50</v>
-      </c>
-      <c r="G7" t="s">
-        <v>89</v>
+        <v>-1.024</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1.94</v>
+      </c>
+      <c r="M7">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1">
+        <v>229</v>
+      </c>
+      <c r="B8" t="s">
         <v>90</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>2900</v>
-      </c>
-      <c r="M7">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>91</v>
-      </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8">
-        <v>645</v>
+        <v>0.54</v>
       </c>
       <c r="E8">
-        <v>1112</v>
+        <v>0.45</v>
       </c>
       <c r="F8">
-        <v>-77</v>
-      </c>
-      <c r="G8" t="s">
-        <v>89</v>
+        <v>-0.175</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
       </c>
       <c r="H8">
         <v>6</v>
       </c>
       <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1.94</v>
+      </c>
+      <c r="M8">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1">
+        <v>236</v>
+      </c>
+      <c r="B9" t="s">
         <v>90</v>
       </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>2900</v>
-      </c>
-      <c r="M8">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>58</v>
-      </c>
-      <c r="B9" t="s">
-        <v>91</v>
-      </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9">
-        <v>2235</v>
+        <v>0.6</v>
       </c>
       <c r="E9">
-        <v>1650</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>100</v>
-      </c>
-      <c r="G9" t="s">
-        <v>89</v>
+        <v>0.125</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
       </c>
       <c r="H9">
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>2900</v>
+        <v>1.94</v>
       </c>
       <c r="M9">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>61</v>
-      </c>
-      <c r="B10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10">
-        <v>2385</v>
-      </c>
-      <c r="E10">
-        <v>1710</v>
-      </c>
-      <c r="F10">
-        <v>175</v>
-      </c>
-      <c r="G10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10">
-        <v>6</v>
-      </c>
-      <c r="I10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>2900</v>
-      </c>
-      <c r="M10">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>74</v>
-      </c>
-      <c r="B11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11">
-        <v>1010</v>
-      </c>
-      <c r="E11">
-        <v>1535</v>
-      </c>
-      <c r="F11">
-        <v>-77</v>
-      </c>
-      <c r="G11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11">
-        <v>6</v>
-      </c>
-      <c r="I11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>2900</v>
-      </c>
-      <c r="M11">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>103</v>
-      </c>
-      <c r="B12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12">
-        <v>2660</v>
-      </c>
-      <c r="E12">
-        <v>435</v>
-      </c>
-      <c r="F12">
-        <v>210</v>
-      </c>
-      <c r="G12" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12">
-        <v>6</v>
-      </c>
-      <c r="I12" t="s">
-        <v>90</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>2900</v>
-      </c>
-      <c r="M12">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>144</v>
-      </c>
-      <c r="B13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13">
-        <v>1060</v>
-      </c>
-      <c r="E13">
-        <v>1580</v>
-      </c>
-      <c r="F13">
-        <v>275</v>
-      </c>
-      <c r="G13" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13">
-        <v>6</v>
-      </c>
-      <c r="I13" t="s">
-        <v>90</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>2900</v>
-      </c>
-      <c r="M13">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>145</v>
-      </c>
-      <c r="B14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14">
-        <v>2310</v>
-      </c>
-      <c r="E14">
-        <v>1740</v>
-      </c>
-      <c r="F14">
-        <v>825</v>
-      </c>
-      <c r="G14" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14">
-        <v>6</v>
-      </c>
-      <c r="I14" t="s">
-        <v>90</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>2900</v>
-      </c>
-      <c r="M14">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>148</v>
-      </c>
-      <c r="B15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15">
-        <v>1320</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1175</v>
-      </c>
-      <c r="G15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H15">
-        <v>6</v>
-      </c>
-      <c r="I15" t="s">
-        <v>90</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>2900</v>
-      </c>
-      <c r="M15">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>153</v>
-      </c>
-      <c r="B16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16">
-        <v>1410</v>
-      </c>
-      <c r="E16">
-        <v>1692</v>
-      </c>
-      <c r="F16">
-        <v>825</v>
-      </c>
-      <c r="G16" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16">
-        <v>6</v>
-      </c>
-      <c r="I16" t="s">
-        <v>90</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>2900</v>
-      </c>
-      <c r="M16">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>154</v>
-      </c>
-      <c r="B17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17">
-        <v>1010</v>
-      </c>
-      <c r="E17">
-        <v>1535</v>
-      </c>
-      <c r="F17">
-        <v>-25</v>
-      </c>
-      <c r="G17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17">
-        <v>6</v>
-      </c>
-      <c r="I17" t="s">
-        <v>90</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>2900</v>
-      </c>
-      <c r="M17">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>158</v>
-      </c>
-      <c r="B18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18">
-        <v>1285</v>
-      </c>
-      <c r="E18">
-        <v>1592</v>
-      </c>
-      <c r="F18">
-        <v>-24</v>
-      </c>
-      <c r="G18" t="s">
-        <v>89</v>
-      </c>
-      <c r="H18">
-        <v>6</v>
-      </c>
-      <c r="I18" t="s">
-        <v>90</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>2900</v>
-      </c>
-      <c r="M18">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19">
-        <v>2310</v>
-      </c>
-      <c r="E19">
-        <v>1505</v>
-      </c>
-      <c r="F19">
-        <v>547</v>
-      </c>
-      <c r="G19" t="s">
-        <v>89</v>
-      </c>
-      <c r="H19">
-        <v>6</v>
-      </c>
-      <c r="I19" t="s">
-        <v>90</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>2900</v>
-      </c>
-      <c r="M19">
-        <v>1932</v>
+        <v>2.655</v>
       </c>
     </row>
   </sheetData>
@@ -4337,14 +3835,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4352,13 +3850,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
